--- a/Pipeline/2023-edited-hiyam-2025-eventdescen-added.xlsx
+++ b/Pipeline/2023-edited-hiyam-2025-eventdescen-added.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="732">
   <si>
     <t>التاريخ</t>
   </si>
   <si>
+    <t>EventIDRowwise</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
@@ -46,7 +49,529 @@
     <t>Drop Down Window of Date</t>
   </si>
   <si>
-    <t>Accounts</t>
+    <t>E04-03-2023_corruption_row2</t>
+  </si>
+  <si>
+    <t>E17-04-2020_corruption_row3</t>
+  </si>
+  <si>
+    <t>E11-01-2021_corruption_row4</t>
+  </si>
+  <si>
+    <t>E04-05-2021_corruption_row5</t>
+  </si>
+  <si>
+    <t>E05-12-2021_corruption_row6</t>
+  </si>
+  <si>
+    <t>E22-02-2022_corruption_row7</t>
+  </si>
+  <si>
+    <t>E17-04-2022_corruption_row8</t>
+  </si>
+  <si>
+    <t>E22-06-2022_corruption_row9</t>
+  </si>
+  <si>
+    <t>E25-06-2022_gender_row10</t>
+  </si>
+  <si>
+    <t>E26-06-2022_sexuality_row11</t>
+  </si>
+  <si>
+    <t>E29-12-2022_gender_row12</t>
+  </si>
+  <si>
+    <t>E02-01-2023_corruption_row13</t>
+  </si>
+  <si>
+    <t>E09-01-2023_gender_row14</t>
+  </si>
+  <si>
+    <t>E11-01-2023_corruption_row15</t>
+  </si>
+  <si>
+    <t>E12-01-2023_refugee_row16</t>
+  </si>
+  <si>
+    <t>E19-01-2023_refugee_row17</t>
+  </si>
+  <si>
+    <t>E22-01-2023_religion_row18</t>
+  </si>
+  <si>
+    <t>E23-01-2023_politics and security_row19</t>
+  </si>
+  <si>
+    <t>E25-01-2023_sexuality_row20</t>
+  </si>
+  <si>
+    <t>E27-01-2023_corruption_row21</t>
+  </si>
+  <si>
+    <t>E01-02-2023_refugee_row22</t>
+  </si>
+  <si>
+    <t>E01-02-2023_corruption_row23</t>
+  </si>
+  <si>
+    <t>E04-02-2023_politics and security_row24</t>
+  </si>
+  <si>
+    <t>E13-02-2023_refugee_row25</t>
+  </si>
+  <si>
+    <t>E14-02-2023_politics and security_row26</t>
+  </si>
+  <si>
+    <t>E16-02-2023_corruption_row27</t>
+  </si>
+  <si>
+    <t>E17-02-2023_corruption_row28</t>
+  </si>
+  <si>
+    <t>E19-02-2023_refugee_row29</t>
+  </si>
+  <si>
+    <t>E23-02-2023_corruption_row30</t>
+  </si>
+  <si>
+    <t>E24-02-2023_gender_row31</t>
+  </si>
+  <si>
+    <t>E28-02-2023_gender_row32</t>
+  </si>
+  <si>
+    <t>E01-03-2023_corruption_row33</t>
+  </si>
+  <si>
+    <t>E02-03-2023_corruption_row34</t>
+  </si>
+  <si>
+    <t>E06-03-2023_politics and security_row35</t>
+  </si>
+  <si>
+    <t>E09-03-2023_corruption_row36</t>
+  </si>
+  <si>
+    <t>E11-03-2023_refugee_row37</t>
+  </si>
+  <si>
+    <t>E15-03-2023_corruption_row38</t>
+  </si>
+  <si>
+    <t>E16-03-2023_gender_row39</t>
+  </si>
+  <si>
+    <t>E22-03-2023_corruption_row40</t>
+  </si>
+  <si>
+    <t>E24-03-2023_refugee_row41</t>
+  </si>
+  <si>
+    <t>E25-03-2023_religion_row42</t>
+  </si>
+  <si>
+    <t>E27-03-2023_gender_row43</t>
+  </si>
+  <si>
+    <t>E30-03-2023_corruption_row44</t>
+  </si>
+  <si>
+    <t>E03-04-2023_gender_row45</t>
+  </si>
+  <si>
+    <t>E12-04-2023_sexuality_row46</t>
+  </si>
+  <si>
+    <t>E18-04-2023_politics and security_row47</t>
+  </si>
+  <si>
+    <t>E19-04-2023_corruption_row48</t>
+  </si>
+  <si>
+    <t>E20-04-2023_refugee_row49</t>
+  </si>
+  <si>
+    <t>E22-04-2023_gender_row50</t>
+  </si>
+  <si>
+    <t>E25-04-2023_refugee_row51</t>
+  </si>
+  <si>
+    <t>E26-04-2023_refugee_row52</t>
+  </si>
+  <si>
+    <t>E28-04-2023_politics and security_row53</t>
+  </si>
+  <si>
+    <t>E29-04-2023_gender_row54</t>
+  </si>
+  <si>
+    <t>E02-05-2023_refugee_row55</t>
+  </si>
+  <si>
+    <t>E04-05-2023_corruption_row56</t>
+  </si>
+  <si>
+    <t>E07-05-2023_politics and security_row57</t>
+  </si>
+  <si>
+    <t>E09-05-2023_refugee_row58</t>
+  </si>
+  <si>
+    <t>E10-05-2023_gender_row59</t>
+  </si>
+  <si>
+    <t>E14-05-2023_gender_row60</t>
+  </si>
+  <si>
+    <t>E14-05-2023_refugee_row61</t>
+  </si>
+  <si>
+    <t>E16-05-2023_corruption_row62</t>
+  </si>
+  <si>
+    <t>E17-05-2023_sexuality_row63</t>
+  </si>
+  <si>
+    <t>E18-05-2023_sexuality_row64</t>
+  </si>
+  <si>
+    <t>E24-05-2023_refugee_row65</t>
+  </si>
+  <si>
+    <t>E25-05-2023_politics and security_row66</t>
+  </si>
+  <si>
+    <t>E25-05-2023_gender_row67</t>
+  </si>
+  <si>
+    <t>E27-05-2023_politics and security_row68</t>
+  </si>
+  <si>
+    <t>E01-06-2023_politics and security_row69</t>
+  </si>
+  <si>
+    <t>E01-06-2023_refugee_row70</t>
+  </si>
+  <si>
+    <t>E02-06-2023_politics and security_row71</t>
+  </si>
+  <si>
+    <t>E04-06-2023_politics and security_row72</t>
+  </si>
+  <si>
+    <t>E04-06-2023_corruption_row73</t>
+  </si>
+  <si>
+    <t>E08-06-2023_politics and security_row74</t>
+  </si>
+  <si>
+    <t>E09-06-2023_gender_row75</t>
+  </si>
+  <si>
+    <t>E11-06-2023_corruption_row76</t>
+  </si>
+  <si>
+    <t>E17-06-2023_sexuality_row77</t>
+  </si>
+  <si>
+    <t>E19-06-2023_corruption_row78</t>
+  </si>
+  <si>
+    <t>E20-06-2023_sexuality_row79</t>
+  </si>
+  <si>
+    <t>E21-06-2023_sexuality_row80</t>
+  </si>
+  <si>
+    <t>E22-06-2023_sexuality_row81</t>
+  </si>
+  <si>
+    <t>E24-06-2023_refugee_row82</t>
+  </si>
+  <si>
+    <t>E25-06-2023_politics and security_row83</t>
+  </si>
+  <si>
+    <t>E30-06-2023_gender_row84</t>
+  </si>
+  <si>
+    <t>E01-07-2023_politics and security_row85</t>
+  </si>
+  <si>
+    <t>E10-07-2023_gender_row86</t>
+  </si>
+  <si>
+    <t>E12-07-2023_sexuality_row87</t>
+  </si>
+  <si>
+    <t>E15-07-2023_religion_row88</t>
+  </si>
+  <si>
+    <t>E12-07-2023_refugee_row89</t>
+  </si>
+  <si>
+    <t>E18-07-2023_refugee_row90</t>
+  </si>
+  <si>
+    <t>E19-07-2023_sexuality_row91</t>
+  </si>
+  <si>
+    <t>E22-07-2023_sexuality_row92</t>
+  </si>
+  <si>
+    <t>E27-07-2023_corruption_row93</t>
+  </si>
+  <si>
+    <t>E28-07-2023_sexuality_row94</t>
+  </si>
+  <si>
+    <t>E29-07-2023_sexuality_row95</t>
+  </si>
+  <si>
+    <t>E29-07-2023_sexuality_row96</t>
+  </si>
+  <si>
+    <t>E29-07-2023_sexuality_row97</t>
+  </si>
+  <si>
+    <t>E30-07-2023_politics and security_row98</t>
+  </si>
+  <si>
+    <t>E31-07-2023_corruption_row99</t>
+  </si>
+  <si>
+    <t>E01-08-2023_refugee_row100</t>
+  </si>
+  <si>
+    <t>E01-08-2023_corruption_row101</t>
+  </si>
+  <si>
+    <t>E02-08-2023_politics and security_row102</t>
+  </si>
+  <si>
+    <t>E04-08-2023_politics and security_row103</t>
+  </si>
+  <si>
+    <t>E06-08-2023_sexuality_row104</t>
+  </si>
+  <si>
+    <t>E07-08-2023_gender_row105</t>
+  </si>
+  <si>
+    <t>E07-08-2023_refugee_row106</t>
+  </si>
+  <si>
+    <t>E08-08-2023_sexuality_row107</t>
+  </si>
+  <si>
+    <t>E09-08-2023_politics and security_row108</t>
+  </si>
+  <si>
+    <t>E09-08-2023_sexuality_row109</t>
+  </si>
+  <si>
+    <t>E10-08-2023_sexuality_row110</t>
+  </si>
+  <si>
+    <t>E10-08-2023_corruption_row111</t>
+  </si>
+  <si>
+    <t>E11-08-2023_corruption_row112</t>
+  </si>
+  <si>
+    <t>E11-08-2023_corruption_row113</t>
+  </si>
+  <si>
+    <t>E15-08-2023_politics and security_row114</t>
+  </si>
+  <si>
+    <t>E15-08-2023_refugee_row115</t>
+  </si>
+  <si>
+    <t>E15-08-2023_refugee_row116</t>
+  </si>
+  <si>
+    <t>E16-08-2023_sexuality_row117</t>
+  </si>
+  <si>
+    <t>E16-08-2023_sexuality_row118</t>
+  </si>
+  <si>
+    <t>E16-08-2023_corruption_row119</t>
+  </si>
+  <si>
+    <t>E17-08-2023_sexuality_row120</t>
+  </si>
+  <si>
+    <t>E17-08-2023_sexuality_row121</t>
+  </si>
+  <si>
+    <t>E17-08-2023_corruption_row122</t>
+  </si>
+  <si>
+    <t>E19-08-2023_religion_row123</t>
+  </si>
+  <si>
+    <t>E19-08-2023_sexuality_row124</t>
+  </si>
+  <si>
+    <t>E20-08-2023_sexuality_row125</t>
+  </si>
+  <si>
+    <t>E21-08-2023_sexuality_row126</t>
+  </si>
+  <si>
+    <t>E22-08-2023_sexuality_row127</t>
+  </si>
+  <si>
+    <t>E22-08-2023_sexuality_row128</t>
+  </si>
+  <si>
+    <t>E23-08-2023_sexuality_row129</t>
+  </si>
+  <si>
+    <t>E23-08-2023_sexuality_row130</t>
+  </si>
+  <si>
+    <t>E24-08-2023_religion_row131</t>
+  </si>
+  <si>
+    <t>E24-08-2023_sexuality_row132</t>
+  </si>
+  <si>
+    <t>E24-08-2023_sexuality_row133</t>
+  </si>
+  <si>
+    <t>E29-08-2023_religion_row134</t>
+  </si>
+  <si>
+    <t>E30-08-2023_corruption_row135</t>
+  </si>
+  <si>
+    <t>E30-08-2023_corruption_row136</t>
+  </si>
+  <si>
+    <t>E31-08-2023_politics and security_row137</t>
+  </si>
+  <si>
+    <t>E31-08-2023_gender_row138</t>
+  </si>
+  <si>
+    <t>E31-08-2023_sexuality_row139</t>
+  </si>
+  <si>
+    <t>E01-09-2023_sexuality_row140</t>
+  </si>
+  <si>
+    <t>E02-09-2023_sexuality_row141</t>
+  </si>
+  <si>
+    <t>E05-09-2023_sexuality_row142</t>
+  </si>
+  <si>
+    <t>E05-09-2023_corruption_row143</t>
+  </si>
+  <si>
+    <t>E08-09-2023_politics and security_row144</t>
+  </si>
+  <si>
+    <t>E08-09-2023_gender_row145</t>
+  </si>
+  <si>
+    <t>E08-09-2023_refugee_row146</t>
+  </si>
+  <si>
+    <t>E09-09-2023_corruption_row147</t>
+  </si>
+  <si>
+    <t>E13-09-2023_refugee_row148</t>
+  </si>
+  <si>
+    <t>E14-09-2023_politics and security_row149</t>
+  </si>
+  <si>
+    <t>E17-09-2023_refugee_row150</t>
+  </si>
+  <si>
+    <t>E18-09-2023_sexuality_row151</t>
+  </si>
+  <si>
+    <t>E18-09-2023_gender_row152</t>
+  </si>
+  <si>
+    <t>E18-09-2023_sexuality_row153</t>
+  </si>
+  <si>
+    <t>E18-09-2023_sexuality_row154</t>
+  </si>
+  <si>
+    <t>E18-09-2023_refugee_row155</t>
+  </si>
+  <si>
+    <t>E19-09-2023_refugee_row156</t>
+  </si>
+  <si>
+    <t>E20-09-2023_refugee_row157</t>
+  </si>
+  <si>
+    <t>E21-09-2023_refugee_row158</t>
+  </si>
+  <si>
+    <t>E22-09-2023_refugee_row159</t>
+  </si>
+  <si>
+    <t>E22-09-2023_corruption_row160</t>
+  </si>
+  <si>
+    <t>E23-09-2023_corruption_row161</t>
+  </si>
+  <si>
+    <t>E25-09-2023_corruption_row162</t>
+  </si>
+  <si>
+    <t>E27-09-2023_refugee_row163</t>
+  </si>
+  <si>
+    <t>E27-09-2023_corruption_row164</t>
+  </si>
+  <si>
+    <t>E29-09-2023_refugee_row165</t>
+  </si>
+  <si>
+    <t>E30-09-2023_sexuality_row166</t>
+  </si>
+  <si>
+    <t>E01-10-2023_sexuality_row167</t>
+  </si>
+  <si>
+    <t>E01-10-2023_refugee_row168</t>
+  </si>
+  <si>
+    <t>E02-10-2023_refugee_row169</t>
+  </si>
+  <si>
+    <t>E05-10-2023_refugee_row170</t>
+  </si>
+  <si>
+    <t>E05-10-2023_corruption_row171</t>
+  </si>
+  <si>
+    <t>E07-10-2023_politics and security_row172</t>
+  </si>
+  <si>
+    <t>E13-10-2023_corruption_row173</t>
+  </si>
+  <si>
+    <t>E17-10-2023_politics and security_row174</t>
+  </si>
+  <si>
+    <t>E31-10-2023_gender_row175</t>
+  </si>
+  <si>
+    <t>E16-11-2023_politics and security_row176</t>
   </si>
   <si>
     <t>المفتي دريان: السنيورة خط أحمر</t>
@@ -2095,5708 +2620,6233 @@
       <c r="A2" s="2">
         <v>43528</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>2023</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
+      <c r="E2">
+        <v>2023</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H2" t="s">
-        <v>383</v>
+        <v>552</v>
       </c>
       <c r="I2" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="J2" t="s">
-        <v>549</v>
+        <v>724</v>
+      </c>
+      <c r="K2" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>43938</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
         <v>17</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2020</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H3" t="s">
-        <v>384</v>
+        <v>552</v>
       </c>
       <c r="I3" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="J3" t="s">
-        <v>549</v>
+        <v>724</v>
+      </c>
+      <c r="K3" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>44207</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2021</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H4" t="s">
-        <v>385</v>
+        <v>552</v>
       </c>
       <c r="I4" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="J4" t="s">
-        <v>549</v>
+        <v>724</v>
+      </c>
+      <c r="K4" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>44320</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2021</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="G5" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H5" t="s">
-        <v>386</v>
+        <v>552</v>
       </c>
       <c r="I5" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="J5" t="s">
-        <v>549</v>
+        <v>724</v>
+      </c>
+      <c r="K5" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>44535</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>12</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2021</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="G6" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="H6" t="s">
-        <v>387</v>
+        <v>552</v>
       </c>
       <c r="I6" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="J6" t="s">
-        <v>550</v>
+        <v>724</v>
+      </c>
+      <c r="K6" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>44614</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
         <v>22</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2022</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
       <c r="F7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="G7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H7" t="s">
-        <v>388</v>
+        <v>552</v>
       </c>
       <c r="I7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="J7" t="s">
-        <v>551</v>
+        <v>724</v>
+      </c>
+      <c r="K7" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>44668</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2022</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="G8" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="H8" t="s">
-        <v>389</v>
+        <v>552</v>
       </c>
       <c r="I8" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="J8" t="s">
-        <v>550</v>
+        <v>724</v>
+      </c>
+      <c r="K8" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>44734</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
         <v>22</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2022</v>
       </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
       <c r="F9" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="G9" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="H9" t="s">
-        <v>390</v>
+        <v>552</v>
       </c>
       <c r="I9" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="J9" t="s">
-        <v>550</v>
+        <v>724</v>
+      </c>
+      <c r="K9" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>44737</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
         <v>25</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2022</v>
       </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
       <c r="F10" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="G10" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="H10" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
       <c r="I10" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="J10" t="s">
-        <v>552</v>
+        <v>724</v>
+      </c>
+      <c r="K10" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>44738</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
         <v>26</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2022</v>
       </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
       <c r="F11" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="G11" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="H11" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="I11" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="J11" t="s">
-        <v>552</v>
+        <v>724</v>
+      </c>
+      <c r="K11" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>44924</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
         <v>29</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2022</v>
       </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
       <c r="F12" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G12" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="H12" t="s">
-        <v>393</v>
+        <v>553</v>
       </c>
       <c r="I12" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="J12" t="s">
-        <v>552</v>
+        <v>724</v>
+      </c>
+      <c r="K12" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>44928</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>2023</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
+      <c r="E13">
+        <v>2023</v>
       </c>
       <c r="F13" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="G13" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="H13" t="s">
-        <v>394</v>
+        <v>552</v>
       </c>
       <c r="I13" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="J13" t="s">
-        <v>552</v>
+        <v>724</v>
+      </c>
+      <c r="K13" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>44935</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>2023</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
+      <c r="E14">
+        <v>2023</v>
       </c>
       <c r="F14" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="G14" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="H14" t="s">
-        <v>395</v>
+        <v>553</v>
       </c>
       <c r="I14" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="J14" t="s">
-        <v>552</v>
+        <v>724</v>
+      </c>
+      <c r="K14" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>44937</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
         <v>11</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>2023</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
+      <c r="E15">
+        <v>2023</v>
       </c>
       <c r="F15" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="G15" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="H15" t="s">
-        <v>396</v>
+        <v>552</v>
       </c>
       <c r="I15" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="J15" t="s">
-        <v>552</v>
+        <v>724</v>
+      </c>
+      <c r="K15" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>44938</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
+      <c r="E16">
+        <v>2023</v>
       </c>
       <c r="F16" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G16" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="H16" t="s">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="I16" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="J16" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K16" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>44945</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
         <v>19</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>2023</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
+      <c r="E17">
+        <v>2023</v>
       </c>
       <c r="F17" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="G17" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="H17" t="s">
-        <v>398</v>
+        <v>555</v>
       </c>
       <c r="I17" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="J17" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K17" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>44948</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
         <v>22</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>2023</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
+      <c r="E18">
+        <v>2023</v>
       </c>
       <c r="F18" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="G18" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="H18" t="s">
-        <v>399</v>
+        <v>556</v>
       </c>
       <c r="I18" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="J18" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K18" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>44949</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
         <v>23</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>2023</v>
-      </c>
-      <c r="E19" t="s">
-        <v>28</v>
+      <c r="E19">
+        <v>2023</v>
       </c>
       <c r="F19" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="G19" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="H19" t="s">
-        <v>400</v>
+        <v>557</v>
       </c>
       <c r="I19" t="s">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="J19" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K19" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>44951</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
         <v>25</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>2023</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
+      <c r="E20">
+        <v>2023</v>
       </c>
       <c r="F20" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="G20" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="H20" t="s">
-        <v>401</v>
+        <v>554</v>
       </c>
       <c r="I20" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="J20" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K20" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>44953</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
         <v>27</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>2023</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
+      <c r="E21">
+        <v>2023</v>
       </c>
       <c r="F21" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="H21" t="s">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="I21" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="J21" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K21" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>44958</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>2023</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
+      <c r="E22">
+        <v>2023</v>
       </c>
       <c r="F22" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="H22" t="s">
-        <v>403</v>
+        <v>555</v>
       </c>
       <c r="I22" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="J22" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K22" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>44958</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>2</v>
       </c>
-      <c r="D23">
-        <v>2023</v>
-      </c>
-      <c r="E23" t="s">
-        <v>32</v>
+      <c r="E23">
+        <v>2023</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="H23" t="s">
-        <v>404</v>
+        <v>552</v>
       </c>
       <c r="I23" t="s">
-        <v>549</v>
+        <v>579</v>
       </c>
       <c r="J23" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K23" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>44961</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
         <v>4</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>2</v>
       </c>
-      <c r="D24">
-        <v>2023</v>
-      </c>
-      <c r="E24" t="s">
-        <v>33</v>
+      <c r="E24">
+        <v>2023</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="G24" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="H24" t="s">
-        <v>405</v>
+        <v>557</v>
       </c>
       <c r="I24" t="s">
-        <v>549</v>
+        <v>580</v>
       </c>
       <c r="J24" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K24" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>44970</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
         <v>13</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>2</v>
       </c>
-      <c r="D25">
-        <v>2023</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
+      <c r="E25">
+        <v>2023</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="G25" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="H25" t="s">
-        <v>406</v>
+        <v>555</v>
       </c>
       <c r="I25" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="J25" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K25" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>44971</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
         <v>14</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2</v>
       </c>
-      <c r="D26">
-        <v>2023</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
+      <c r="E26">
+        <v>2023</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="G26" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="H26" t="s">
-        <v>407</v>
+        <v>557</v>
       </c>
       <c r="I26" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="J26" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K26" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>44973</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
         <v>16</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2</v>
       </c>
-      <c r="D27">
-        <v>2023</v>
-      </c>
-      <c r="E27" t="s">
-        <v>36</v>
+      <c r="E27">
+        <v>2023</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="H27" t="s">
-        <v>408</v>
+        <v>552</v>
       </c>
       <c r="I27" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="J27" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K27" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>44974</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
         <v>17</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2</v>
       </c>
-      <c r="D28">
-        <v>2023</v>
-      </c>
-      <c r="E28" t="s">
-        <v>37</v>
+      <c r="E28">
+        <v>2023</v>
       </c>
       <c r="F28" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="G28" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="H28" t="s">
-        <v>409</v>
+        <v>552</v>
       </c>
       <c r="I28" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="J28" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K28" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>44976</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
         <v>19</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2</v>
       </c>
-      <c r="D29">
-        <v>2023</v>
-      </c>
-      <c r="E29" t="s">
-        <v>38</v>
+      <c r="E29">
+        <v>2023</v>
       </c>
       <c r="F29" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="G29" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="H29" t="s">
-        <v>410</v>
+        <v>555</v>
       </c>
       <c r="I29" t="s">
-        <v>549</v>
+        <v>585</v>
       </c>
       <c r="J29" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K29" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>44980</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
         <v>23</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>2</v>
       </c>
-      <c r="D30">
-        <v>2023</v>
-      </c>
-      <c r="E30" t="s">
-        <v>39</v>
+      <c r="E30">
+        <v>2023</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="G30" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="H30" t="s">
-        <v>411</v>
+        <v>552</v>
       </c>
       <c r="I30" t="s">
-        <v>549</v>
+        <v>586</v>
       </c>
       <c r="J30" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K30" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>44981</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
         <v>24</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2</v>
       </c>
-      <c r="D31">
-        <v>2023</v>
-      </c>
-      <c r="E31" t="s">
-        <v>40</v>
+      <c r="E31">
+        <v>2023</v>
       </c>
       <c r="F31" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="G31" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="H31" t="s">
-        <v>412</v>
+        <v>553</v>
       </c>
       <c r="I31" t="s">
-        <v>549</v>
+        <v>587</v>
       </c>
       <c r="J31" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K31" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>44985</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
         <v>28</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="D32">
-        <v>2023</v>
-      </c>
-      <c r="E32" t="s">
-        <v>41</v>
+      <c r="E32">
+        <v>2023</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="G32" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="H32" t="s">
-        <v>413</v>
+        <v>553</v>
       </c>
       <c r="I32" t="s">
-        <v>549</v>
+        <v>588</v>
       </c>
       <c r="J32" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K32" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>44986</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
         <v>1</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>3</v>
       </c>
-      <c r="D33">
-        <v>2023</v>
-      </c>
-      <c r="E33" t="s">
-        <v>42</v>
+      <c r="E33">
+        <v>2023</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="G33" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="H33" t="s">
-        <v>414</v>
+        <v>552</v>
       </c>
       <c r="I33" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
       <c r="J33" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K33" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>44987</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
         <v>2</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>3</v>
       </c>
-      <c r="D34">
-        <v>2023</v>
-      </c>
-      <c r="E34" t="s">
-        <v>43</v>
+      <c r="E34">
+        <v>2023</v>
       </c>
       <c r="F34" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="G34" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="H34" t="s">
-        <v>415</v>
+        <v>552</v>
       </c>
       <c r="I34" t="s">
-        <v>549</v>
+        <v>590</v>
       </c>
       <c r="J34" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K34" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>44991</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
         <v>6</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>3</v>
       </c>
-      <c r="D35">
-        <v>2023</v>
-      </c>
-      <c r="E35" t="s">
-        <v>44</v>
+      <c r="E35">
+        <v>2023</v>
       </c>
       <c r="F35" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="G35" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="H35" t="s">
-        <v>416</v>
+        <v>557</v>
       </c>
       <c r="I35" t="s">
-        <v>549</v>
+        <v>591</v>
       </c>
       <c r="J35" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K35" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>44994</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
         <v>9</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>3</v>
       </c>
-      <c r="D36">
-        <v>2023</v>
-      </c>
-      <c r="E36" t="s">
-        <v>45</v>
+      <c r="E36">
+        <v>2023</v>
       </c>
       <c r="F36" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="G36" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="H36" t="s">
-        <v>417</v>
+        <v>552</v>
       </c>
       <c r="I36" t="s">
-        <v>549</v>
+        <v>592</v>
       </c>
       <c r="J36" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K36" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>44996</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
         <v>11</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>3</v>
       </c>
-      <c r="D37">
-        <v>2023</v>
-      </c>
-      <c r="E37" t="s">
-        <v>46</v>
+      <c r="E37">
+        <v>2023</v>
       </c>
       <c r="F37" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="G37" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="H37" t="s">
-        <v>418</v>
+        <v>555</v>
       </c>
       <c r="I37" t="s">
-        <v>549</v>
+        <v>593</v>
       </c>
       <c r="J37" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K37" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>45000</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38">
         <v>15</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>3</v>
       </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
-      <c r="E38" t="s">
-        <v>47</v>
+      <c r="E38">
+        <v>2023</v>
       </c>
       <c r="F38" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="G38" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="H38" t="s">
-        <v>419</v>
+        <v>552</v>
       </c>
       <c r="I38" t="s">
-        <v>549</v>
+        <v>594</v>
       </c>
       <c r="J38" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K38" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>45001</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39">
         <v>16</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>3</v>
       </c>
-      <c r="D39">
-        <v>2023</v>
-      </c>
-      <c r="E39" t="s">
-        <v>48</v>
+      <c r="E39">
+        <v>2023</v>
       </c>
       <c r="F39" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="G39" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="H39" t="s">
-        <v>420</v>
+        <v>553</v>
       </c>
       <c r="I39" t="s">
-        <v>549</v>
+        <v>595</v>
       </c>
       <c r="J39" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K39" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>45007</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40">
         <v>22</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>3</v>
       </c>
-      <c r="D40">
-        <v>2023</v>
-      </c>
-      <c r="E40" t="s">
-        <v>49</v>
+      <c r="E40">
+        <v>2023</v>
       </c>
       <c r="F40" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="G40" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="H40" t="s">
-        <v>421</v>
+        <v>552</v>
       </c>
       <c r="I40" t="s">
-        <v>549</v>
+        <v>596</v>
       </c>
       <c r="J40" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K40" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>45009</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41">
         <v>24</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>3</v>
       </c>
-      <c r="D41">
-        <v>2023</v>
-      </c>
-      <c r="E41" t="s">
-        <v>50</v>
+      <c r="E41">
+        <v>2023</v>
       </c>
       <c r="F41" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="G41" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="H41" t="s">
-        <v>422</v>
+        <v>555</v>
       </c>
       <c r="I41" t="s">
-        <v>549</v>
+        <v>597</v>
       </c>
       <c r="J41" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K41" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>45010</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42">
         <v>25</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>3</v>
       </c>
-      <c r="D42">
-        <v>2023</v>
-      </c>
-      <c r="E42" t="s">
-        <v>51</v>
+      <c r="E42">
+        <v>2023</v>
       </c>
       <c r="F42" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="G42" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="H42" t="s">
-        <v>423</v>
+        <v>556</v>
       </c>
       <c r="I42" t="s">
-        <v>549</v>
+        <v>598</v>
       </c>
       <c r="J42" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K42" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>45012</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43">
         <v>27</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>3</v>
       </c>
-      <c r="D43">
-        <v>2023</v>
-      </c>
-      <c r="E43" t="s">
-        <v>52</v>
+      <c r="E43">
+        <v>2023</v>
       </c>
       <c r="F43" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="G43" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="H43" t="s">
-        <v>424</v>
+        <v>553</v>
       </c>
       <c r="I43" t="s">
-        <v>549</v>
+        <v>599</v>
       </c>
       <c r="J43" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K43" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>45015</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
         <v>30</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>3</v>
       </c>
-      <c r="D44">
-        <v>2023</v>
-      </c>
-      <c r="E44" t="s">
-        <v>53</v>
+      <c r="E44">
+        <v>2023</v>
       </c>
       <c r="F44" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="G44" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="H44" t="s">
-        <v>425</v>
+        <v>552</v>
       </c>
       <c r="I44" t="s">
-        <v>549</v>
+        <v>600</v>
       </c>
       <c r="J44" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K44" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>45019</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45">
         <v>3</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>4</v>
       </c>
-      <c r="D45">
-        <v>2023</v>
-      </c>
-      <c r="E45" t="s">
-        <v>54</v>
+      <c r="E45">
+        <v>2023</v>
       </c>
       <c r="F45" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="G45" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="H45" t="s">
-        <v>426</v>
+        <v>553</v>
       </c>
       <c r="I45" t="s">
-        <v>549</v>
+        <v>601</v>
       </c>
       <c r="J45" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K45" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>45028</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46">
         <v>12</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>4</v>
       </c>
-      <c r="D46">
-        <v>2023</v>
-      </c>
-      <c r="E46" t="s">
-        <v>55</v>
+      <c r="E46">
+        <v>2023</v>
       </c>
       <c r="F46" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="G46" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="H46" t="s">
-        <v>427</v>
+        <v>554</v>
       </c>
       <c r="I46" t="s">
-        <v>549</v>
+        <v>602</v>
       </c>
       <c r="J46" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K46" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>45034</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47">
         <v>18</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>4</v>
       </c>
-      <c r="D47">
-        <v>2023</v>
-      </c>
-      <c r="E47" t="s">
-        <v>56</v>
+      <c r="E47">
+        <v>2023</v>
       </c>
       <c r="F47" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="G47" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="H47" t="s">
-        <v>428</v>
+        <v>557</v>
       </c>
       <c r="I47" t="s">
-        <v>549</v>
+        <v>603</v>
       </c>
       <c r="J47" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K47" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>45035</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48">
         <v>19</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>4</v>
       </c>
-      <c r="D48">
-        <v>2023</v>
-      </c>
-      <c r="E48" t="s">
-        <v>57</v>
+      <c r="E48">
+        <v>2023</v>
       </c>
       <c r="F48" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="G48" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="H48" t="s">
-        <v>429</v>
+        <v>552</v>
       </c>
       <c r="I48" t="s">
-        <v>549</v>
+        <v>604</v>
       </c>
       <c r="J48" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K48" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>45036</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49">
         <v>20</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>4</v>
       </c>
-      <c r="D49">
-        <v>2023</v>
-      </c>
-      <c r="E49" t="s">
-        <v>58</v>
+      <c r="E49">
+        <v>2023</v>
       </c>
       <c r="F49" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="G49" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="H49" t="s">
-        <v>430</v>
+        <v>555</v>
       </c>
       <c r="I49" t="s">
-        <v>549</v>
+        <v>605</v>
       </c>
       <c r="J49" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K49" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>45038</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50">
         <v>22</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>4</v>
       </c>
-      <c r="D50">
-        <v>2023</v>
-      </c>
-      <c r="E50" t="s">
-        <v>59</v>
+      <c r="E50">
+        <v>2023</v>
       </c>
       <c r="F50" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="G50" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="H50" t="s">
-        <v>431</v>
+        <v>553</v>
       </c>
       <c r="I50" t="s">
-        <v>549</v>
+        <v>606</v>
       </c>
       <c r="J50" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K50" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>45041</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51">
         <v>25</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>4</v>
       </c>
-      <c r="D51">
-        <v>2023</v>
-      </c>
-      <c r="E51" t="s">
-        <v>60</v>
+      <c r="E51">
+        <v>2023</v>
       </c>
       <c r="F51" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="G51" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="H51" t="s">
-        <v>432</v>
+        <v>555</v>
       </c>
       <c r="I51" t="s">
-        <v>549</v>
+        <v>607</v>
       </c>
       <c r="J51" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K51" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>45042</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52">
         <v>26</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>4</v>
       </c>
-      <c r="D52">
-        <v>2023</v>
-      </c>
-      <c r="E52" t="s">
-        <v>61</v>
+      <c r="E52">
+        <v>2023</v>
       </c>
       <c r="F52" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="G52" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="H52" t="s">
-        <v>433</v>
+        <v>555</v>
       </c>
       <c r="I52" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
       <c r="J52" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K52" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>45044</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53">
         <v>28</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>4</v>
       </c>
-      <c r="D53">
-        <v>2023</v>
-      </c>
-      <c r="E53" t="s">
-        <v>62</v>
+      <c r="E53">
+        <v>2023</v>
       </c>
       <c r="F53" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="G53" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="H53" t="s">
-        <v>434</v>
+        <v>557</v>
       </c>
       <c r="I53" t="s">
-        <v>549</v>
+        <v>609</v>
       </c>
       <c r="J53" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K53" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>45045</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54">
         <v>29</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>4</v>
       </c>
-      <c r="D54">
-        <v>2023</v>
-      </c>
-      <c r="E54" t="s">
-        <v>63</v>
+      <c r="E54">
+        <v>2023</v>
       </c>
       <c r="F54" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="G54" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="H54" t="s">
-        <v>435</v>
+        <v>553</v>
       </c>
       <c r="I54" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="J54" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K54" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>45048</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55">
         <v>2</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>5</v>
       </c>
-      <c r="D55">
-        <v>2023</v>
-      </c>
-      <c r="E55" t="s">
-        <v>64</v>
+      <c r="E55">
+        <v>2023</v>
       </c>
       <c r="F55" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="G55" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="H55" t="s">
-        <v>436</v>
+        <v>555</v>
       </c>
       <c r="I55" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
       <c r="J55" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K55" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>45050</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56">
         <v>4</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>5</v>
       </c>
-      <c r="D56">
-        <v>2023</v>
-      </c>
-      <c r="E56" t="s">
-        <v>65</v>
+      <c r="E56">
+        <v>2023</v>
       </c>
       <c r="F56" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G56" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="H56" t="s">
-        <v>437</v>
+        <v>552</v>
       </c>
       <c r="I56" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
       <c r="J56" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K56" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>45053</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57">
         <v>7</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>5</v>
       </c>
-      <c r="D57">
-        <v>2023</v>
-      </c>
-      <c r="E57" t="s">
-        <v>66</v>
+      <c r="E57">
+        <v>2023</v>
       </c>
       <c r="F57" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="G57" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="H57" t="s">
-        <v>438</v>
+        <v>557</v>
       </c>
       <c r="I57" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="J57" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K57" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>45055</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58">
         <v>9</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>5</v>
       </c>
-      <c r="D58">
-        <v>2023</v>
-      </c>
-      <c r="E58" t="s">
-        <v>67</v>
+      <c r="E58">
+        <v>2023</v>
       </c>
       <c r="F58" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="G58" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="H58" t="s">
-        <v>439</v>
+        <v>555</v>
       </c>
       <c r="I58" t="s">
-        <v>549</v>
+        <v>614</v>
       </c>
       <c r="J58" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K58" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>45056</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59">
         <v>10</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>5</v>
       </c>
-      <c r="D59">
-        <v>2023</v>
-      </c>
-      <c r="E59" t="s">
-        <v>68</v>
+      <c r="E59">
+        <v>2023</v>
       </c>
       <c r="F59" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="G59" t="s">
-        <v>378</v>
+        <v>435</v>
       </c>
       <c r="H59" t="s">
-        <v>440</v>
+        <v>553</v>
       </c>
       <c r="I59" t="s">
-        <v>549</v>
+        <v>615</v>
       </c>
       <c r="J59" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K59" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>45060</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60">
         <v>14</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="D60">
-        <v>2023</v>
-      </c>
-      <c r="E60" t="s">
-        <v>69</v>
+      <c r="E60">
+        <v>2023</v>
       </c>
       <c r="F60" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="G60" t="s">
-        <v>378</v>
+        <v>436</v>
       </c>
       <c r="H60" t="s">
-        <v>441</v>
+        <v>553</v>
       </c>
       <c r="I60" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="J60" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K60" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>45060</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61">
         <v>14</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>5</v>
       </c>
-      <c r="D61">
-        <v>2023</v>
-      </c>
-      <c r="E61" t="s">
-        <v>70</v>
+      <c r="E61">
+        <v>2023</v>
       </c>
       <c r="F61" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="G61" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="H61" t="s">
-        <v>442</v>
+        <v>555</v>
       </c>
       <c r="I61" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="J61" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K61" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>45062</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62">
         <v>16</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>5</v>
       </c>
-      <c r="D62">
-        <v>2023</v>
-      </c>
-      <c r="E62" t="s">
-        <v>71</v>
+      <c r="E62">
+        <v>2023</v>
       </c>
       <c r="F62" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="G62" t="s">
-        <v>377</v>
+        <v>438</v>
       </c>
       <c r="H62" t="s">
-        <v>443</v>
+        <v>552</v>
       </c>
       <c r="I62" t="s">
-        <v>549</v>
+        <v>618</v>
       </c>
       <c r="J62" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K62" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>45063</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63">
         <v>17</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>5</v>
       </c>
-      <c r="D63">
-        <v>2023</v>
-      </c>
-      <c r="E63" t="s">
-        <v>72</v>
+      <c r="E63">
+        <v>2023</v>
       </c>
       <c r="F63" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="G63" t="s">
-        <v>379</v>
+        <v>439</v>
       </c>
       <c r="H63" t="s">
-        <v>444</v>
+        <v>554</v>
       </c>
       <c r="I63" t="s">
-        <v>549</v>
+        <v>619</v>
       </c>
       <c r="J63" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K63" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>45064</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64">
         <v>18</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>5</v>
       </c>
-      <c r="D64">
-        <v>2023</v>
-      </c>
-      <c r="E64" t="s">
-        <v>73</v>
+      <c r="E64">
+        <v>2023</v>
       </c>
       <c r="F64" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="G64" t="s">
-        <v>379</v>
-      </c>
-      <c r="I64" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>440</v>
+      </c>
+      <c r="H64" t="s">
+        <v>554</v>
+      </c>
+      <c r="J64" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>45070</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65">
         <v>24</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>5</v>
       </c>
-      <c r="D65">
-        <v>2023</v>
-      </c>
-      <c r="E65" t="s">
-        <v>74</v>
+      <c r="E65">
+        <v>2023</v>
       </c>
       <c r="F65" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="G65" t="s">
-        <v>380</v>
+        <v>441</v>
       </c>
       <c r="H65" t="s">
-        <v>445</v>
+        <v>555</v>
       </c>
       <c r="I65" t="s">
-        <v>549</v>
+        <v>620</v>
       </c>
       <c r="J65" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K65" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>45071</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66">
         <v>25</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>5</v>
       </c>
-      <c r="D66">
-        <v>2023</v>
-      </c>
-      <c r="E66" t="s">
-        <v>75</v>
+      <c r="E66">
+        <v>2023</v>
       </c>
       <c r="F66" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="G66" t="s">
-        <v>382</v>
+        <v>442</v>
       </c>
       <c r="H66" t="s">
-        <v>446</v>
+        <v>557</v>
       </c>
       <c r="I66" t="s">
-        <v>549</v>
+        <v>621</v>
       </c>
       <c r="J66" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K66" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>45071</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67">
         <v>25</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>5</v>
       </c>
-      <c r="D67">
-        <v>2023</v>
-      </c>
-      <c r="E67" t="s">
-        <v>76</v>
+      <c r="E67">
+        <v>2023</v>
       </c>
       <c r="F67" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="G67" t="s">
-        <v>378</v>
+        <v>443</v>
       </c>
       <c r="H67" t="s">
-        <v>447</v>
+        <v>553</v>
       </c>
       <c r="I67" t="s">
-        <v>549</v>
+        <v>622</v>
       </c>
       <c r="J67" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K67" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>45073</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68">
         <v>27</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>5</v>
       </c>
-      <c r="D68">
-        <v>2023</v>
-      </c>
-      <c r="E68" t="s">
-        <v>77</v>
+      <c r="E68">
+        <v>2023</v>
       </c>
       <c r="F68" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="G68" t="s">
-        <v>382</v>
+        <v>444</v>
       </c>
       <c r="H68" t="s">
-        <v>448</v>
+        <v>557</v>
       </c>
       <c r="I68" t="s">
-        <v>549</v>
+        <v>623</v>
       </c>
       <c r="J68" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K68" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>45078</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69">
         <v>1</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>6</v>
       </c>
-      <c r="D69">
-        <v>2023</v>
-      </c>
-      <c r="E69" t="s">
-        <v>78</v>
+      <c r="E69">
+        <v>2023</v>
       </c>
       <c r="F69" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="G69" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="H69" t="s">
-        <v>449</v>
+        <v>557</v>
       </c>
       <c r="I69" t="s">
-        <v>549</v>
+        <v>624</v>
       </c>
       <c r="J69" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K69" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>45078</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70">
         <v>1</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>6</v>
       </c>
-      <c r="D70">
-        <v>2023</v>
-      </c>
-      <c r="E70" t="s">
-        <v>79</v>
+      <c r="E70">
+        <v>2023</v>
       </c>
       <c r="F70" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="G70" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="H70" t="s">
-        <v>450</v>
+        <v>555</v>
       </c>
       <c r="I70" t="s">
-        <v>549</v>
+        <v>625</v>
       </c>
       <c r="J70" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K70" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>45079</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71">
         <v>2</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>6</v>
       </c>
-      <c r="D71">
-        <v>2023</v>
-      </c>
-      <c r="E71" t="s">
-        <v>80</v>
+      <c r="E71">
+        <v>2023</v>
       </c>
       <c r="F71" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="G71" t="s">
-        <v>382</v>
+        <v>447</v>
       </c>
       <c r="H71" t="s">
-        <v>451</v>
+        <v>557</v>
       </c>
       <c r="I71" t="s">
-        <v>549</v>
+        <v>626</v>
       </c>
       <c r="J71" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K71" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>45081</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72">
         <v>4</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>6</v>
       </c>
-      <c r="D72">
-        <v>2023</v>
-      </c>
-      <c r="E72" t="s">
-        <v>81</v>
+      <c r="E72">
+        <v>2023</v>
       </c>
       <c r="F72" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="G72" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="H72" t="s">
-        <v>452</v>
+        <v>557</v>
       </c>
       <c r="I72" t="s">
-        <v>549</v>
+        <v>627</v>
       </c>
       <c r="J72" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K72" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>45081</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73">
         <v>4</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>6</v>
       </c>
-      <c r="D73">
-        <v>2023</v>
-      </c>
-      <c r="E73" t="s">
-        <v>82</v>
+      <c r="E73">
+        <v>2023</v>
       </c>
       <c r="F73" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="G73" t="s">
-        <v>377</v>
+        <v>449</v>
       </c>
       <c r="H73" t="s">
-        <v>453</v>
+        <v>552</v>
       </c>
       <c r="I73" t="s">
-        <v>549</v>
+        <v>628</v>
       </c>
       <c r="J73" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K73" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>45085</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74">
         <v>8</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>6</v>
       </c>
-      <c r="D74">
-        <v>2023</v>
-      </c>
-      <c r="E74" t="s">
-        <v>83</v>
+      <c r="E74">
+        <v>2023</v>
       </c>
       <c r="F74" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="G74" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
       <c r="H74" t="s">
-        <v>454</v>
+        <v>557</v>
       </c>
       <c r="I74" t="s">
-        <v>549</v>
+        <v>629</v>
       </c>
       <c r="J74" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K74" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>45086</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75">
         <v>9</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>6</v>
       </c>
-      <c r="D75">
-        <v>2023</v>
-      </c>
-      <c r="E75" t="s">
-        <v>84</v>
+      <c r="E75">
+        <v>2023</v>
       </c>
       <c r="F75" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="G75" t="s">
-        <v>378</v>
+        <v>451</v>
       </c>
       <c r="H75" t="s">
-        <v>455</v>
+        <v>553</v>
       </c>
       <c r="I75" t="s">
-        <v>549</v>
+        <v>630</v>
       </c>
       <c r="J75" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K75" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>45088</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76">
         <v>11</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>6</v>
       </c>
-      <c r="D76">
-        <v>2023</v>
-      </c>
-      <c r="E76" t="s">
-        <v>85</v>
+      <c r="E76">
+        <v>2023</v>
       </c>
       <c r="F76" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="G76" t="s">
-        <v>377</v>
+        <v>452</v>
       </c>
       <c r="H76" t="s">
-        <v>456</v>
+        <v>552</v>
       </c>
       <c r="I76" t="s">
-        <v>549</v>
+        <v>631</v>
       </c>
       <c r="J76" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K76" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>45094</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77">
         <v>17</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>6</v>
       </c>
-      <c r="D77">
-        <v>2023</v>
-      </c>
-      <c r="E77" t="s">
-        <v>86</v>
+      <c r="E77">
+        <v>2023</v>
       </c>
       <c r="F77" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="G77" t="s">
-        <v>379</v>
+        <v>453</v>
       </c>
       <c r="H77" t="s">
-        <v>457</v>
+        <v>554</v>
       </c>
       <c r="I77" t="s">
-        <v>549</v>
+        <v>632</v>
       </c>
       <c r="J77" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K77" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>45096</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78">
         <v>19</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>6</v>
       </c>
-      <c r="D78">
-        <v>2023</v>
-      </c>
-      <c r="E78" t="s">
-        <v>87</v>
+      <c r="E78">
+        <v>2023</v>
       </c>
       <c r="F78" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="G78" t="s">
-        <v>377</v>
+        <v>454</v>
       </c>
       <c r="H78" t="s">
-        <v>458</v>
+        <v>552</v>
       </c>
       <c r="I78" t="s">
-        <v>549</v>
+        <v>633</v>
       </c>
       <c r="J78" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K78" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>45097</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79">
         <v>20</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>6</v>
       </c>
-      <c r="D79">
-        <v>2023</v>
-      </c>
-      <c r="E79" t="s">
-        <v>88</v>
+      <c r="E79">
+        <v>2023</v>
       </c>
       <c r="F79" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="G79" t="s">
-        <v>379</v>
+        <v>455</v>
       </c>
       <c r="H79" t="s">
-        <v>459</v>
+        <v>554</v>
       </c>
       <c r="I79" t="s">
-        <v>549</v>
+        <v>634</v>
       </c>
       <c r="J79" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K79" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>45098</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80">
         <v>21</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>6</v>
       </c>
-      <c r="D80">
-        <v>2023</v>
-      </c>
-      <c r="E80" t="s">
-        <v>89</v>
+      <c r="E80">
+        <v>2023</v>
       </c>
       <c r="F80" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="G80" t="s">
-        <v>379</v>
+        <v>456</v>
       </c>
       <c r="H80" t="s">
-        <v>460</v>
+        <v>554</v>
       </c>
       <c r="I80" t="s">
-        <v>549</v>
+        <v>635</v>
       </c>
       <c r="J80" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K80" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>45099</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81">
         <v>22</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>6</v>
       </c>
-      <c r="D81">
-        <v>2023</v>
-      </c>
-      <c r="E81" t="s">
-        <v>90</v>
+      <c r="E81">
+        <v>2023</v>
       </c>
       <c r="F81" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="G81" t="s">
-        <v>379</v>
+        <v>457</v>
       </c>
       <c r="H81" t="s">
-        <v>461</v>
+        <v>554</v>
       </c>
       <c r="I81" t="s">
-        <v>549</v>
+        <v>636</v>
       </c>
       <c r="J81" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K81" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>45101</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82">
         <v>24</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>6</v>
       </c>
-      <c r="D82">
-        <v>2023</v>
-      </c>
-      <c r="E82" t="s">
-        <v>91</v>
+      <c r="E82">
+        <v>2023</v>
       </c>
       <c r="F82" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="G82" t="s">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="H82" t="s">
-        <v>462</v>
+        <v>555</v>
       </c>
       <c r="I82" t="s">
-        <v>549</v>
+        <v>637</v>
       </c>
       <c r="J82" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K82" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>45102</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83">
         <v>25</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>6</v>
       </c>
-      <c r="D83">
-        <v>2023</v>
-      </c>
-      <c r="E83" t="s">
-        <v>92</v>
+      <c r="E83">
+        <v>2023</v>
       </c>
       <c r="F83" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="G83" t="s">
-        <v>382</v>
+        <v>459</v>
       </c>
       <c r="H83" t="s">
-        <v>463</v>
+        <v>557</v>
       </c>
       <c r="I83" t="s">
-        <v>549</v>
+        <v>638</v>
       </c>
       <c r="J83" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K83" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>45107</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84">
         <v>30</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>6</v>
       </c>
-      <c r="D84">
-        <v>2023</v>
-      </c>
-      <c r="E84" t="s">
-        <v>93</v>
+      <c r="E84">
+        <v>2023</v>
       </c>
       <c r="F84" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G84" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="H84" t="s">
-        <v>464</v>
+        <v>553</v>
       </c>
       <c r="I84" t="s">
-        <v>549</v>
+        <v>639</v>
       </c>
       <c r="J84" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K84" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>45108</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85">
         <v>1</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>7</v>
       </c>
-      <c r="D85">
-        <v>2023</v>
-      </c>
-      <c r="E85" t="s">
-        <v>94</v>
+      <c r="E85">
+        <v>2023</v>
       </c>
       <c r="F85" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="G85" t="s">
-        <v>382</v>
+        <v>461</v>
       </c>
       <c r="H85" t="s">
-        <v>465</v>
+        <v>557</v>
       </c>
       <c r="I85" t="s">
-        <v>549</v>
+        <v>640</v>
       </c>
       <c r="J85" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K85" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>45117</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86">
         <v>10</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>7</v>
       </c>
-      <c r="D86">
-        <v>2023</v>
-      </c>
-      <c r="E86" t="s">
-        <v>95</v>
+      <c r="E86">
+        <v>2023</v>
       </c>
       <c r="F86" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="G86" t="s">
-        <v>378</v>
+        <v>462</v>
       </c>
       <c r="H86" t="s">
-        <v>466</v>
+        <v>553</v>
       </c>
       <c r="I86" t="s">
-        <v>549</v>
+        <v>641</v>
       </c>
       <c r="J86" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K86" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>45119</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87">
         <v>12</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>7</v>
       </c>
-      <c r="D87">
-        <v>2023</v>
-      </c>
-      <c r="E87" t="s">
-        <v>96</v>
+      <c r="E87">
+        <v>2023</v>
       </c>
       <c r="F87" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="G87" t="s">
-        <v>379</v>
+        <v>463</v>
       </c>
       <c r="H87" t="s">
-        <v>467</v>
+        <v>554</v>
       </c>
       <c r="I87" t="s">
-        <v>549</v>
+        <v>642</v>
       </c>
       <c r="J87" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K87" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>45122</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88">
         <v>15</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>7</v>
       </c>
-      <c r="D88">
-        <v>2023</v>
-      </c>
-      <c r="E88" t="s">
-        <v>97</v>
+      <c r="E88">
+        <v>2023</v>
       </c>
       <c r="F88" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="G88" t="s">
-        <v>381</v>
+        <v>464</v>
       </c>
       <c r="H88" t="s">
-        <v>468</v>
+        <v>556</v>
       </c>
       <c r="I88" t="s">
-        <v>549</v>
+        <v>643</v>
       </c>
       <c r="J88" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K88" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>45122</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89">
         <v>12</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>7</v>
       </c>
-      <c r="D89">
-        <v>2023</v>
-      </c>
-      <c r="E89" t="s">
-        <v>98</v>
+      <c r="E89">
+        <v>2023</v>
       </c>
       <c r="F89" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="G89" t="s">
-        <v>380</v>
+        <v>465</v>
       </c>
       <c r="H89" t="s">
-        <v>469</v>
+        <v>555</v>
       </c>
       <c r="I89" t="s">
-        <v>549</v>
+        <v>644</v>
       </c>
       <c r="J89" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K89" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>45125</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90">
         <v>18</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>7</v>
       </c>
-      <c r="D90">
-        <v>2023</v>
-      </c>
-      <c r="E90" t="s">
-        <v>99</v>
+      <c r="E90">
+        <v>2023</v>
       </c>
       <c r="F90" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="G90" t="s">
-        <v>380</v>
+        <v>466</v>
       </c>
       <c r="H90" t="s">
-        <v>470</v>
+        <v>555</v>
       </c>
       <c r="I90" t="s">
-        <v>549</v>
+        <v>645</v>
       </c>
       <c r="J90" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K90" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>45126</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91">
         <v>19</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>7</v>
       </c>
-      <c r="D91">
-        <v>2023</v>
-      </c>
-      <c r="E91" t="s">
-        <v>100</v>
+      <c r="E91">
+        <v>2023</v>
       </c>
       <c r="F91" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="G91" t="s">
-        <v>379</v>
+        <v>467</v>
       </c>
       <c r="H91" t="s">
-        <v>471</v>
+        <v>554</v>
       </c>
       <c r="I91" t="s">
-        <v>549</v>
+        <v>646</v>
       </c>
       <c r="J91" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K91" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>45129</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92">
         <v>22</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>7</v>
       </c>
-      <c r="D92">
-        <v>2023</v>
-      </c>
-      <c r="E92" t="s">
-        <v>101</v>
+      <c r="E92">
+        <v>2023</v>
       </c>
       <c r="F92" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="G92" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="H92" t="s">
-        <v>472</v>
+        <v>554</v>
       </c>
       <c r="I92" t="s">
-        <v>549</v>
+        <v>647</v>
       </c>
       <c r="J92" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K92" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>45134</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93">
         <v>27</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>7</v>
       </c>
-      <c r="D93">
-        <v>2023</v>
-      </c>
-      <c r="E93" t="s">
-        <v>102</v>
+      <c r="E93">
+        <v>2023</v>
       </c>
       <c r="F93" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="G93" t="s">
-        <v>377</v>
+        <v>469</v>
       </c>
       <c r="H93" t="s">
-        <v>473</v>
+        <v>552</v>
       </c>
       <c r="I93" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+        <v>648</v>
+      </c>
+      <c r="J93" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>45135</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94">
         <v>28</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>7</v>
       </c>
-      <c r="D94">
-        <v>2023</v>
-      </c>
-      <c r="E94" t="s">
-        <v>103</v>
+      <c r="E94">
+        <v>2023</v>
       </c>
       <c r="F94" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="G94" t="s">
-        <v>379</v>
+        <v>470</v>
       </c>
       <c r="H94" t="s">
-        <v>474</v>
+        <v>554</v>
       </c>
       <c r="I94" t="s">
-        <v>549</v>
+        <v>649</v>
       </c>
       <c r="J94" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K94" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>45136</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95">
         <v>29</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>7</v>
       </c>
-      <c r="D95">
-        <v>2023</v>
-      </c>
-      <c r="E95" t="s">
-        <v>104</v>
+      <c r="E95">
+        <v>2023</v>
       </c>
       <c r="F95" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="G95" t="s">
-        <v>379</v>
+        <v>471</v>
       </c>
       <c r="H95" t="s">
-        <v>475</v>
+        <v>554</v>
       </c>
       <c r="I95" t="s">
-        <v>549</v>
+        <v>650</v>
       </c>
       <c r="J95" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K95" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>45136</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96">
         <v>29</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>7</v>
       </c>
-      <c r="D96">
-        <v>2023</v>
-      </c>
-      <c r="E96" t="s">
-        <v>105</v>
+      <c r="E96">
+        <v>2023</v>
       </c>
       <c r="F96" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="G96" t="s">
-        <v>379</v>
+        <v>472</v>
       </c>
       <c r="H96" t="s">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="I96" t="s">
-        <v>549</v>
+        <v>651</v>
       </c>
       <c r="J96" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K96" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>45136</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97">
         <v>29</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>7</v>
       </c>
-      <c r="D97">
-        <v>2023</v>
-      </c>
-      <c r="E97" t="s">
-        <v>106</v>
+      <c r="E97">
+        <v>2023</v>
       </c>
       <c r="F97" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="G97" t="s">
-        <v>379</v>
+        <v>473</v>
       </c>
       <c r="H97" t="s">
-        <v>477</v>
+        <v>554</v>
       </c>
       <c r="I97" t="s">
-        <v>549</v>
+        <v>652</v>
       </c>
       <c r="J97" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K97" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>45137</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98">
         <v>30</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>7</v>
       </c>
-      <c r="D98">
-        <v>2023</v>
-      </c>
-      <c r="E98" t="s">
-        <v>107</v>
+      <c r="E98">
+        <v>2023</v>
       </c>
       <c r="F98" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="G98" t="s">
-        <v>382</v>
+        <v>474</v>
       </c>
       <c r="H98" t="s">
-        <v>478</v>
+        <v>557</v>
       </c>
       <c r="I98" t="s">
-        <v>549</v>
+        <v>653</v>
       </c>
       <c r="J98" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K98" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>45138</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99">
         <v>31</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>7</v>
       </c>
-      <c r="D99">
-        <v>2023</v>
-      </c>
-      <c r="E99" t="s">
-        <v>108</v>
+      <c r="E99">
+        <v>2023</v>
       </c>
       <c r="F99" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="G99" t="s">
-        <v>377</v>
+        <v>475</v>
       </c>
       <c r="H99" t="s">
-        <v>479</v>
+        <v>552</v>
       </c>
       <c r="I99" t="s">
-        <v>549</v>
+        <v>654</v>
       </c>
       <c r="J99" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K99" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>45139</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100">
         <v>1</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>8</v>
       </c>
-      <c r="D100">
-        <v>2023</v>
-      </c>
-      <c r="E100" t="s">
-        <v>109</v>
+      <c r="E100">
+        <v>2023</v>
       </c>
       <c r="F100" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="G100" t="s">
-        <v>380</v>
+        <v>476</v>
       </c>
       <c r="H100" t="s">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="I100" t="s">
-        <v>549</v>
+        <v>655</v>
       </c>
       <c r="J100" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K100" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>45139</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101">
         <v>1</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>8</v>
       </c>
-      <c r="D101">
-        <v>2023</v>
-      </c>
-      <c r="E101" t="s">
-        <v>110</v>
+      <c r="E101">
+        <v>2023</v>
       </c>
       <c r="F101" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="G101" t="s">
-        <v>377</v>
+        <v>477</v>
       </c>
       <c r="H101" t="s">
-        <v>481</v>
+        <v>552</v>
       </c>
       <c r="I101" t="s">
-        <v>549</v>
+        <v>656</v>
       </c>
       <c r="J101" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K101" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>45140</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102">
         <v>2</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>8</v>
       </c>
-      <c r="D102">
-        <v>2023</v>
-      </c>
-      <c r="E102" t="s">
-        <v>111</v>
+      <c r="E102">
+        <v>2023</v>
       </c>
       <c r="F102" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="G102" t="s">
-        <v>382</v>
+        <v>478</v>
       </c>
       <c r="H102" t="s">
-        <v>482</v>
+        <v>557</v>
       </c>
       <c r="I102" t="s">
-        <v>549</v>
+        <v>657</v>
       </c>
       <c r="J102" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K102" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>45142</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103">
         <v>4</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>8</v>
       </c>
-      <c r="D103">
-        <v>2023</v>
-      </c>
-      <c r="E103" t="s">
-        <v>112</v>
+      <c r="E103">
+        <v>2023</v>
       </c>
       <c r="F103" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="G103" t="s">
-        <v>382</v>
+        <v>479</v>
       </c>
       <c r="H103" t="s">
-        <v>483</v>
+        <v>557</v>
       </c>
       <c r="I103" t="s">
-        <v>549</v>
+        <v>658</v>
       </c>
       <c r="J103" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K103" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>45144</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104">
         <v>6</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>8</v>
       </c>
-      <c r="D104">
-        <v>2023</v>
-      </c>
-      <c r="E104" t="s">
-        <v>113</v>
+      <c r="E104">
+        <v>2023</v>
       </c>
       <c r="F104" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G104" t="s">
-        <v>379</v>
+        <v>480</v>
       </c>
       <c r="H104" t="s">
-        <v>484</v>
+        <v>554</v>
       </c>
       <c r="I104" t="s">
-        <v>549</v>
+        <v>659</v>
       </c>
       <c r="J104" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K104" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>45145</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105">
         <v>7</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>8</v>
       </c>
-      <c r="D105">
-        <v>2023</v>
-      </c>
-      <c r="E105" t="s">
-        <v>114</v>
+      <c r="E105">
+        <v>2023</v>
       </c>
       <c r="F105" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="G105" t="s">
-        <v>378</v>
+        <v>481</v>
       </c>
       <c r="H105" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="I105" t="s">
-        <v>549</v>
+        <v>660</v>
       </c>
       <c r="J105" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K105" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>45145</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106">
         <v>7</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>8</v>
       </c>
-      <c r="D106">
-        <v>2023</v>
-      </c>
-      <c r="E106" t="s">
-        <v>115</v>
+      <c r="E106">
+        <v>2023</v>
       </c>
       <c r="F106" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G106" t="s">
-        <v>380</v>
+        <v>482</v>
       </c>
       <c r="H106" t="s">
-        <v>486</v>
+        <v>555</v>
       </c>
       <c r="I106" t="s">
-        <v>549</v>
+        <v>661</v>
       </c>
       <c r="J106" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K106" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>45146</v>
       </c>
-      <c r="B107">
-        <v>8</v>
+      <c r="B107" t="s">
+        <v>116</v>
       </c>
       <c r="C107">
         <v>8</v>
       </c>
       <c r="D107">
-        <v>2023</v>
-      </c>
-      <c r="E107" t="s">
-        <v>116</v>
+        <v>8</v>
+      </c>
+      <c r="E107">
+        <v>2023</v>
       </c>
       <c r="F107" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="G107" t="s">
-        <v>379</v>
+        <v>483</v>
       </c>
       <c r="H107" t="s">
-        <v>487</v>
+        <v>554</v>
       </c>
       <c r="I107" t="s">
-        <v>549</v>
+        <v>662</v>
       </c>
       <c r="J107" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K107" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>45147</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108">
         <v>9</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>8</v>
       </c>
-      <c r="D108">
-        <v>2023</v>
-      </c>
-      <c r="E108" t="s">
-        <v>117</v>
+      <c r="E108">
+        <v>2023</v>
       </c>
       <c r="F108" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="G108" t="s">
-        <v>382</v>
+        <v>484</v>
       </c>
       <c r="H108" t="s">
-        <v>488</v>
+        <v>557</v>
       </c>
       <c r="I108" t="s">
-        <v>549</v>
+        <v>663</v>
       </c>
       <c r="J108" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K108" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>45147</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109">
         <v>9</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>8</v>
       </c>
-      <c r="D109">
-        <v>2023</v>
-      </c>
-      <c r="E109" t="s">
-        <v>118</v>
+      <c r="E109">
+        <v>2023</v>
       </c>
       <c r="F109" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="G109" t="s">
-        <v>379</v>
+        <v>485</v>
       </c>
       <c r="H109" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
       <c r="I109" t="s">
-        <v>549</v>
+        <v>664</v>
       </c>
       <c r="J109" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K109" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>45148</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110">
         <v>10</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>8</v>
       </c>
-      <c r="D110">
-        <v>2023</v>
-      </c>
-      <c r="E110" t="s">
-        <v>119</v>
+      <c r="E110">
+        <v>2023</v>
       </c>
       <c r="F110" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="G110" t="s">
-        <v>379</v>
+        <v>486</v>
       </c>
       <c r="H110" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="I110" t="s">
-        <v>549</v>
+        <v>665</v>
       </c>
       <c r="J110" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K110" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>45148</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111">
         <v>10</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>8</v>
       </c>
-      <c r="D111">
-        <v>2023</v>
-      </c>
-      <c r="E111" t="s">
-        <v>120</v>
+      <c r="E111">
+        <v>2023</v>
       </c>
       <c r="F111" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="G111" t="s">
-        <v>377</v>
+        <v>487</v>
       </c>
       <c r="H111" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="I111" t="s">
-        <v>549</v>
+        <v>666</v>
       </c>
       <c r="J111" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K111" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>45149</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112">
         <v>11</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>8</v>
       </c>
-      <c r="D112">
-        <v>2023</v>
-      </c>
-      <c r="E112" t="s">
-        <v>121</v>
+      <c r="E112">
+        <v>2023</v>
       </c>
       <c r="F112" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="G112" t="s">
-        <v>377</v>
+        <v>488</v>
       </c>
       <c r="H112" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="I112" t="s">
-        <v>549</v>
+        <v>667</v>
       </c>
       <c r="J112" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K112" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>45149</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113">
         <v>11</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>8</v>
       </c>
-      <c r="D113">
-        <v>2023</v>
-      </c>
-      <c r="E113" t="s">
-        <v>122</v>
+      <c r="E113">
+        <v>2023</v>
       </c>
       <c r="F113" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="G113" t="s">
-        <v>377</v>
+        <v>489</v>
       </c>
       <c r="H113" t="s">
-        <v>409</v>
+        <v>552</v>
       </c>
       <c r="I113" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="J113" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K113" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>45153</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114">
         <v>15</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>8</v>
       </c>
-      <c r="D114">
-        <v>2023</v>
-      </c>
-      <c r="E114" t="s">
-        <v>123</v>
+      <c r="E114">
+        <v>2023</v>
       </c>
       <c r="F114" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="G114" t="s">
-        <v>382</v>
+        <v>490</v>
       </c>
       <c r="H114" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="I114" t="s">
-        <v>549</v>
+        <v>668</v>
       </c>
       <c r="J114" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K114" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>45153</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="s">
+        <v>124</v>
+      </c>
+      <c r="C115">
         <v>15</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>8</v>
       </c>
-      <c r="D115">
-        <v>2023</v>
-      </c>
-      <c r="E115" t="s">
-        <v>124</v>
+      <c r="E115">
+        <v>2023</v>
       </c>
       <c r="F115" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="G115" t="s">
-        <v>380</v>
+        <v>491</v>
       </c>
       <c r="H115" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="I115" t="s">
-        <v>549</v>
+        <v>669</v>
       </c>
       <c r="J115" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K115" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>45153</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116">
         <v>15</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>8</v>
       </c>
-      <c r="D116">
-        <v>2023</v>
-      </c>
-      <c r="E116" t="s">
-        <v>125</v>
+      <c r="E116">
+        <v>2023</v>
       </c>
       <c r="F116" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="G116" t="s">
-        <v>380</v>
+        <v>492</v>
       </c>
       <c r="H116" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="I116" t="s">
-        <v>549</v>
+        <v>670</v>
       </c>
       <c r="J116" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K116" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>45154</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117">
         <v>16</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>8</v>
       </c>
-      <c r="D117">
-        <v>2023</v>
-      </c>
-      <c r="E117" t="s">
-        <v>126</v>
+      <c r="E117">
+        <v>2023</v>
       </c>
       <c r="F117" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="G117" t="s">
-        <v>379</v>
+        <v>493</v>
       </c>
       <c r="H117" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="I117" t="s">
-        <v>549</v>
+        <v>671</v>
       </c>
       <c r="J117" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K117" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>45154</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118">
         <v>16</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>8</v>
       </c>
-      <c r="D118">
-        <v>2023</v>
-      </c>
-      <c r="E118" t="s">
-        <v>127</v>
+      <c r="E118">
+        <v>2023</v>
       </c>
       <c r="F118" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="G118" t="s">
-        <v>379</v>
+        <v>494</v>
       </c>
       <c r="H118" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="I118" t="s">
-        <v>549</v>
+        <v>672</v>
       </c>
       <c r="J118" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K118" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>45154</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119">
         <v>16</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>8</v>
       </c>
-      <c r="D119">
-        <v>2023</v>
-      </c>
-      <c r="E119" t="s">
-        <v>128</v>
+      <c r="E119">
+        <v>2023</v>
       </c>
       <c r="F119" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="G119" t="s">
-        <v>377</v>
+        <v>495</v>
       </c>
       <c r="H119" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="I119" t="s">
-        <v>549</v>
+        <v>673</v>
       </c>
       <c r="J119" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K119" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>45155</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120">
         <v>17</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>8</v>
       </c>
-      <c r="D120">
-        <v>2023</v>
-      </c>
-      <c r="E120" t="s">
-        <v>129</v>
+      <c r="E120">
+        <v>2023</v>
       </c>
       <c r="F120" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="G120" t="s">
-        <v>379</v>
+        <v>496</v>
       </c>
       <c r="H120" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="I120" t="s">
-        <v>549</v>
+        <v>674</v>
       </c>
       <c r="J120" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K120" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>45155</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121">
         <v>17</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>8</v>
       </c>
-      <c r="D121">
-        <v>2023</v>
-      </c>
-      <c r="E121" t="s">
-        <v>130</v>
+      <c r="E121">
+        <v>2023</v>
       </c>
       <c r="F121" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="G121" t="s">
-        <v>379</v>
-      </c>
-      <c r="I121" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+        <v>497</v>
+      </c>
+      <c r="H121" t="s">
+        <v>554</v>
+      </c>
+      <c r="J121" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>45155</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122">
         <v>17</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>8</v>
       </c>
-      <c r="D122">
-        <v>2023</v>
-      </c>
-      <c r="E122" t="s">
-        <v>131</v>
+      <c r="E122">
+        <v>2023</v>
       </c>
       <c r="F122" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="G122" t="s">
-        <v>377</v>
+        <v>498</v>
       </c>
       <c r="H122" t="s">
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="I122" t="s">
-        <v>549</v>
+        <v>675</v>
       </c>
       <c r="J122" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K122" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>45157</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123">
         <v>19</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>8</v>
       </c>
-      <c r="D123">
-        <v>2023</v>
-      </c>
-      <c r="E123" t="s">
-        <v>132</v>
+      <c r="E123">
+        <v>2023</v>
       </c>
       <c r="F123" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="G123" t="s">
-        <v>381</v>
+        <v>499</v>
       </c>
       <c r="H123" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="I123" t="s">
-        <v>549</v>
+        <v>676</v>
       </c>
       <c r="J123" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K123" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>45157</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="s">
+        <v>133</v>
+      </c>
+      <c r="C124">
         <v>19</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>8</v>
       </c>
-      <c r="D124">
-        <v>2023</v>
-      </c>
-      <c r="E124" t="s">
-        <v>133</v>
+      <c r="E124">
+        <v>2023</v>
       </c>
       <c r="F124" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="G124" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="H124" t="s">
-        <v>502</v>
+        <v>554</v>
       </c>
       <c r="I124" t="s">
-        <v>549</v>
+        <v>677</v>
       </c>
       <c r="J124" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K124" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>45158</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="s">
+        <v>134</v>
+      </c>
+      <c r="C125">
         <v>20</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>8</v>
       </c>
-      <c r="D125">
-        <v>2023</v>
-      </c>
-      <c r="E125" t="s">
-        <v>134</v>
+      <c r="E125">
+        <v>2023</v>
       </c>
       <c r="F125" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="G125" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="H125" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
       <c r="I125" t="s">
-        <v>549</v>
+        <v>678</v>
       </c>
       <c r="J125" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K125" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>45159</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126">
         <v>21</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>8</v>
       </c>
-      <c r="D126">
-        <v>2023</v>
-      </c>
-      <c r="E126" t="s">
-        <v>135</v>
+      <c r="E126">
+        <v>2023</v>
       </c>
       <c r="F126" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="G126" t="s">
-        <v>379</v>
+        <v>502</v>
       </c>
       <c r="H126" t="s">
-        <v>504</v>
+        <v>554</v>
       </c>
       <c r="I126" t="s">
-        <v>549</v>
+        <v>679</v>
       </c>
       <c r="J126" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K126" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>45160</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127">
         <v>22</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>8</v>
       </c>
-      <c r="D127">
-        <v>2023</v>
-      </c>
-      <c r="E127" t="s">
-        <v>136</v>
+      <c r="E127">
+        <v>2023</v>
       </c>
       <c r="F127" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="G127" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="H127" t="s">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="I127" t="s">
-        <v>549</v>
+        <v>680</v>
       </c>
       <c r="J127" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K127" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>45160</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128">
         <v>22</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>8</v>
       </c>
-      <c r="D128">
-        <v>2023</v>
-      </c>
-      <c r="E128" t="s">
-        <v>137</v>
+      <c r="E128">
+        <v>2023</v>
       </c>
       <c r="F128" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="G128" t="s">
-        <v>379</v>
+        <v>504</v>
       </c>
       <c r="H128" t="s">
-        <v>506</v>
+        <v>554</v>
       </c>
       <c r="I128" t="s">
-        <v>549</v>
+        <v>681</v>
       </c>
       <c r="J128" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K128" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>45161</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129">
         <v>23</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>8</v>
       </c>
-      <c r="D129">
-        <v>2023</v>
-      </c>
-      <c r="E129" t="s">
-        <v>138</v>
+      <c r="E129">
+        <v>2023</v>
       </c>
       <c r="F129" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="G129" t="s">
-        <v>379</v>
+        <v>505</v>
       </c>
       <c r="H129" t="s">
-        <v>507</v>
+        <v>554</v>
       </c>
       <c r="I129" t="s">
-        <v>549</v>
+        <v>682</v>
       </c>
       <c r="J129" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K129" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>45161</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130">
         <v>23</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>8</v>
       </c>
-      <c r="D130">
-        <v>2023</v>
-      </c>
-      <c r="E130" t="s">
-        <v>139</v>
+      <c r="E130">
+        <v>2023</v>
       </c>
       <c r="F130" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="G130" t="s">
-        <v>379</v>
+        <v>506</v>
       </c>
       <c r="H130" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
       <c r="I130" t="s">
-        <v>549</v>
+        <v>683</v>
       </c>
       <c r="J130" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K130" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>45162</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131">
         <v>24</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>8</v>
       </c>
-      <c r="D131">
-        <v>2023</v>
-      </c>
-      <c r="E131" t="s">
-        <v>140</v>
+      <c r="E131">
+        <v>2023</v>
       </c>
       <c r="F131" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="G131" t="s">
-        <v>381</v>
+        <v>507</v>
       </c>
       <c r="H131" t="s">
-        <v>509</v>
+        <v>556</v>
       </c>
       <c r="I131" t="s">
-        <v>549</v>
+        <v>684</v>
       </c>
       <c r="J131" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K131" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>45162</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132">
         <v>24</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>8</v>
       </c>
-      <c r="D132">
-        <v>2023</v>
-      </c>
-      <c r="E132" t="s">
-        <v>141</v>
+      <c r="E132">
+        <v>2023</v>
       </c>
       <c r="F132" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="G132" t="s">
-        <v>379</v>
+        <v>508</v>
       </c>
       <c r="H132" t="s">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="I132" t="s">
-        <v>549</v>
+        <v>685</v>
       </c>
       <c r="J132" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K132" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>45162</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133">
         <v>24</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>8</v>
       </c>
-      <c r="D133">
-        <v>2023</v>
-      </c>
-      <c r="E133" t="s">
-        <v>142</v>
+      <c r="E133">
+        <v>2023</v>
       </c>
       <c r="F133" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="G133" t="s">
-        <v>379</v>
-      </c>
-      <c r="I133" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
+        <v>509</v>
+      </c>
+      <c r="H133" t="s">
+        <v>554</v>
+      </c>
+      <c r="J133" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>45167</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134">
         <v>29</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>8</v>
       </c>
-      <c r="D134">
-        <v>2023</v>
-      </c>
-      <c r="E134" t="s">
-        <v>143</v>
+      <c r="E134">
+        <v>2023</v>
       </c>
       <c r="F134" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="G134" t="s">
-        <v>381</v>
+        <v>510</v>
       </c>
       <c r="H134" t="s">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="I134" t="s">
-        <v>549</v>
+        <v>686</v>
       </c>
       <c r="J134" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K134" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>45168</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135">
         <v>30</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>8</v>
       </c>
-      <c r="D135">
-        <v>2023</v>
-      </c>
-      <c r="E135" t="s">
-        <v>144</v>
+      <c r="E135">
+        <v>2023</v>
       </c>
       <c r="F135" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="G135" t="s">
-        <v>377</v>
+        <v>511</v>
       </c>
       <c r="H135" t="s">
-        <v>512</v>
+        <v>552</v>
       </c>
       <c r="I135" t="s">
-        <v>549</v>
+        <v>687</v>
       </c>
       <c r="J135" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K135" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>45168</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136">
         <v>30</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>8</v>
       </c>
-      <c r="D136">
-        <v>2023</v>
-      </c>
-      <c r="E136" t="s">
-        <v>145</v>
+      <c r="E136">
+        <v>2023</v>
       </c>
       <c r="F136" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="G136" t="s">
-        <v>377</v>
+        <v>512</v>
       </c>
       <c r="H136" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="I136" t="s">
-        <v>549</v>
+        <v>688</v>
       </c>
       <c r="J136" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K136" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>45169</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="s">
+        <v>146</v>
+      </c>
+      <c r="C137">
         <v>31</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>8</v>
       </c>
-      <c r="D137">
-        <v>2023</v>
-      </c>
-      <c r="E137" t="s">
-        <v>146</v>
+      <c r="E137">
+        <v>2023</v>
       </c>
       <c r="F137" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="G137" t="s">
-        <v>382</v>
+        <v>513</v>
       </c>
       <c r="H137" t="s">
-        <v>434</v>
+        <v>557</v>
       </c>
       <c r="I137" t="s">
-        <v>549</v>
+        <v>609</v>
       </c>
       <c r="J137" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K137" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>45169</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="s">
+        <v>147</v>
+      </c>
+      <c r="C138">
         <v>31</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <v>8</v>
       </c>
-      <c r="D138">
-        <v>2023</v>
-      </c>
-      <c r="E138" t="s">
-        <v>147</v>
+      <c r="E138">
+        <v>2023</v>
       </c>
       <c r="F138" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="G138" t="s">
-        <v>378</v>
+        <v>514</v>
       </c>
       <c r="H138" t="s">
-        <v>514</v>
+        <v>553</v>
       </c>
       <c r="I138" t="s">
-        <v>549</v>
+        <v>689</v>
       </c>
       <c r="J138" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K138" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>45169</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139">
         <v>31</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <v>8</v>
       </c>
-      <c r="D139">
-        <v>2023</v>
-      </c>
-      <c r="E139" t="s">
-        <v>148</v>
+      <c r="E139">
+        <v>2023</v>
       </c>
       <c r="F139" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="G139" t="s">
-        <v>379</v>
+        <v>515</v>
       </c>
       <c r="H139" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="I139" t="s">
-        <v>549</v>
+        <v>690</v>
       </c>
       <c r="J139" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K139" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>45170</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140">
         <v>1</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <v>9</v>
       </c>
-      <c r="D140">
-        <v>2023</v>
-      </c>
-      <c r="E140" t="s">
-        <v>149</v>
+      <c r="E140">
+        <v>2023</v>
       </c>
       <c r="F140" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G140" t="s">
-        <v>379</v>
-      </c>
-      <c r="I140" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
+        <v>516</v>
+      </c>
+      <c r="H140" t="s">
+        <v>554</v>
+      </c>
+      <c r="J140" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>45171</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="s">
+        <v>150</v>
+      </c>
+      <c r="C141">
         <v>2</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>9</v>
       </c>
-      <c r="D141">
-        <v>2023</v>
-      </c>
-      <c r="E141" t="s">
-        <v>150</v>
+      <c r="E141">
+        <v>2023</v>
       </c>
       <c r="F141" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="G141" t="s">
-        <v>379</v>
+        <v>517</v>
       </c>
       <c r="H141" t="s">
-        <v>516</v>
+        <v>554</v>
       </c>
       <c r="I141" t="s">
-        <v>549</v>
+        <v>691</v>
       </c>
       <c r="J141" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K141" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>45174</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="s">
+        <v>151</v>
+      </c>
+      <c r="C142">
         <v>5</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <v>9</v>
       </c>
-      <c r="D142">
-        <v>2023</v>
-      </c>
-      <c r="E142" t="s">
-        <v>151</v>
+      <c r="E142">
+        <v>2023</v>
       </c>
       <c r="F142" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G142" t="s">
-        <v>379</v>
+        <v>518</v>
       </c>
       <c r="H142" t="s">
-        <v>517</v>
+        <v>554</v>
       </c>
       <c r="I142" t="s">
-        <v>549</v>
+        <v>692</v>
       </c>
       <c r="J142" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K142" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>45174</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="s">
+        <v>152</v>
+      </c>
+      <c r="C143">
         <v>5</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <v>9</v>
       </c>
-      <c r="D143">
-        <v>2023</v>
-      </c>
-      <c r="E143" t="s">
-        <v>152</v>
+      <c r="E143">
+        <v>2023</v>
       </c>
       <c r="F143" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="G143" t="s">
-        <v>377</v>
+        <v>519</v>
       </c>
       <c r="H143" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="I143" t="s">
-        <v>549</v>
+        <v>693</v>
       </c>
       <c r="J143" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K143" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>45177</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="s">
+        <v>153</v>
+      </c>
+      <c r="C144">
         <v>8</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>9</v>
       </c>
-      <c r="D144">
-        <v>2023</v>
-      </c>
-      <c r="E144" t="s">
-        <v>107</v>
+      <c r="E144">
+        <v>2023</v>
       </c>
       <c r="F144" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="G144" t="s">
-        <v>382</v>
+        <v>474</v>
       </c>
       <c r="H144" t="s">
-        <v>478</v>
+        <v>557</v>
       </c>
       <c r="I144" t="s">
-        <v>549</v>
+        <v>653</v>
       </c>
       <c r="J144" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K144" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>45177</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="s">
+        <v>154</v>
+      </c>
+      <c r="C145">
         <v>8</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <v>9</v>
       </c>
-      <c r="D145">
-        <v>2023</v>
-      </c>
-      <c r="E145" t="s">
-        <v>153</v>
+      <c r="E145">
+        <v>2023</v>
       </c>
       <c r="F145" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="G145" t="s">
-        <v>378</v>
+        <v>520</v>
       </c>
       <c r="H145" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="I145" t="s">
-        <v>549</v>
+        <v>694</v>
       </c>
       <c r="J145" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K145" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>45177</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="s">
+        <v>155</v>
+      </c>
+      <c r="C146">
         <v>8</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>9</v>
       </c>
-      <c r="D146">
-        <v>2023</v>
-      </c>
-      <c r="E146" t="s">
-        <v>154</v>
+      <c r="E146">
+        <v>2023</v>
       </c>
       <c r="F146" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="G146" t="s">
-        <v>380</v>
+        <v>521</v>
       </c>
       <c r="H146" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="I146" t="s">
-        <v>549</v>
+        <v>695</v>
       </c>
       <c r="J146" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K146" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>45178</v>
       </c>
-      <c r="B147">
-        <v>9</v>
+      <c r="B147" t="s">
+        <v>156</v>
       </c>
       <c r="C147">
         <v>9</v>
       </c>
       <c r="D147">
-        <v>2023</v>
-      </c>
-      <c r="E147" t="s">
-        <v>155</v>
+        <v>9</v>
+      </c>
+      <c r="E147">
+        <v>2023</v>
       </c>
       <c r="F147" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="G147" t="s">
-        <v>377</v>
+        <v>522</v>
       </c>
       <c r="H147" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="I147" t="s">
-        <v>549</v>
+        <v>696</v>
       </c>
       <c r="J147" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K147" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>45182</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148">
         <v>13</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <v>9</v>
       </c>
-      <c r="D148">
-        <v>2023</v>
-      </c>
-      <c r="E148" t="s">
-        <v>156</v>
+      <c r="E148">
+        <v>2023</v>
       </c>
       <c r="F148" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="G148" t="s">
-        <v>380</v>
+        <v>523</v>
       </c>
       <c r="H148" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="I148" t="s">
-        <v>549</v>
+        <v>697</v>
       </c>
       <c r="J148" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K148" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>45183</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="s">
+        <v>158</v>
+      </c>
+      <c r="C149">
         <v>14</v>
       </c>
-      <c r="C149">
+      <c r="D149">
         <v>9</v>
       </c>
-      <c r="D149">
-        <v>2023</v>
-      </c>
-      <c r="E149" t="s">
-        <v>157</v>
+      <c r="E149">
+        <v>2023</v>
       </c>
       <c r="F149" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G149" t="s">
-        <v>382</v>
+        <v>524</v>
       </c>
       <c r="H149" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="I149" t="s">
-        <v>549</v>
+        <v>698</v>
       </c>
       <c r="J149" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K149" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>45186</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="s">
+        <v>159</v>
+      </c>
+      <c r="C150">
         <v>17</v>
       </c>
-      <c r="C150">
+      <c r="D150">
         <v>9</v>
       </c>
-      <c r="D150">
-        <v>2023</v>
-      </c>
-      <c r="E150" t="s">
-        <v>158</v>
+      <c r="E150">
+        <v>2023</v>
       </c>
       <c r="F150" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="G150" t="s">
-        <v>380</v>
+        <v>525</v>
       </c>
       <c r="H150" t="s">
-        <v>524</v>
+        <v>555</v>
       </c>
       <c r="I150" t="s">
-        <v>549</v>
+        <v>699</v>
       </c>
       <c r="J150" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K150" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>45187</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="s">
+        <v>160</v>
+      </c>
+      <c r="C151">
         <v>18</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>9</v>
       </c>
-      <c r="D151">
-        <v>2023</v>
-      </c>
-      <c r="E151" t="s">
-        <v>159</v>
+      <c r="E151">
+        <v>2023</v>
       </c>
       <c r="F151" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G151" t="s">
-        <v>379</v>
+        <v>526</v>
       </c>
       <c r="H151" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="I151" t="s">
-        <v>549</v>
+        <v>700</v>
       </c>
       <c r="J151" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K151" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>45187</v>
       </c>
-      <c r="B152">
+      <c r="B152" t="s">
+        <v>161</v>
+      </c>
+      <c r="C152">
         <v>18</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <v>9</v>
       </c>
-      <c r="D152">
-        <v>2023</v>
-      </c>
-      <c r="E152" t="s">
-        <v>160</v>
+      <c r="E152">
+        <v>2023</v>
       </c>
       <c r="F152" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G152" t="s">
-        <v>378</v>
+        <v>527</v>
       </c>
       <c r="H152" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="I152" t="s">
-        <v>549</v>
+        <v>701</v>
       </c>
       <c r="J152" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K152" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>45187</v>
       </c>
-      <c r="B153">
+      <c r="B153" t="s">
+        <v>162</v>
+      </c>
+      <c r="C153">
         <v>18</v>
       </c>
-      <c r="C153">
+      <c r="D153">
         <v>9</v>
       </c>
-      <c r="D153">
-        <v>2023</v>
-      </c>
-      <c r="E153" t="s">
-        <v>161</v>
+      <c r="E153">
+        <v>2023</v>
       </c>
       <c r="F153" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="G153" t="s">
-        <v>379</v>
+        <v>528</v>
       </c>
       <c r="H153" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
       <c r="I153" t="s">
-        <v>549</v>
+        <v>702</v>
       </c>
       <c r="J153" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K153" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>45187</v>
       </c>
-      <c r="B154">
+      <c r="B154" t="s">
+        <v>163</v>
+      </c>
+      <c r="C154">
         <v>18</v>
       </c>
-      <c r="C154">
+      <c r="D154">
         <v>9</v>
       </c>
-      <c r="D154">
-        <v>2023</v>
-      </c>
-      <c r="E154" t="s">
-        <v>162</v>
+      <c r="E154">
+        <v>2023</v>
       </c>
       <c r="F154" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="G154" t="s">
-        <v>379</v>
-      </c>
-      <c r="I154" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10">
+        <v>529</v>
+      </c>
+      <c r="H154" t="s">
+        <v>554</v>
+      </c>
+      <c r="J154" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>45187</v>
       </c>
-      <c r="B155">
+      <c r="B155" t="s">
+        <v>164</v>
+      </c>
+      <c r="C155">
         <v>18</v>
       </c>
-      <c r="C155">
+      <c r="D155">
         <v>9</v>
       </c>
-      <c r="D155">
-        <v>2023</v>
-      </c>
-      <c r="E155" t="s">
-        <v>163</v>
+      <c r="E155">
+        <v>2023</v>
       </c>
       <c r="F155" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="G155" t="s">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="H155" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="I155" t="s">
-        <v>549</v>
+        <v>703</v>
       </c>
       <c r="J155" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K155" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>45188</v>
       </c>
-      <c r="B156">
+      <c r="B156" t="s">
+        <v>165</v>
+      </c>
+      <c r="C156">
         <v>19</v>
       </c>
-      <c r="C156">
+      <c r="D156">
         <v>9</v>
       </c>
-      <c r="D156">
-        <v>2023</v>
-      </c>
-      <c r="E156" t="s">
-        <v>164</v>
+      <c r="E156">
+        <v>2023</v>
       </c>
       <c r="F156" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="G156" t="s">
-        <v>380</v>
+        <v>531</v>
       </c>
       <c r="H156" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="I156" t="s">
-        <v>549</v>
+        <v>704</v>
       </c>
       <c r="J156" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K156" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>45189</v>
       </c>
-      <c r="B157">
+      <c r="B157" t="s">
+        <v>166</v>
+      </c>
+      <c r="C157">
         <v>20</v>
       </c>
-      <c r="C157">
+      <c r="D157">
         <v>9</v>
       </c>
-      <c r="D157">
-        <v>2023</v>
-      </c>
-      <c r="E157" t="s">
-        <v>165</v>
+      <c r="E157">
+        <v>2023</v>
       </c>
       <c r="F157" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="G157" t="s">
-        <v>380</v>
+        <v>532</v>
       </c>
       <c r="H157" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="I157" t="s">
-        <v>549</v>
+        <v>705</v>
       </c>
       <c r="J157" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K157" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>45190</v>
       </c>
-      <c r="B158">
+      <c r="B158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C158">
         <v>21</v>
       </c>
-      <c r="C158">
+      <c r="D158">
         <v>9</v>
       </c>
-      <c r="D158">
-        <v>2023</v>
-      </c>
-      <c r="E158" t="s">
-        <v>166</v>
+      <c r="E158">
+        <v>2023</v>
       </c>
       <c r="F158" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="G158" t="s">
-        <v>380</v>
+        <v>533</v>
       </c>
       <c r="H158" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="I158" t="s">
-        <v>549</v>
+        <v>706</v>
       </c>
       <c r="J158" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K158" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>45191</v>
       </c>
-      <c r="B159">
+      <c r="B159" t="s">
+        <v>168</v>
+      </c>
+      <c r="C159">
         <v>22</v>
       </c>
-      <c r="C159">
+      <c r="D159">
         <v>9</v>
       </c>
-      <c r="D159">
-        <v>2023</v>
-      </c>
-      <c r="E159" t="s">
-        <v>167</v>
+      <c r="E159">
+        <v>2023</v>
       </c>
       <c r="F159" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="G159" t="s">
-        <v>380</v>
+        <v>534</v>
       </c>
       <c r="H159" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="I159" t="s">
-        <v>549</v>
+        <v>707</v>
       </c>
       <c r="J159" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K159" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>45191</v>
       </c>
-      <c r="B160">
+      <c r="B160" t="s">
+        <v>169</v>
+      </c>
+      <c r="C160">
         <v>22</v>
       </c>
-      <c r="C160">
+      <c r="D160">
         <v>9</v>
       </c>
-      <c r="D160">
-        <v>2023</v>
-      </c>
-      <c r="E160" t="s">
-        <v>168</v>
+      <c r="E160">
+        <v>2023</v>
       </c>
       <c r="F160" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="G160" t="s">
-        <v>377</v>
+        <v>535</v>
       </c>
       <c r="H160" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="I160" t="s">
-        <v>549</v>
+        <v>708</v>
       </c>
       <c r="J160" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K160" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>45192</v>
       </c>
-      <c r="B161">
+      <c r="B161" t="s">
+        <v>170</v>
+      </c>
+      <c r="C161">
         <v>23</v>
       </c>
-      <c r="C161">
+      <c r="D161">
         <v>9</v>
       </c>
-      <c r="D161">
-        <v>2023</v>
-      </c>
-      <c r="E161" t="s">
-        <v>169</v>
+      <c r="E161">
+        <v>2023</v>
       </c>
       <c r="F161" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="G161" t="s">
-        <v>377</v>
+        <v>536</v>
       </c>
       <c r="H161" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="I161" t="s">
-        <v>549</v>
+        <v>709</v>
       </c>
       <c r="J161" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K161" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>45194</v>
       </c>
-      <c r="B162">
+      <c r="B162" t="s">
+        <v>171</v>
+      </c>
+      <c r="C162">
         <v>25</v>
       </c>
-      <c r="C162">
+      <c r="D162">
         <v>9</v>
       </c>
-      <c r="D162">
-        <v>2023</v>
-      </c>
-      <c r="E162" t="s">
-        <v>170</v>
+      <c r="E162">
+        <v>2023</v>
       </c>
       <c r="F162" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="G162" t="s">
-        <v>377</v>
+        <v>537</v>
       </c>
       <c r="H162" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="I162" t="s">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="J162" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K162" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>45196</v>
       </c>
-      <c r="B163">
+      <c r="B163" t="s">
+        <v>172</v>
+      </c>
+      <c r="C163">
         <v>27</v>
       </c>
-      <c r="C163">
+      <c r="D163">
         <v>9</v>
       </c>
-      <c r="D163">
-        <v>2023</v>
-      </c>
-      <c r="E163" t="s">
-        <v>171</v>
+      <c r="E163">
+        <v>2023</v>
       </c>
       <c r="F163" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="G163" t="s">
-        <v>380</v>
+        <v>538</v>
       </c>
       <c r="H163" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="I163" t="s">
-        <v>549</v>
+        <v>711</v>
       </c>
       <c r="J163" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K163" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>45196</v>
       </c>
-      <c r="B164">
+      <c r="B164" t="s">
+        <v>173</v>
+      </c>
+      <c r="C164">
         <v>27</v>
       </c>
-      <c r="C164">
+      <c r="D164">
         <v>9</v>
       </c>
-      <c r="D164">
-        <v>2023</v>
-      </c>
-      <c r="E164" t="s">
-        <v>172</v>
+      <c r="E164">
+        <v>2023</v>
       </c>
       <c r="F164" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="G164" t="s">
-        <v>377</v>
+        <v>539</v>
       </c>
       <c r="H164" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="I164" t="s">
-        <v>549</v>
+        <v>712</v>
       </c>
       <c r="J164" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K164" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>45198</v>
       </c>
-      <c r="B165">
+      <c r="B165" t="s">
+        <v>174</v>
+      </c>
+      <c r="C165">
         <v>29</v>
       </c>
-      <c r="C165">
+      <c r="D165">
         <v>9</v>
       </c>
-      <c r="D165">
-        <v>2023</v>
-      </c>
-      <c r="E165" t="s">
-        <v>173</v>
+      <c r="E165">
+        <v>2023</v>
       </c>
       <c r="F165" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="G165" t="s">
-        <v>380</v>
+        <v>540</v>
       </c>
       <c r="H165" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="I165" t="s">
-        <v>549</v>
+        <v>713</v>
       </c>
       <c r="J165" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K165" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>45199</v>
       </c>
-      <c r="B166">
+      <c r="B166" t="s">
+        <v>175</v>
+      </c>
+      <c r="C166">
         <v>30</v>
       </c>
-      <c r="C166">
+      <c r="D166">
         <v>9</v>
       </c>
-      <c r="D166">
-        <v>2023</v>
-      </c>
-      <c r="E166" t="s">
-        <v>174</v>
+      <c r="E166">
+        <v>2023</v>
       </c>
       <c r="F166" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="G166" t="s">
-        <v>379</v>
+        <v>541</v>
       </c>
       <c r="H166" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="I166" t="s">
-        <v>549</v>
+        <v>714</v>
       </c>
       <c r="J166" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K166" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>45200</v>
       </c>
-      <c r="B167">
+      <c r="B167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C167">
         <v>1</v>
       </c>
-      <c r="C167">
+      <c r="D167">
         <v>10</v>
       </c>
-      <c r="D167">
-        <v>2023</v>
-      </c>
-      <c r="E167" t="s">
-        <v>175</v>
+      <c r="E167">
+        <v>2023</v>
       </c>
       <c r="F167" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="G167" t="s">
-        <v>379</v>
+        <v>542</v>
       </c>
       <c r="H167" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="I167" t="s">
-        <v>549</v>
+        <v>715</v>
       </c>
       <c r="J167" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K167" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>45200</v>
       </c>
-      <c r="B168">
+      <c r="B168" t="s">
+        <v>177</v>
+      </c>
+      <c r="C168">
         <v>1</v>
       </c>
-      <c r="C168">
+      <c r="D168">
         <v>10</v>
       </c>
-      <c r="D168">
-        <v>2023</v>
-      </c>
-      <c r="E168" t="s">
-        <v>176</v>
+      <c r="E168">
+        <v>2023</v>
       </c>
       <c r="F168" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="G168" t="s">
-        <v>380</v>
+        <v>543</v>
       </c>
       <c r="H168" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="I168" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10">
+        <v>716</v>
+      </c>
+      <c r="J168" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>45201</v>
       </c>
-      <c r="B169">
+      <c r="B169" t="s">
+        <v>178</v>
+      </c>
+      <c r="C169">
         <v>2</v>
       </c>
-      <c r="C169">
+      <c r="D169">
         <v>10</v>
       </c>
-      <c r="D169">
-        <v>2023</v>
-      </c>
-      <c r="E169" t="s">
-        <v>177</v>
+      <c r="E169">
+        <v>2023</v>
       </c>
       <c r="F169" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="G169" t="s">
-        <v>380</v>
+        <v>544</v>
       </c>
       <c r="H169" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="I169" t="s">
-        <v>549</v>
+        <v>717</v>
       </c>
       <c r="J169" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K169" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>45204</v>
       </c>
-      <c r="B170">
+      <c r="B170" t="s">
+        <v>179</v>
+      </c>
+      <c r="C170">
         <v>5</v>
       </c>
-      <c r="C170">
+      <c r="D170">
         <v>10</v>
       </c>
-      <c r="D170">
-        <v>2023</v>
-      </c>
-      <c r="E170" t="s">
-        <v>178</v>
+      <c r="E170">
+        <v>2023</v>
       </c>
       <c r="F170" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="G170" t="s">
-        <v>380</v>
+        <v>545</v>
       </c>
       <c r="H170" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="I170" t="s">
-        <v>549</v>
+        <v>718</v>
       </c>
       <c r="J170" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K170" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>45204</v>
       </c>
-      <c r="B171">
+      <c r="B171" t="s">
+        <v>180</v>
+      </c>
+      <c r="C171">
         <v>5</v>
       </c>
-      <c r="C171">
+      <c r="D171">
         <v>10</v>
       </c>
-      <c r="D171">
-        <v>2023</v>
-      </c>
-      <c r="E171" t="s">
-        <v>179</v>
+      <c r="E171">
+        <v>2023</v>
       </c>
       <c r="F171" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="G171" t="s">
-        <v>377</v>
+        <v>546</v>
       </c>
       <c r="H171" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="I171" t="s">
-        <v>549</v>
+        <v>719</v>
       </c>
       <c r="J171" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K171" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>45206</v>
       </c>
-      <c r="B172">
+      <c r="B172" t="s">
+        <v>181</v>
+      </c>
+      <c r="C172">
         <v>7</v>
       </c>
-      <c r="C172">
+      <c r="D172">
         <v>10</v>
       </c>
-      <c r="D172">
-        <v>2023</v>
-      </c>
-      <c r="E172" t="s">
-        <v>180</v>
+      <c r="E172">
+        <v>2023</v>
       </c>
       <c r="F172" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G172" t="s">
-        <v>382</v>
+        <v>547</v>
       </c>
       <c r="H172" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="I172" t="s">
-        <v>549</v>
+        <v>720</v>
       </c>
       <c r="J172" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K172" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>45212</v>
       </c>
-      <c r="B173">
+      <c r="B173" t="s">
+        <v>182</v>
+      </c>
+      <c r="C173">
         <v>13</v>
       </c>
-      <c r="C173">
+      <c r="D173">
         <v>10</v>
       </c>
-      <c r="D173">
-        <v>2023</v>
-      </c>
-      <c r="E173" t="s">
-        <v>181</v>
+      <c r="E173">
+        <v>2023</v>
       </c>
       <c r="F173" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="G173" t="s">
-        <v>377</v>
+        <v>548</v>
       </c>
       <c r="H173" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="I173" t="s">
-        <v>549</v>
+        <v>721</v>
       </c>
       <c r="J173" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K173" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>45216</v>
       </c>
-      <c r="B174">
+      <c r="B174" t="s">
+        <v>183</v>
+      </c>
+      <c r="C174">
         <v>17</v>
       </c>
-      <c r="C174">
+      <c r="D174">
         <v>10</v>
       </c>
-      <c r="D174">
-        <v>2023</v>
-      </c>
-      <c r="E174" t="s">
-        <v>182</v>
+      <c r="E174">
+        <v>2023</v>
       </c>
       <c r="F174" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="G174" t="s">
-        <v>382</v>
+        <v>549</v>
       </c>
       <c r="H174" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="I174" t="s">
-        <v>549</v>
+        <v>722</v>
       </c>
       <c r="J174" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K174" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>45230</v>
       </c>
-      <c r="B175">
+      <c r="B175" t="s">
+        <v>184</v>
+      </c>
+      <c r="C175">
         <v>31</v>
       </c>
-      <c r="C175">
+      <c r="D175">
         <v>10</v>
       </c>
-      <c r="D175">
-        <v>2023</v>
-      </c>
-      <c r="E175" t="s">
-        <v>183</v>
+      <c r="E175">
+        <v>2023</v>
       </c>
       <c r="F175" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="G175" t="s">
-        <v>378</v>
+        <v>550</v>
       </c>
       <c r="H175" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="I175" t="s">
-        <v>549</v>
+        <v>660</v>
       </c>
       <c r="J175" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
+        <v>724</v>
+      </c>
+      <c r="K175" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>45246</v>
       </c>
-      <c r="B176">
+      <c r="B176" t="s">
+        <v>185</v>
+      </c>
+      <c r="C176">
         <v>16</v>
       </c>
-      <c r="C176">
+      <c r="D176">
         <v>11</v>
       </c>
-      <c r="D176">
-        <v>2023</v>
-      </c>
-      <c r="E176" t="s">
-        <v>184</v>
+      <c r="E176">
+        <v>2023</v>
       </c>
       <c r="F176" t="s">
+        <v>359</v>
+      </c>
+      <c r="G176" t="s">
+        <v>551</v>
+      </c>
+      <c r="H176" t="s">
+        <v>557</v>
+      </c>
+      <c r="I176" t="s">
+        <v>723</v>
+      </c>
+      <c r="J176" t="s">
+        <v>724</v>
+      </c>
+      <c r="K176" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="177" spans="6:8">
+      <c r="F177" t="s">
+        <v>360</v>
+      </c>
+      <c r="H177" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="178" spans="6:8">
+      <c r="F178" t="s">
+        <v>361</v>
+      </c>
+      <c r="H178" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="179" spans="6:8">
+      <c r="F179" t="s">
+        <v>362</v>
+      </c>
+      <c r="H179" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="180" spans="6:8">
+      <c r="F180" t="s">
+        <v>363</v>
+      </c>
+      <c r="H180" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="181" spans="6:8">
+      <c r="F181" t="s">
+        <v>364</v>
+      </c>
+      <c r="H181" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="182" spans="6:8">
+      <c r="F182" t="s">
+        <v>365</v>
+      </c>
+      <c r="H182" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="183" spans="6:8">
+      <c r="F183" t="s">
+        <v>366</v>
+      </c>
+      <c r="H183" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="184" spans="6:8">
+      <c r="F184" t="s">
+        <v>367</v>
+      </c>
+      <c r="H184" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="185" spans="6:8">
+      <c r="F185" t="s">
+        <v>368</v>
+      </c>
+      <c r="H185" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="186" spans="6:8">
+      <c r="F186" t="s">
+        <v>369</v>
+      </c>
+      <c r="H186" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="187" spans="6:8">
+      <c r="F187" t="s">
+        <v>370</v>
+      </c>
+      <c r="H187" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="188" spans="6:8">
+      <c r="F188" t="s">
+        <v>371</v>
+      </c>
+      <c r="H188" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="189" spans="6:8">
+      <c r="F189" t="s">
+        <v>372</v>
+      </c>
+      <c r="H189" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="190" spans="6:8">
+      <c r="F190" t="s">
+        <v>373</v>
+      </c>
+      <c r="H190" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="191" spans="6:8">
+      <c r="F191" t="s">
+        <v>374</v>
+      </c>
+      <c r="H191" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="192" spans="6:8">
+      <c r="F192" t="s">
+        <v>375</v>
+      </c>
+      <c r="H192" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="193" spans="6:8">
+      <c r="F193" t="s">
         <v>376</v>
       </c>
-      <c r="G176" t="s">
-        <v>382</v>
-      </c>
-      <c r="H176" t="s">
-        <v>548</v>
-      </c>
-      <c r="I176" t="s">
-        <v>549</v>
-      </c>
-      <c r="J176" t="s">
+      <c r="H193" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="177" spans="5:7">
-      <c r="E177" t="s">
-        <v>185</v>
-      </c>
-      <c r="G177" t="s">
+    <row r="194" spans="6:8">
+      <c r="F194" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="178" spans="5:7">
-      <c r="E178" t="s">
-        <v>186</v>
-      </c>
-      <c r="G178" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="179" spans="5:7">
-      <c r="E179" t="s">
-        <v>187</v>
-      </c>
-      <c r="G179" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="180" spans="5:7">
-      <c r="E180" t="s">
-        <v>188</v>
-      </c>
-      <c r="G180" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="181" spans="5:7">
-      <c r="E181" t="s">
-        <v>189</v>
-      </c>
-      <c r="G181" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="182" spans="5:7">
-      <c r="E182" t="s">
-        <v>190</v>
-      </c>
-      <c r="G182" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="183" spans="5:7">
-      <c r="E183" t="s">
-        <v>191</v>
-      </c>
-      <c r="G183" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="184" spans="5:7">
-      <c r="E184" t="s">
-        <v>192</v>
-      </c>
-      <c r="G184" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="185" spans="5:7">
-      <c r="E185" t="s">
-        <v>193</v>
-      </c>
-      <c r="G185" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="186" spans="5:7">
-      <c r="E186" t="s">
-        <v>194</v>
-      </c>
-      <c r="G186" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="187" spans="5:7">
-      <c r="E187" t="s">
-        <v>195</v>
-      </c>
-      <c r="G187" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="188" spans="5:7">
-      <c r="E188" t="s">
-        <v>196</v>
-      </c>
-      <c r="G188" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="189" spans="5:7">
-      <c r="E189" t="s">
-        <v>197</v>
-      </c>
-      <c r="G189" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="190" spans="5:7">
-      <c r="E190" t="s">
-        <v>198</v>
-      </c>
-      <c r="G190" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="191" spans="5:7">
-      <c r="E191" t="s">
-        <v>199</v>
-      </c>
-      <c r="G191" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="192" spans="5:7">
-      <c r="E192" t="s">
-        <v>200</v>
-      </c>
-      <c r="G192" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="193" spans="5:7">
-      <c r="E193" t="s">
-        <v>201</v>
-      </c>
-      <c r="G193" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="194" spans="5:7">
-      <c r="E194" t="s">
-        <v>202</v>
-      </c>
-      <c r="G194" t="s">
-        <v>377</v>
+      <c r="H194" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/Pipeline/2023-edited-hiyam-2025-eventdescen-added.xlsx
+++ b/Pipeline/2023-edited-hiyam-2025-eventdescen-added.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="895">
-  <si>
-    <t>التاريخ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="902">
+  <si>
+    <t>date</t>
   </si>
   <si>
     <t>EventIDRowwise</t>
@@ -31,16 +31,19 @@
     <t>year</t>
   </si>
   <si>
-    <t>العنوان</t>
+    <t>EventDescriptionAR</t>
   </si>
   <si>
     <t>EventDescriptionEN</t>
   </si>
   <si>
-    <t>النوع</t>
-  </si>
-  <si>
-    <t>كلمات مفتاحية</t>
+    <t>EventTypeAR</t>
+  </si>
+  <si>
+    <t>EventTypeEN</t>
+  </si>
+  <si>
+    <t>Keywords</t>
   </si>
   <si>
     <t>KeywordEventDescriptionEN</t>
@@ -1692,6 +1695,24 @@
   </si>
   <si>
     <t>سياسة وأمن</t>
+  </si>
+  <si>
+    <t>corruption</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>sexuality</t>
+  </si>
+  <si>
+    <t>refugee</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>politics and security</t>
   </si>
   <si>
     <t xml:space="preserve"> "المفتي دريان" "السنيورة خط أحمر"</t>
@@ -3064,13 +3085,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K194"/>
+  <dimension ref="A1:L194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3104,13 +3125,16 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>43528</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -3122,30 +3146,33 @@
         <v>2023</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J2" t="s">
-        <v>724</v>
+        <v>565</v>
       </c>
       <c r="K2" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>731</v>
+      </c>
+      <c r="L2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>43938</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -3157,30 +3184,33 @@
         <v>2020</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I3" t="s">
         <v>559</v>
       </c>
       <c r="J3" t="s">
-        <v>725</v>
+        <v>566</v>
       </c>
       <c r="K3" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>732</v>
+      </c>
+      <c r="L3" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>44207</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -3192,30 +3222,33 @@
         <v>2021</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J4" t="s">
-        <v>726</v>
+        <v>567</v>
       </c>
       <c r="K4" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>733</v>
+      </c>
+      <c r="L4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>44320</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3227,30 +3260,33 @@
         <v>2021</v>
       </c>
       <c r="F5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J5" t="s">
-        <v>727</v>
+        <v>568</v>
       </c>
       <c r="K5" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>734</v>
+      </c>
+      <c r="L5" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>44535</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3262,30 +3298,33 @@
         <v>2021</v>
       </c>
       <c r="F6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J6" t="s">
-        <v>728</v>
+        <v>569</v>
       </c>
       <c r="K6" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>735</v>
+      </c>
+      <c r="L6" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>44614</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -3297,30 +3336,33 @@
         <v>2022</v>
       </c>
       <c r="F7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="J7" t="s">
-        <v>729</v>
+        <v>570</v>
       </c>
       <c r="K7" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>736</v>
+      </c>
+      <c r="L7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>44668</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>17</v>
@@ -3332,30 +3374,33 @@
         <v>2022</v>
       </c>
       <c r="F8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I8" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="J8" t="s">
-        <v>730</v>
+        <v>571</v>
       </c>
       <c r="K8" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>737</v>
+      </c>
+      <c r="L8" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>44734</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>22</v>
@@ -3367,30 +3412,33 @@
         <v>2022</v>
       </c>
       <c r="F9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H9" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I9" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="J9" t="s">
-        <v>731</v>
+        <v>572</v>
       </c>
       <c r="K9" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>738</v>
+      </c>
+      <c r="L9" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>44737</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>25</v>
@@ -3402,30 +3450,33 @@
         <v>2022</v>
       </c>
       <c r="F10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I10" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="J10" t="s">
-        <v>732</v>
+        <v>573</v>
       </c>
       <c r="K10" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>739</v>
+      </c>
+      <c r="L10" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>44738</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>26</v>
@@ -3437,30 +3488,33 @@
         <v>2022</v>
       </c>
       <c r="F11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H11" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I11" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J11" t="s">
-        <v>733</v>
+        <v>574</v>
       </c>
       <c r="K11" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>740</v>
+      </c>
+      <c r="L11" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>44924</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>29</v>
@@ -3472,30 +3526,33 @@
         <v>2022</v>
       </c>
       <c r="F12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H12" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I12" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="J12" t="s">
-        <v>734</v>
+        <v>575</v>
       </c>
       <c r="K12" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>741</v>
+      </c>
+      <c r="L12" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>44928</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -3507,30 +3564,33 @@
         <v>2023</v>
       </c>
       <c r="F13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H13" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I13" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="J13" t="s">
-        <v>735</v>
+        <v>576</v>
       </c>
       <c r="K13" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>742</v>
+      </c>
+      <c r="L13" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>44935</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -3542,30 +3602,33 @@
         <v>2023</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H14" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I14" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="J14" t="s">
-        <v>736</v>
+        <v>577</v>
       </c>
       <c r="K14" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>743</v>
+      </c>
+      <c r="L14" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>44937</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -3577,30 +3640,33 @@
         <v>2023</v>
       </c>
       <c r="F15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H15" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I15" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="J15" t="s">
-        <v>737</v>
+        <v>578</v>
       </c>
       <c r="K15" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>744</v>
+      </c>
+      <c r="L15" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>44938</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -3612,30 +3678,33 @@
         <v>2023</v>
       </c>
       <c r="F16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H16" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I16" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="J16" t="s">
-        <v>738</v>
+        <v>579</v>
       </c>
       <c r="K16" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>745</v>
+      </c>
+      <c r="L16" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>44945</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>19</v>
@@ -3647,30 +3716,33 @@
         <v>2023</v>
       </c>
       <c r="F17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H17" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I17" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="J17" t="s">
-        <v>739</v>
+        <v>580</v>
       </c>
       <c r="K17" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>746</v>
+      </c>
+      <c r="L17" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>44948</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>22</v>
@@ -3682,30 +3754,33 @@
         <v>2023</v>
       </c>
       <c r="F18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H18" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I18" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="J18" t="s">
-        <v>740</v>
+        <v>581</v>
       </c>
       <c r="K18" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>747</v>
+      </c>
+      <c r="L18" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>44949</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>23</v>
@@ -3717,30 +3792,33 @@
         <v>2023</v>
       </c>
       <c r="F19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H19" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I19" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="J19" t="s">
-        <v>741</v>
+        <v>582</v>
       </c>
       <c r="K19" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>748</v>
+      </c>
+      <c r="L19" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>44951</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>25</v>
@@ -3752,30 +3830,33 @@
         <v>2023</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I20" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="J20" t="s">
-        <v>742</v>
+        <v>583</v>
       </c>
       <c r="K20" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>749</v>
+      </c>
+      <c r="L20" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>44953</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>27</v>
@@ -3787,30 +3868,33 @@
         <v>2023</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H21" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I21" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="J21" t="s">
-        <v>743</v>
+        <v>584</v>
       </c>
       <c r="K21" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>750</v>
+      </c>
+      <c r="L21" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
         <v>44958</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3822,30 +3906,33 @@
         <v>2023</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H22" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I22" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="J22" t="s">
-        <v>744</v>
+        <v>585</v>
       </c>
       <c r="K22" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>751</v>
+      </c>
+      <c r="L22" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2">
         <v>44958</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3857,30 +3944,33 @@
         <v>2023</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H23" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I23" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="J23" t="s">
-        <v>745</v>
+        <v>586</v>
       </c>
       <c r="K23" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>752</v>
+      </c>
+      <c r="L23" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2">
         <v>44961</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -3892,30 +3982,33 @@
         <v>2023</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H24" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I24" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="J24" t="s">
-        <v>746</v>
+        <v>587</v>
       </c>
       <c r="K24" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>753</v>
+      </c>
+      <c r="L24" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2">
         <v>44970</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>13</v>
@@ -3927,30 +4020,33 @@
         <v>2023</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H25" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I25" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="J25" t="s">
-        <v>747</v>
+        <v>588</v>
       </c>
       <c r="K25" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>754</v>
+      </c>
+      <c r="L25" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="2">
         <v>44971</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>14</v>
@@ -3962,30 +4058,33 @@
         <v>2023</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H26" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I26" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="J26" t="s">
-        <v>748</v>
+        <v>589</v>
       </c>
       <c r="K26" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>755</v>
+      </c>
+      <c r="L26" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2">
         <v>44973</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <v>16</v>
@@ -3997,30 +4096,33 @@
         <v>2023</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H27" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I27" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="J27" t="s">
-        <v>749</v>
+        <v>590</v>
       </c>
       <c r="K27" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>756</v>
+      </c>
+      <c r="L27" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="2">
         <v>44974</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28">
         <v>17</v>
@@ -4032,30 +4134,33 @@
         <v>2023</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H28" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I28" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="J28" t="s">
-        <v>750</v>
+        <v>591</v>
       </c>
       <c r="K28" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>757</v>
+      </c>
+      <c r="L28" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="2">
         <v>44976</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>19</v>
@@ -4067,30 +4172,33 @@
         <v>2023</v>
       </c>
       <c r="F29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G29" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H29" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I29" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="J29" t="s">
-        <v>751</v>
+        <v>592</v>
       </c>
       <c r="K29" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>758</v>
+      </c>
+      <c r="L29" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="2">
         <v>44980</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>23</v>
@@ -4102,30 +4210,33 @@
         <v>2023</v>
       </c>
       <c r="F30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H30" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I30" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
       <c r="J30" t="s">
-        <v>752</v>
+        <v>593</v>
       </c>
       <c r="K30" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>759</v>
+      </c>
+      <c r="L30" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="2">
         <v>44981</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>24</v>
@@ -4137,30 +4248,33 @@
         <v>2023</v>
       </c>
       <c r="F31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H31" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I31" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
       <c r="J31" t="s">
-        <v>753</v>
+        <v>594</v>
       </c>
       <c r="K31" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>760</v>
+      </c>
+      <c r="L31" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="2">
         <v>44985</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <v>28</v>
@@ -4172,30 +4286,33 @@
         <v>2023</v>
       </c>
       <c r="F32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G32" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H32" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I32" t="s">
-        <v>588</v>
+        <v>560</v>
       </c>
       <c r="J32" t="s">
-        <v>754</v>
+        <v>595</v>
       </c>
       <c r="K32" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>761</v>
+      </c>
+      <c r="L32" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="2">
         <v>44986</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -4207,30 +4324,33 @@
         <v>2023</v>
       </c>
       <c r="F33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G33" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H33" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I33" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="J33" t="s">
-        <v>755</v>
+        <v>596</v>
       </c>
       <c r="K33" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>762</v>
+      </c>
+      <c r="L33" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="2">
         <v>44987</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -4242,30 +4362,33 @@
         <v>2023</v>
       </c>
       <c r="F34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G34" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H34" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I34" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="J34" t="s">
-        <v>756</v>
+        <v>597</v>
       </c>
       <c r="K34" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>763</v>
+      </c>
+      <c r="L34" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="2">
         <v>44991</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -4277,30 +4400,33 @@
         <v>2023</v>
       </c>
       <c r="F35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G35" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H35" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I35" t="s">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="J35" t="s">
-        <v>757</v>
+        <v>598</v>
       </c>
       <c r="K35" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>764</v>
+      </c>
+      <c r="L35" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="2">
         <v>44994</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -4312,30 +4438,33 @@
         <v>2023</v>
       </c>
       <c r="F36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G36" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H36" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I36" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="J36" t="s">
-        <v>758</v>
+        <v>599</v>
       </c>
       <c r="K36" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>765</v>
+      </c>
+      <c r="L36" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="2">
         <v>44996</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37">
         <v>11</v>
@@ -4347,30 +4476,33 @@
         <v>2023</v>
       </c>
       <c r="F37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G37" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H37" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I37" t="s">
-        <v>593</v>
+        <v>562</v>
       </c>
       <c r="J37" t="s">
-        <v>759</v>
+        <v>600</v>
       </c>
       <c r="K37" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>766</v>
+      </c>
+      <c r="L37" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="2">
         <v>45000</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38">
         <v>15</v>
@@ -4382,30 +4514,33 @@
         <v>2023</v>
       </c>
       <c r="F38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G38" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H38" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I38" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="J38" t="s">
-        <v>760</v>
+        <v>601</v>
       </c>
       <c r="K38" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>767</v>
+      </c>
+      <c r="L38" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="2">
         <v>45001</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39">
         <v>16</v>
@@ -4417,30 +4552,33 @@
         <v>2023</v>
       </c>
       <c r="F39" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G39" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H39" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I39" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
       <c r="J39" t="s">
-        <v>761</v>
+        <v>602</v>
       </c>
       <c r="K39" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>768</v>
+      </c>
+      <c r="L39" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="2">
         <v>45007</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40">
         <v>22</v>
@@ -4452,30 +4590,33 @@
         <v>2023</v>
       </c>
       <c r="F40" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G40" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H40" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I40" t="s">
-        <v>596</v>
+        <v>559</v>
       </c>
       <c r="J40" t="s">
-        <v>762</v>
+        <v>603</v>
       </c>
       <c r="K40" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>769</v>
+      </c>
+      <c r="L40" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="2">
         <v>45009</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41">
         <v>24</v>
@@ -4487,30 +4628,33 @@
         <v>2023</v>
       </c>
       <c r="F41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G41" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H41" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I41" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
       <c r="J41" t="s">
-        <v>763</v>
+        <v>604</v>
       </c>
       <c r="K41" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>770</v>
+      </c>
+      <c r="L41" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="2">
         <v>45010</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42">
         <v>25</v>
@@ -4522,30 +4666,33 @@
         <v>2023</v>
       </c>
       <c r="F42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G42" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H42" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I42" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="J42" t="s">
-        <v>764</v>
+        <v>605</v>
       </c>
       <c r="K42" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>771</v>
+      </c>
+      <c r="L42" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="2">
         <v>45012</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43">
         <v>27</v>
@@ -4557,30 +4704,33 @@
         <v>2023</v>
       </c>
       <c r="F43" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G43" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H43" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I43" t="s">
-        <v>599</v>
+        <v>560</v>
       </c>
       <c r="J43" t="s">
-        <v>765</v>
+        <v>606</v>
       </c>
       <c r="K43" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>772</v>
+      </c>
+      <c r="L43" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="2">
         <v>45015</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44">
         <v>30</v>
@@ -4592,30 +4742,33 @@
         <v>2023</v>
       </c>
       <c r="F44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G44" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H44" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I44" t="s">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="J44" t="s">
-        <v>766</v>
+        <v>607</v>
       </c>
       <c r="K44" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>773</v>
+      </c>
+      <c r="L44" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="2">
         <v>45019</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -4627,30 +4780,33 @@
         <v>2023</v>
       </c>
       <c r="F45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G45" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H45" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I45" t="s">
-        <v>601</v>
+        <v>560</v>
       </c>
       <c r="J45" t="s">
-        <v>767</v>
+        <v>608</v>
       </c>
       <c r="K45" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>774</v>
+      </c>
+      <c r="L45" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="2">
         <v>45028</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46">
         <v>12</v>
@@ -4662,30 +4818,33 @@
         <v>2023</v>
       </c>
       <c r="F46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G46" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H46" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I46" t="s">
-        <v>602</v>
+        <v>561</v>
       </c>
       <c r="J46" t="s">
-        <v>768</v>
+        <v>609</v>
       </c>
       <c r="K46" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>775</v>
+      </c>
+      <c r="L46" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="2">
         <v>45034</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47">
         <v>18</v>
@@ -4697,30 +4856,33 @@
         <v>2023</v>
       </c>
       <c r="F47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G47" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H47" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I47" t="s">
-        <v>603</v>
+        <v>564</v>
       </c>
       <c r="J47" t="s">
-        <v>423</v>
+        <v>610</v>
       </c>
       <c r="K47" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>424</v>
+      </c>
+      <c r="L47" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="2">
         <v>45035</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48">
         <v>19</v>
@@ -4732,30 +4894,33 @@
         <v>2023</v>
       </c>
       <c r="F48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G48" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H48" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I48" t="s">
-        <v>604</v>
+        <v>559</v>
       </c>
       <c r="J48" t="s">
-        <v>769</v>
+        <v>611</v>
       </c>
       <c r="K48" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>776</v>
+      </c>
+      <c r="L48" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="2">
         <v>45036</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -4767,30 +4932,33 @@
         <v>2023</v>
       </c>
       <c r="F49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G49" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H49" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I49" t="s">
-        <v>605</v>
+        <v>562</v>
       </c>
       <c r="J49" t="s">
-        <v>770</v>
+        <v>612</v>
       </c>
       <c r="K49" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>777</v>
+      </c>
+      <c r="L49" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="2">
         <v>45038</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50">
         <v>22</v>
@@ -4802,30 +4970,33 @@
         <v>2023</v>
       </c>
       <c r="F50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G50" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H50" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I50" t="s">
-        <v>606</v>
+        <v>560</v>
       </c>
       <c r="J50" t="s">
-        <v>771</v>
+        <v>613</v>
       </c>
       <c r="K50" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>778</v>
+      </c>
+      <c r="L50" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="2">
         <v>45041</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51">
         <v>25</v>
@@ -4837,30 +5008,33 @@
         <v>2023</v>
       </c>
       <c r="F51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G51" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H51" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I51" t="s">
-        <v>607</v>
+        <v>562</v>
       </c>
       <c r="J51" t="s">
-        <v>772</v>
+        <v>614</v>
       </c>
       <c r="K51" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>779</v>
+      </c>
+      <c r="L51" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="2">
         <v>45042</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52">
         <v>26</v>
@@ -4872,30 +5046,33 @@
         <v>2023</v>
       </c>
       <c r="F52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G52" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H52" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I52" t="s">
-        <v>608</v>
+        <v>562</v>
       </c>
       <c r="J52" t="s">
-        <v>773</v>
+        <v>615</v>
       </c>
       <c r="K52" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>780</v>
+      </c>
+      <c r="L52" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="2">
         <v>45044</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53">
         <v>28</v>
@@ -4907,30 +5084,33 @@
         <v>2023</v>
       </c>
       <c r="F53" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G53" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H53" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I53" t="s">
-        <v>609</v>
+        <v>564</v>
       </c>
       <c r="J53" t="s">
-        <v>774</v>
+        <v>616</v>
       </c>
       <c r="K53" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>781</v>
+      </c>
+      <c r="L53" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="2">
         <v>45045</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54">
         <v>29</v>
@@ -4942,30 +5122,33 @@
         <v>2023</v>
       </c>
       <c r="F54" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G54" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H54" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I54" t="s">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="J54" t="s">
-        <v>775</v>
+        <v>617</v>
       </c>
       <c r="K54" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>782</v>
+      </c>
+      <c r="L54" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="2">
         <v>45048</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -4977,30 +5160,33 @@
         <v>2023</v>
       </c>
       <c r="F55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G55" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H55" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I55" t="s">
-        <v>611</v>
+        <v>562</v>
       </c>
       <c r="J55" t="s">
-        <v>776</v>
+        <v>618</v>
       </c>
       <c r="K55" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>783</v>
+      </c>
+      <c r="L55" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="2">
         <v>45050</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -5012,30 +5198,33 @@
         <v>2023</v>
       </c>
       <c r="F56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G56" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H56" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I56" t="s">
-        <v>612</v>
+        <v>559</v>
       </c>
       <c r="J56" t="s">
-        <v>777</v>
+        <v>619</v>
       </c>
       <c r="K56" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>784</v>
+      </c>
+      <c r="L56" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="2">
         <v>45053</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57">
         <v>7</v>
@@ -5047,30 +5236,33 @@
         <v>2023</v>
       </c>
       <c r="F57" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G57" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H57" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I57" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="J57" t="s">
-        <v>778</v>
+        <v>620</v>
       </c>
       <c r="K57" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>785</v>
+      </c>
+      <c r="L57" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="2">
         <v>45055</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C58">
         <v>9</v>
@@ -5082,30 +5274,33 @@
         <v>2023</v>
       </c>
       <c r="F58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G58" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H58" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I58" t="s">
-        <v>614</v>
+        <v>562</v>
       </c>
       <c r="J58" t="s">
-        <v>779</v>
+        <v>621</v>
       </c>
       <c r="K58" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>786</v>
+      </c>
+      <c r="L58" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="2">
         <v>45056</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C59">
         <v>10</v>
@@ -5117,30 +5312,33 @@
         <v>2023</v>
       </c>
       <c r="F59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G59" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H59" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I59" t="s">
-        <v>615</v>
+        <v>560</v>
       </c>
       <c r="J59" t="s">
-        <v>780</v>
+        <v>622</v>
       </c>
       <c r="K59" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>787</v>
+      </c>
+      <c r="L59" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="2">
         <v>45060</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C60">
         <v>14</v>
@@ -5152,30 +5350,33 @@
         <v>2023</v>
       </c>
       <c r="F60" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G60" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H60" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I60" t="s">
-        <v>616</v>
+        <v>560</v>
       </c>
       <c r="J60" t="s">
-        <v>781</v>
+        <v>623</v>
       </c>
       <c r="K60" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>788</v>
+      </c>
+      <c r="L60" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="2">
         <v>45060</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C61">
         <v>14</v>
@@ -5187,30 +5388,33 @@
         <v>2023</v>
       </c>
       <c r="F61" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G61" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H61" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I61" t="s">
-        <v>617</v>
+        <v>562</v>
       </c>
       <c r="J61" t="s">
-        <v>782</v>
+        <v>624</v>
       </c>
       <c r="K61" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>789</v>
+      </c>
+      <c r="L61" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="2">
         <v>45062</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C62">
         <v>16</v>
@@ -5222,30 +5426,33 @@
         <v>2023</v>
       </c>
       <c r="F62" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G62" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H62" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I62" t="s">
-        <v>618</v>
+        <v>559</v>
       </c>
       <c r="J62" t="s">
-        <v>783</v>
+        <v>625</v>
       </c>
       <c r="K62" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>790</v>
+      </c>
+      <c r="L62" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="2">
         <v>45063</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C63">
         <v>17</v>
@@ -5257,30 +5464,33 @@
         <v>2023</v>
       </c>
       <c r="F63" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G63" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H63" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I63" t="s">
-        <v>619</v>
+        <v>561</v>
       </c>
       <c r="J63" t="s">
-        <v>784</v>
+        <v>626</v>
       </c>
       <c r="K63" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>791</v>
+      </c>
+      <c r="L63" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="2">
         <v>45064</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C64">
         <v>18</v>
@@ -5292,21 +5502,24 @@
         <v>2023</v>
       </c>
       <c r="F64" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G64" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H64" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>555</v>
+      </c>
+      <c r="I64" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="2">
         <v>45070</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C65">
         <v>24</v>
@@ -5318,30 +5531,33 @@
         <v>2023</v>
       </c>
       <c r="F65" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G65" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H65" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I65" t="s">
-        <v>620</v>
+        <v>562</v>
       </c>
       <c r="J65" t="s">
-        <v>785</v>
+        <v>627</v>
       </c>
       <c r="K65" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>792</v>
+      </c>
+      <c r="L65" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="2">
         <v>45071</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C66">
         <v>25</v>
@@ -5353,30 +5569,33 @@
         <v>2023</v>
       </c>
       <c r="F66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G66" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H66" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I66" t="s">
-        <v>621</v>
+        <v>564</v>
       </c>
       <c r="J66" t="s">
-        <v>442</v>
+        <v>628</v>
       </c>
       <c r="K66" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>443</v>
+      </c>
+      <c r="L66" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="2">
         <v>45071</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C67">
         <v>25</v>
@@ -5388,30 +5607,33 @@
         <v>2023</v>
       </c>
       <c r="F67" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G67" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H67" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I67" t="s">
-        <v>622</v>
+        <v>560</v>
       </c>
       <c r="J67" t="s">
-        <v>786</v>
+        <v>629</v>
       </c>
       <c r="K67" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>793</v>
+      </c>
+      <c r="L67" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="2">
         <v>45073</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C68">
         <v>27</v>
@@ -5423,30 +5645,33 @@
         <v>2023</v>
       </c>
       <c r="F68" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G68" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H68" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I68" t="s">
-        <v>623</v>
+        <v>564</v>
       </c>
       <c r="J68" t="s">
-        <v>787</v>
+        <v>630</v>
       </c>
       <c r="K68" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>794</v>
+      </c>
+      <c r="L68" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="2">
         <v>45078</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -5458,30 +5683,33 @@
         <v>2023</v>
       </c>
       <c r="F69" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G69" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H69" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I69" t="s">
-        <v>624</v>
+        <v>564</v>
       </c>
       <c r="J69" t="s">
-        <v>788</v>
+        <v>631</v>
       </c>
       <c r="K69" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>795</v>
+      </c>
+      <c r="L69" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="2">
         <v>45078</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5493,30 +5721,33 @@
         <v>2023</v>
       </c>
       <c r="F70" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G70" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H70" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I70" t="s">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="J70" t="s">
-        <v>789</v>
+        <v>632</v>
       </c>
       <c r="K70" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>796</v>
+      </c>
+      <c r="L70" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="2">
         <v>45079</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -5528,30 +5759,33 @@
         <v>2023</v>
       </c>
       <c r="F71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G71" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H71" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I71" t="s">
-        <v>626</v>
+        <v>564</v>
       </c>
       <c r="J71" t="s">
-        <v>790</v>
+        <v>633</v>
       </c>
       <c r="K71" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>797</v>
+      </c>
+      <c r="L71" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="2">
         <v>45081</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -5563,30 +5797,33 @@
         <v>2023</v>
       </c>
       <c r="F72" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G72" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H72" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I72" t="s">
-        <v>627</v>
+        <v>564</v>
       </c>
       <c r="J72" t="s">
-        <v>791</v>
+        <v>634</v>
       </c>
       <c r="K72" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>798</v>
+      </c>
+      <c r="L72" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="2">
         <v>45081</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -5598,30 +5835,33 @@
         <v>2023</v>
       </c>
       <c r="F73" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G73" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H73" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I73" t="s">
-        <v>628</v>
+        <v>559</v>
       </c>
       <c r="J73" t="s">
-        <v>792</v>
+        <v>635</v>
       </c>
       <c r="K73" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>799</v>
+      </c>
+      <c r="L73" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="2">
         <v>45085</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C74">
         <v>8</v>
@@ -5633,30 +5873,33 @@
         <v>2023</v>
       </c>
       <c r="F74" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G74" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H74" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I74" t="s">
-        <v>629</v>
+        <v>564</v>
       </c>
       <c r="J74" t="s">
-        <v>793</v>
+        <v>636</v>
       </c>
       <c r="K74" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>800</v>
+      </c>
+      <c r="L74" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="2">
         <v>45086</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C75">
         <v>9</v>
@@ -5668,30 +5911,33 @@
         <v>2023</v>
       </c>
       <c r="F75" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G75" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H75" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I75" t="s">
-        <v>630</v>
+        <v>560</v>
       </c>
       <c r="J75" t="s">
-        <v>794</v>
+        <v>637</v>
       </c>
       <c r="K75" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>801</v>
+      </c>
+      <c r="L75" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="2">
         <v>45088</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C76">
         <v>11</v>
@@ -5703,30 +5949,33 @@
         <v>2023</v>
       </c>
       <c r="F76" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G76" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H76" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I76" t="s">
-        <v>631</v>
+        <v>559</v>
       </c>
       <c r="J76" t="s">
-        <v>795</v>
+        <v>638</v>
       </c>
       <c r="K76" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>802</v>
+      </c>
+      <c r="L76" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="2">
         <v>45094</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C77">
         <v>17</v>
@@ -5738,30 +5987,33 @@
         <v>2023</v>
       </c>
       <c r="F77" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G77" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H77" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I77" t="s">
-        <v>632</v>
+        <v>561</v>
       </c>
       <c r="J77" t="s">
-        <v>796</v>
+        <v>639</v>
       </c>
       <c r="K77" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>803</v>
+      </c>
+      <c r="L77" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="2">
         <v>45096</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C78">
         <v>19</v>
@@ -5773,30 +6025,33 @@
         <v>2023</v>
       </c>
       <c r="F78" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G78" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H78" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I78" t="s">
-        <v>633</v>
+        <v>559</v>
       </c>
       <c r="J78" t="s">
-        <v>797</v>
+        <v>640</v>
       </c>
       <c r="K78" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>804</v>
+      </c>
+      <c r="L78" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="2">
         <v>45097</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C79">
         <v>20</v>
@@ -5808,30 +6063,33 @@
         <v>2023</v>
       </c>
       <c r="F79" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G79" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H79" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I79" t="s">
-        <v>634</v>
+        <v>561</v>
       </c>
       <c r="J79" t="s">
-        <v>798</v>
+        <v>641</v>
       </c>
       <c r="K79" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>805</v>
+      </c>
+      <c r="L79" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="2">
         <v>45098</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C80">
         <v>21</v>
@@ -5843,30 +6101,33 @@
         <v>2023</v>
       </c>
       <c r="F80" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G80" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H80" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I80" t="s">
-        <v>635</v>
+        <v>561</v>
       </c>
       <c r="J80" t="s">
-        <v>799</v>
+        <v>642</v>
       </c>
       <c r="K80" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>806</v>
+      </c>
+      <c r="L80" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="2">
         <v>45099</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C81">
         <v>22</v>
@@ -5878,30 +6139,33 @@
         <v>2023</v>
       </c>
       <c r="F81" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G81" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H81" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I81" t="s">
-        <v>636</v>
+        <v>561</v>
       </c>
       <c r="J81" t="s">
-        <v>800</v>
+        <v>643</v>
       </c>
       <c r="K81" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>807</v>
+      </c>
+      <c r="L81" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="2">
         <v>45101</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C82">
         <v>24</v>
@@ -5913,30 +6177,33 @@
         <v>2023</v>
       </c>
       <c r="F82" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G82" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H82" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I82" t="s">
-        <v>637</v>
+        <v>562</v>
       </c>
       <c r="J82" t="s">
-        <v>801</v>
+        <v>644</v>
       </c>
       <c r="K82" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>808</v>
+      </c>
+      <c r="L82" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="2">
         <v>45102</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C83">
         <v>25</v>
@@ -5948,30 +6215,33 @@
         <v>2023</v>
       </c>
       <c r="F83" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G83" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H83" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I83" t="s">
-        <v>638</v>
+        <v>564</v>
       </c>
       <c r="J83" t="s">
-        <v>802</v>
+        <v>645</v>
       </c>
       <c r="K83" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>809</v>
+      </c>
+      <c r="L83" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="2">
         <v>45107</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C84">
         <v>30</v>
@@ -5983,30 +6253,33 @@
         <v>2023</v>
       </c>
       <c r="F84" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G84" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H84" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I84" t="s">
-        <v>639</v>
+        <v>560</v>
       </c>
       <c r="J84" t="s">
-        <v>803</v>
+        <v>646</v>
       </c>
       <c r="K84" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>810</v>
+      </c>
+      <c r="L84" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="2">
         <v>45108</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -6018,30 +6291,33 @@
         <v>2023</v>
       </c>
       <c r="F85" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G85" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H85" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I85" t="s">
-        <v>640</v>
+        <v>564</v>
       </c>
       <c r="J85" t="s">
-        <v>804</v>
+        <v>647</v>
       </c>
       <c r="K85" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>811</v>
+      </c>
+      <c r="L85" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="2">
         <v>45117</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C86">
         <v>10</v>
@@ -6053,30 +6329,33 @@
         <v>2023</v>
       </c>
       <c r="F86" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G86" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H86" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I86" t="s">
-        <v>641</v>
+        <v>560</v>
       </c>
       <c r="J86" t="s">
-        <v>462</v>
+        <v>648</v>
       </c>
       <c r="K86" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>463</v>
+      </c>
+      <c r="L86" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="2">
         <v>45119</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C87">
         <v>12</v>
@@ -6088,30 +6367,33 @@
         <v>2023</v>
       </c>
       <c r="F87" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G87" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H87" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I87" t="s">
-        <v>642</v>
+        <v>561</v>
       </c>
       <c r="J87" t="s">
-        <v>805</v>
+        <v>649</v>
       </c>
       <c r="K87" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>812</v>
+      </c>
+      <c r="L87" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="2">
         <v>45122</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C88">
         <v>15</v>
@@ -6123,30 +6405,33 @@
         <v>2023</v>
       </c>
       <c r="F88" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G88" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H88" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I88" t="s">
-        <v>643</v>
+        <v>563</v>
       </c>
       <c r="J88" t="s">
-        <v>806</v>
+        <v>650</v>
       </c>
       <c r="K88" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>813</v>
+      </c>
+      <c r="L88" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="2">
         <v>45122</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C89">
         <v>12</v>
@@ -6158,30 +6443,33 @@
         <v>2023</v>
       </c>
       <c r="F89" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G89" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H89" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I89" t="s">
-        <v>644</v>
+        <v>562</v>
       </c>
       <c r="J89" t="s">
-        <v>807</v>
+        <v>651</v>
       </c>
       <c r="K89" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>814</v>
+      </c>
+      <c r="L89" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="2">
         <v>45125</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C90">
         <v>18</v>
@@ -6193,30 +6481,33 @@
         <v>2023</v>
       </c>
       <c r="F90" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G90" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H90" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I90" t="s">
-        <v>645</v>
+        <v>562</v>
       </c>
       <c r="J90" t="s">
-        <v>808</v>
+        <v>652</v>
       </c>
       <c r="K90" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>815</v>
+      </c>
+      <c r="L90" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="2">
         <v>45126</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C91">
         <v>19</v>
@@ -6228,30 +6519,33 @@
         <v>2023</v>
       </c>
       <c r="F91" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G91" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H91" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I91" t="s">
-        <v>646</v>
+        <v>561</v>
       </c>
       <c r="J91" t="s">
-        <v>809</v>
+        <v>653</v>
       </c>
       <c r="K91" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>816</v>
+      </c>
+      <c r="L91" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="2">
         <v>45129</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C92">
         <v>22</v>
@@ -6263,30 +6557,33 @@
         <v>2023</v>
       </c>
       <c r="F92" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G92" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H92" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I92" t="s">
-        <v>647</v>
+        <v>561</v>
       </c>
       <c r="J92" t="s">
-        <v>810</v>
+        <v>654</v>
       </c>
       <c r="K92" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>817</v>
+      </c>
+      <c r="L92" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="2">
         <v>45134</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C93">
         <v>27</v>
@@ -6298,27 +6595,30 @@
         <v>2023</v>
       </c>
       <c r="F93" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G93" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H93" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I93" t="s">
-        <v>648</v>
+        <v>559</v>
       </c>
       <c r="J93" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>655</v>
+      </c>
+      <c r="K93" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="2">
         <v>45135</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C94">
         <v>28</v>
@@ -6330,30 +6630,33 @@
         <v>2023</v>
       </c>
       <c r="F94" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G94" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H94" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I94" t="s">
-        <v>649</v>
+        <v>561</v>
       </c>
       <c r="J94" t="s">
-        <v>812</v>
+        <v>656</v>
       </c>
       <c r="K94" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>819</v>
+      </c>
+      <c r="L94" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="2">
         <v>45136</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C95">
         <v>29</v>
@@ -6365,30 +6668,33 @@
         <v>2023</v>
       </c>
       <c r="F95" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G95" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H95" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I95" t="s">
-        <v>650</v>
+        <v>561</v>
       </c>
       <c r="J95" t="s">
-        <v>813</v>
+        <v>657</v>
       </c>
       <c r="K95" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>820</v>
+      </c>
+      <c r="L95" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="2">
         <v>45136</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C96">
         <v>29</v>
@@ -6400,30 +6706,33 @@
         <v>2023</v>
       </c>
       <c r="F96" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G96" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H96" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I96" t="s">
-        <v>651</v>
+        <v>561</v>
       </c>
       <c r="J96" t="s">
-        <v>810</v>
+        <v>658</v>
       </c>
       <c r="K96" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>817</v>
+      </c>
+      <c r="L96" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="2">
         <v>45136</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C97">
         <v>29</v>
@@ -6435,30 +6744,33 @@
         <v>2023</v>
       </c>
       <c r="F97" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G97" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H97" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I97" t="s">
-        <v>652</v>
+        <v>561</v>
       </c>
       <c r="J97" t="s">
-        <v>814</v>
+        <v>659</v>
       </c>
       <c r="K97" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>821</v>
+      </c>
+      <c r="L97" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="2">
         <v>45137</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C98">
         <v>30</v>
@@ -6470,30 +6782,33 @@
         <v>2023</v>
       </c>
       <c r="F98" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G98" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H98" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I98" t="s">
-        <v>653</v>
+        <v>564</v>
       </c>
       <c r="J98" t="s">
-        <v>815</v>
+        <v>660</v>
       </c>
       <c r="K98" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>822</v>
+      </c>
+      <c r="L98" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="2">
         <v>45138</v>
       </c>
       <c r="B99" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C99">
         <v>31</v>
@@ -6505,30 +6820,33 @@
         <v>2023</v>
       </c>
       <c r="F99" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G99" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H99" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I99" t="s">
-        <v>654</v>
+        <v>559</v>
       </c>
       <c r="J99" t="s">
-        <v>816</v>
+        <v>661</v>
       </c>
       <c r="K99" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>823</v>
+      </c>
+      <c r="L99" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="2">
         <v>45139</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -6540,30 +6858,33 @@
         <v>2023</v>
       </c>
       <c r="F100" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G100" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H100" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I100" t="s">
-        <v>655</v>
+        <v>562</v>
       </c>
       <c r="J100" t="s">
-        <v>817</v>
+        <v>662</v>
       </c>
       <c r="K100" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>824</v>
+      </c>
+      <c r="L100" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="2">
         <v>45139</v>
       </c>
       <c r="B101" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -6575,30 +6896,33 @@
         <v>2023</v>
       </c>
       <c r="F101" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G101" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H101" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I101" t="s">
-        <v>656</v>
+        <v>559</v>
       </c>
       <c r="J101" t="s">
-        <v>818</v>
+        <v>663</v>
       </c>
       <c r="K101" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>825</v>
+      </c>
+      <c r="L101" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="2">
         <v>45140</v>
       </c>
       <c r="B102" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -6610,30 +6934,33 @@
         <v>2023</v>
       </c>
       <c r="F102" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G102" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H102" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I102" t="s">
-        <v>657</v>
+        <v>564</v>
       </c>
       <c r="J102" t="s">
-        <v>819</v>
+        <v>664</v>
       </c>
       <c r="K102" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>826</v>
+      </c>
+      <c r="L102" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="2">
         <v>45142</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -6645,30 +6972,33 @@
         <v>2023</v>
       </c>
       <c r="F103" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G103" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H103" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I103" t="s">
-        <v>658</v>
+        <v>564</v>
       </c>
       <c r="J103" t="s">
-        <v>820</v>
+        <v>665</v>
       </c>
       <c r="K103" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>827</v>
+      </c>
+      <c r="L103" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="2">
         <v>45144</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C104">
         <v>6</v>
@@ -6680,30 +7010,33 @@
         <v>2023</v>
       </c>
       <c r="F104" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G104" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H104" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I104" t="s">
-        <v>659</v>
+        <v>561</v>
       </c>
       <c r="J104" t="s">
-        <v>821</v>
+        <v>666</v>
       </c>
       <c r="K104" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>828</v>
+      </c>
+      <c r="L104" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="2">
         <v>45145</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C105">
         <v>7</v>
@@ -6715,30 +7048,33 @@
         <v>2023</v>
       </c>
       <c r="F105" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G105" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H105" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I105" t="s">
-        <v>660</v>
+        <v>560</v>
       </c>
       <c r="J105" t="s">
-        <v>822</v>
+        <v>667</v>
       </c>
       <c r="K105" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>829</v>
+      </c>
+      <c r="L105" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="2">
         <v>45145</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C106">
         <v>7</v>
@@ -6750,30 +7086,33 @@
         <v>2023</v>
       </c>
       <c r="F106" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G106" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H106" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I106" t="s">
-        <v>661</v>
+        <v>562</v>
       </c>
       <c r="J106" t="s">
-        <v>823</v>
+        <v>668</v>
       </c>
       <c r="K106" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>830</v>
+      </c>
+      <c r="L106" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="2">
         <v>45146</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C107">
         <v>8</v>
@@ -6785,30 +7124,33 @@
         <v>2023</v>
       </c>
       <c r="F107" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G107" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H107" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I107" t="s">
-        <v>662</v>
+        <v>561</v>
       </c>
       <c r="J107" t="s">
-        <v>824</v>
+        <v>669</v>
       </c>
       <c r="K107" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>831</v>
+      </c>
+      <c r="L107" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="2">
         <v>45147</v>
       </c>
       <c r="B108" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C108">
         <v>9</v>
@@ -6820,30 +7162,33 @@
         <v>2023</v>
       </c>
       <c r="F108" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G108" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H108" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I108" t="s">
-        <v>663</v>
+        <v>564</v>
       </c>
       <c r="J108" t="s">
-        <v>825</v>
+        <v>670</v>
       </c>
       <c r="K108" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>832</v>
+      </c>
+      <c r="L108" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="2">
         <v>45147</v>
       </c>
       <c r="B109" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C109">
         <v>9</v>
@@ -6855,30 +7200,33 @@
         <v>2023</v>
       </c>
       <c r="F109" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G109" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H109" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I109" t="s">
-        <v>664</v>
+        <v>561</v>
       </c>
       <c r="J109" t="s">
-        <v>826</v>
+        <v>671</v>
       </c>
       <c r="K109" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>833</v>
+      </c>
+      <c r="L109" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="2">
         <v>45148</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C110">
         <v>10</v>
@@ -6890,30 +7238,33 @@
         <v>2023</v>
       </c>
       <c r="F110" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G110" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H110" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I110" t="s">
-        <v>665</v>
+        <v>561</v>
       </c>
       <c r="J110" t="s">
-        <v>827</v>
+        <v>672</v>
       </c>
       <c r="K110" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>834</v>
+      </c>
+      <c r="L110" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="2">
         <v>45148</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C111">
         <v>10</v>
@@ -6925,30 +7276,33 @@
         <v>2023</v>
       </c>
       <c r="F111" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G111" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H111" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I111" t="s">
-        <v>666</v>
+        <v>559</v>
       </c>
       <c r="J111" t="s">
-        <v>828</v>
+        <v>673</v>
       </c>
       <c r="K111" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>835</v>
+      </c>
+      <c r="L111" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="2">
         <v>45149</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C112">
         <v>11</v>
@@ -6960,30 +7314,33 @@
         <v>2023</v>
       </c>
       <c r="F112" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G112" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H112" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I112" t="s">
-        <v>667</v>
+        <v>559</v>
       </c>
       <c r="J112" t="s">
-        <v>829</v>
+        <v>674</v>
       </c>
       <c r="K112" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>836</v>
+      </c>
+      <c r="L112" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="2">
         <v>45149</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C113">
         <v>11</v>
@@ -6995,30 +7352,33 @@
         <v>2023</v>
       </c>
       <c r="F113" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G113" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H113" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I113" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="J113" t="s">
-        <v>750</v>
+        <v>591</v>
       </c>
       <c r="K113" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>757</v>
+      </c>
+      <c r="L113" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="2">
         <v>45153</v>
       </c>
       <c r="B114" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C114">
         <v>15</v>
@@ -7030,30 +7390,33 @@
         <v>2023</v>
       </c>
       <c r="F114" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G114" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H114" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I114" t="s">
-        <v>668</v>
+        <v>564</v>
       </c>
       <c r="J114" t="s">
-        <v>830</v>
+        <v>675</v>
       </c>
       <c r="K114" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>837</v>
+      </c>
+      <c r="L114" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="2">
         <v>45153</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C115">
         <v>15</v>
@@ -7065,30 +7428,33 @@
         <v>2023</v>
       </c>
       <c r="F115" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G115" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H115" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I115" t="s">
-        <v>669</v>
+        <v>562</v>
       </c>
       <c r="J115" t="s">
-        <v>831</v>
+        <v>676</v>
       </c>
       <c r="K115" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>838</v>
+      </c>
+      <c r="L115" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="2">
         <v>45153</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C116">
         <v>15</v>
@@ -7100,30 +7466,33 @@
         <v>2023</v>
       </c>
       <c r="F116" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G116" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H116" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I116" t="s">
-        <v>670</v>
+        <v>562</v>
       </c>
       <c r="J116" t="s">
-        <v>832</v>
+        <v>677</v>
       </c>
       <c r="K116" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>839</v>
+      </c>
+      <c r="L116" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="2">
         <v>45154</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C117">
         <v>16</v>
@@ -7135,30 +7504,33 @@
         <v>2023</v>
       </c>
       <c r="F117" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G117" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H117" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I117" t="s">
-        <v>671</v>
+        <v>561</v>
       </c>
       <c r="J117" t="s">
-        <v>833</v>
+        <v>678</v>
       </c>
       <c r="K117" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>840</v>
+      </c>
+      <c r="L117" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="2">
         <v>45154</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C118">
         <v>16</v>
@@ -7170,30 +7542,33 @@
         <v>2023</v>
       </c>
       <c r="F118" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G118" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H118" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I118" t="s">
-        <v>672</v>
+        <v>561</v>
       </c>
       <c r="J118" t="s">
-        <v>834</v>
+        <v>679</v>
       </c>
       <c r="K118" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>841</v>
+      </c>
+      <c r="L118" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="2">
         <v>45154</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C119">
         <v>16</v>
@@ -7205,30 +7580,33 @@
         <v>2023</v>
       </c>
       <c r="F119" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G119" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H119" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I119" t="s">
-        <v>673</v>
+        <v>559</v>
       </c>
       <c r="J119" t="s">
-        <v>835</v>
+        <v>680</v>
       </c>
       <c r="K119" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>842</v>
+      </c>
+      <c r="L119" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="2">
         <v>45155</v>
       </c>
       <c r="B120" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C120">
         <v>17</v>
@@ -7240,30 +7618,33 @@
         <v>2023</v>
       </c>
       <c r="F120" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G120" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H120" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I120" t="s">
-        <v>674</v>
+        <v>561</v>
       </c>
       <c r="J120" t="s">
-        <v>836</v>
+        <v>681</v>
       </c>
       <c r="K120" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>843</v>
+      </c>
+      <c r="L120" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="2">
         <v>45155</v>
       </c>
       <c r="B121" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C121">
         <v>17</v>
@@ -7275,21 +7656,24 @@
         <v>2023</v>
       </c>
       <c r="F121" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G121" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H121" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>555</v>
+      </c>
+      <c r="I121" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="2">
         <v>45155</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C122">
         <v>17</v>
@@ -7301,30 +7685,33 @@
         <v>2023</v>
       </c>
       <c r="F122" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G122" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H122" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I122" t="s">
-        <v>675</v>
+        <v>559</v>
       </c>
       <c r="J122" t="s">
-        <v>837</v>
+        <v>682</v>
       </c>
       <c r="K122" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>844</v>
+      </c>
+      <c r="L122" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="2">
         <v>45157</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C123">
         <v>19</v>
@@ -7336,30 +7723,33 @@
         <v>2023</v>
       </c>
       <c r="F123" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G123" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H123" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I123" t="s">
-        <v>676</v>
+        <v>563</v>
       </c>
       <c r="J123" t="s">
-        <v>838</v>
+        <v>683</v>
       </c>
       <c r="K123" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>845</v>
+      </c>
+      <c r="L123" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="2">
         <v>45157</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C124">
         <v>19</v>
@@ -7371,30 +7761,33 @@
         <v>2023</v>
       </c>
       <c r="F124" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G124" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H124" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I124" t="s">
-        <v>677</v>
+        <v>561</v>
       </c>
       <c r="J124" t="s">
-        <v>839</v>
+        <v>684</v>
       </c>
       <c r="K124" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>846</v>
+      </c>
+      <c r="L124" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="2">
         <v>45158</v>
       </c>
       <c r="B125" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C125">
         <v>20</v>
@@ -7406,30 +7799,33 @@
         <v>2023</v>
       </c>
       <c r="F125" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G125" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H125" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I125" t="s">
-        <v>678</v>
+        <v>561</v>
       </c>
       <c r="J125" t="s">
-        <v>840</v>
+        <v>685</v>
       </c>
       <c r="K125" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>847</v>
+      </c>
+      <c r="L125" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="2">
         <v>45159</v>
       </c>
       <c r="B126" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C126">
         <v>21</v>
@@ -7441,30 +7837,33 @@
         <v>2023</v>
       </c>
       <c r="F126" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G126" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H126" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I126" t="s">
-        <v>679</v>
+        <v>561</v>
       </c>
       <c r="J126" t="s">
-        <v>841</v>
+        <v>686</v>
       </c>
       <c r="K126" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>848</v>
+      </c>
+      <c r="L126" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="2">
         <v>45160</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C127">
         <v>22</v>
@@ -7476,30 +7875,33 @@
         <v>2023</v>
       </c>
       <c r="F127" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G127" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H127" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I127" t="s">
-        <v>680</v>
+        <v>561</v>
       </c>
       <c r="J127" t="s">
-        <v>842</v>
+        <v>687</v>
       </c>
       <c r="K127" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>849</v>
+      </c>
+      <c r="L127" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="2">
         <v>45160</v>
       </c>
       <c r="B128" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C128">
         <v>22</v>
@@ -7511,30 +7913,33 @@
         <v>2023</v>
       </c>
       <c r="F128" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G128" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H128" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I128" t="s">
-        <v>681</v>
+        <v>561</v>
       </c>
       <c r="J128" t="s">
-        <v>843</v>
+        <v>688</v>
       </c>
       <c r="K128" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>850</v>
+      </c>
+      <c r="L128" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="2">
         <v>45161</v>
       </c>
       <c r="B129" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C129">
         <v>23</v>
@@ -7546,30 +7951,33 @@
         <v>2023</v>
       </c>
       <c r="F129" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G129" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H129" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I129" t="s">
-        <v>682</v>
+        <v>561</v>
       </c>
       <c r="J129" t="s">
-        <v>844</v>
+        <v>689</v>
       </c>
       <c r="K129" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>851</v>
+      </c>
+      <c r="L129" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="2">
         <v>45161</v>
       </c>
       <c r="B130" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C130">
         <v>23</v>
@@ -7581,30 +7989,33 @@
         <v>2023</v>
       </c>
       <c r="F130" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G130" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H130" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I130" t="s">
-        <v>683</v>
+        <v>561</v>
       </c>
       <c r="J130" t="s">
-        <v>845</v>
+        <v>690</v>
       </c>
       <c r="K130" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>852</v>
+      </c>
+      <c r="L130" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="2">
         <v>45162</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C131">
         <v>24</v>
@@ -7616,30 +8027,33 @@
         <v>2023</v>
       </c>
       <c r="F131" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G131" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H131" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I131" t="s">
-        <v>684</v>
+        <v>563</v>
       </c>
       <c r="J131" t="s">
-        <v>846</v>
+        <v>691</v>
       </c>
       <c r="K131" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>853</v>
+      </c>
+      <c r="L131" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="2">
         <v>45162</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C132">
         <v>24</v>
@@ -7651,30 +8065,33 @@
         <v>2023</v>
       </c>
       <c r="F132" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G132" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H132" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I132" t="s">
-        <v>685</v>
+        <v>561</v>
       </c>
       <c r="J132" t="s">
-        <v>847</v>
+        <v>692</v>
       </c>
       <c r="K132" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>854</v>
+      </c>
+      <c r="L132" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="2">
         <v>45162</v>
       </c>
       <c r="B133" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C133">
         <v>24</v>
@@ -7686,21 +8103,24 @@
         <v>2023</v>
       </c>
       <c r="F133" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G133" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H133" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>555</v>
+      </c>
+      <c r="I133" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="2">
         <v>45167</v>
       </c>
       <c r="B134" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C134">
         <v>29</v>
@@ -7712,30 +8132,33 @@
         <v>2023</v>
       </c>
       <c r="F134" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G134" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H134" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I134" t="s">
-        <v>686</v>
+        <v>563</v>
       </c>
       <c r="J134" t="s">
-        <v>848</v>
+        <v>693</v>
       </c>
       <c r="K134" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>855</v>
+      </c>
+      <c r="L134" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="2">
         <v>45168</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C135">
         <v>30</v>
@@ -7747,30 +8170,33 @@
         <v>2023</v>
       </c>
       <c r="F135" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G135" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H135" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I135" t="s">
-        <v>687</v>
+        <v>559</v>
       </c>
       <c r="J135" t="s">
-        <v>849</v>
+        <v>694</v>
       </c>
       <c r="K135" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>856</v>
+      </c>
+      <c r="L135" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="2">
         <v>45168</v>
       </c>
       <c r="B136" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C136">
         <v>30</v>
@@ -7782,30 +8208,33 @@
         <v>2023</v>
       </c>
       <c r="F136" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G136" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H136" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I136" t="s">
-        <v>688</v>
+        <v>559</v>
       </c>
       <c r="J136" t="s">
-        <v>850</v>
+        <v>695</v>
       </c>
       <c r="K136" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>857</v>
+      </c>
+      <c r="L136" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="2">
         <v>45169</v>
       </c>
       <c r="B137" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C137">
         <v>31</v>
@@ -7817,30 +8246,33 @@
         <v>2023</v>
       </c>
       <c r="F137" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G137" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H137" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I137" t="s">
-        <v>609</v>
+        <v>564</v>
       </c>
       <c r="J137" t="s">
-        <v>774</v>
+        <v>616</v>
       </c>
       <c r="K137" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>781</v>
+      </c>
+      <c r="L137" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="2">
         <v>45169</v>
       </c>
       <c r="B138" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C138">
         <v>31</v>
@@ -7852,30 +8284,33 @@
         <v>2023</v>
       </c>
       <c r="F138" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G138" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H138" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I138" t="s">
-        <v>689</v>
+        <v>560</v>
       </c>
       <c r="J138" t="s">
-        <v>851</v>
+        <v>696</v>
       </c>
       <c r="K138" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>858</v>
+      </c>
+      <c r="L138" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="2">
         <v>45169</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C139">
         <v>31</v>
@@ -7887,30 +8322,33 @@
         <v>2023</v>
       </c>
       <c r="F139" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G139" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H139" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I139" t="s">
-        <v>690</v>
+        <v>561</v>
       </c>
       <c r="J139" t="s">
-        <v>852</v>
+        <v>697</v>
       </c>
       <c r="K139" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>859</v>
+      </c>
+      <c r="L139" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="2">
         <v>45170</v>
       </c>
       <c r="B140" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -7922,21 +8360,24 @@
         <v>2023</v>
       </c>
       <c r="F140" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G140" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H140" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+        <v>555</v>
+      </c>
+      <c r="I140" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="2">
         <v>45171</v>
       </c>
       <c r="B141" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -7948,30 +8389,33 @@
         <v>2023</v>
       </c>
       <c r="F141" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G141" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H141" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I141" t="s">
-        <v>691</v>
+        <v>561</v>
       </c>
       <c r="J141" t="s">
-        <v>853</v>
+        <v>698</v>
       </c>
       <c r="K141" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+        <v>860</v>
+      </c>
+      <c r="L141" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="2">
         <v>45174</v>
       </c>
       <c r="B142" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -7983,30 +8427,33 @@
         <v>2023</v>
       </c>
       <c r="F142" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G142" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H142" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I142" t="s">
-        <v>692</v>
+        <v>561</v>
       </c>
       <c r="J142" t="s">
-        <v>854</v>
+        <v>699</v>
       </c>
       <c r="K142" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>861</v>
+      </c>
+      <c r="L142" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="2">
         <v>45174</v>
       </c>
       <c r="B143" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C143">
         <v>5</v>
@@ -8018,30 +8465,33 @@
         <v>2023</v>
       </c>
       <c r="F143" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G143" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H143" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I143" t="s">
-        <v>693</v>
+        <v>559</v>
       </c>
       <c r="J143" t="s">
-        <v>855</v>
+        <v>700</v>
       </c>
       <c r="K143" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>862</v>
+      </c>
+      <c r="L143" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="2">
         <v>45177</v>
       </c>
       <c r="B144" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C144">
         <v>8</v>
@@ -8053,30 +8503,33 @@
         <v>2023</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G144" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H144" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I144" t="s">
-        <v>653</v>
+        <v>564</v>
       </c>
       <c r="J144" t="s">
-        <v>856</v>
+        <v>660</v>
       </c>
       <c r="K144" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>863</v>
+      </c>
+      <c r="L144" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="2">
         <v>45177</v>
       </c>
       <c r="B145" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C145">
         <v>8</v>
@@ -8088,30 +8541,33 @@
         <v>2023</v>
       </c>
       <c r="F145" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G145" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H145" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I145" t="s">
-        <v>694</v>
+        <v>560</v>
       </c>
       <c r="J145" t="s">
-        <v>857</v>
+        <v>701</v>
       </c>
       <c r="K145" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>864</v>
+      </c>
+      <c r="L145" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="2">
         <v>45177</v>
       </c>
       <c r="B146" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C146">
         <v>8</v>
@@ -8123,30 +8579,33 @@
         <v>2023</v>
       </c>
       <c r="F146" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G146" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H146" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I146" t="s">
-        <v>695</v>
+        <v>562</v>
       </c>
       <c r="J146" t="s">
-        <v>858</v>
+        <v>702</v>
       </c>
       <c r="K146" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>865</v>
+      </c>
+      <c r="L146" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="2">
         <v>45178</v>
       </c>
       <c r="B147" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C147">
         <v>9</v>
@@ -8158,30 +8617,33 @@
         <v>2023</v>
       </c>
       <c r="F147" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G147" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H147" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I147" t="s">
-        <v>696</v>
+        <v>559</v>
       </c>
       <c r="J147" t="s">
-        <v>859</v>
+        <v>703</v>
       </c>
       <c r="K147" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>866</v>
+      </c>
+      <c r="L147" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="2">
         <v>45182</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C148">
         <v>13</v>
@@ -8193,30 +8655,33 @@
         <v>2023</v>
       </c>
       <c r="F148" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G148" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H148" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I148" t="s">
-        <v>697</v>
+        <v>562</v>
       </c>
       <c r="J148" t="s">
-        <v>860</v>
+        <v>704</v>
       </c>
       <c r="K148" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>867</v>
+      </c>
+      <c r="L148" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="2">
         <v>45183</v>
       </c>
       <c r="B149" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C149">
         <v>14</v>
@@ -8228,30 +8693,33 @@
         <v>2023</v>
       </c>
       <c r="F149" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G149" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H149" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I149" t="s">
-        <v>698</v>
+        <v>564</v>
       </c>
       <c r="J149" t="s">
-        <v>861</v>
+        <v>705</v>
       </c>
       <c r="K149" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+        <v>868</v>
+      </c>
+      <c r="L149" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="2">
         <v>45186</v>
       </c>
       <c r="B150" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C150">
         <v>17</v>
@@ -8263,30 +8731,33 @@
         <v>2023</v>
       </c>
       <c r="F150" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G150" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H150" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I150" t="s">
-        <v>699</v>
+        <v>562</v>
       </c>
       <c r="J150" t="s">
-        <v>862</v>
+        <v>706</v>
       </c>
       <c r="K150" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+        <v>869</v>
+      </c>
+      <c r="L150" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="2">
         <v>45187</v>
       </c>
       <c r="B151" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C151">
         <v>18</v>
@@ -8298,30 +8769,33 @@
         <v>2023</v>
       </c>
       <c r="F151" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G151" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H151" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I151" t="s">
-        <v>700</v>
+        <v>561</v>
       </c>
       <c r="J151" t="s">
-        <v>863</v>
+        <v>707</v>
       </c>
       <c r="K151" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+        <v>870</v>
+      </c>
+      <c r="L151" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="2">
         <v>45187</v>
       </c>
       <c r="B152" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C152">
         <v>18</v>
@@ -8333,30 +8807,33 @@
         <v>2023</v>
       </c>
       <c r="F152" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G152" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H152" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I152" t="s">
-        <v>701</v>
+        <v>560</v>
       </c>
       <c r="J152" t="s">
-        <v>864</v>
+        <v>708</v>
       </c>
       <c r="K152" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+        <v>871</v>
+      </c>
+      <c r="L152" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" s="2">
         <v>45187</v>
       </c>
       <c r="B153" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C153">
         <v>18</v>
@@ -8368,30 +8845,33 @@
         <v>2023</v>
       </c>
       <c r="F153" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G153" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H153" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I153" t="s">
-        <v>702</v>
+        <v>561</v>
       </c>
       <c r="J153" t="s">
-        <v>865</v>
+        <v>709</v>
       </c>
       <c r="K153" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+        <v>872</v>
+      </c>
+      <c r="L153" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" s="2">
         <v>45187</v>
       </c>
       <c r="B154" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C154">
         <v>18</v>
@@ -8403,21 +8883,24 @@
         <v>2023</v>
       </c>
       <c r="F154" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G154" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H154" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+        <v>555</v>
+      </c>
+      <c r="I154" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" s="2">
         <v>45187</v>
       </c>
       <c r="B155" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C155">
         <v>18</v>
@@ -8429,30 +8912,33 @@
         <v>2023</v>
       </c>
       <c r="F155" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G155" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H155" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I155" t="s">
-        <v>703</v>
+        <v>562</v>
       </c>
       <c r="J155" t="s">
-        <v>866</v>
+        <v>710</v>
       </c>
       <c r="K155" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+        <v>873</v>
+      </c>
+      <c r="L155" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" s="2">
         <v>45188</v>
       </c>
       <c r="B156" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C156">
         <v>19</v>
@@ -8464,30 +8950,33 @@
         <v>2023</v>
       </c>
       <c r="F156" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G156" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H156" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I156" t="s">
-        <v>704</v>
+        <v>562</v>
       </c>
       <c r="J156" t="s">
-        <v>867</v>
+        <v>711</v>
       </c>
       <c r="K156" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
+        <v>874</v>
+      </c>
+      <c r="L156" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" s="2">
         <v>45189</v>
       </c>
       <c r="B157" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C157">
         <v>20</v>
@@ -8499,30 +8988,33 @@
         <v>2023</v>
       </c>
       <c r="F157" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G157" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H157" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I157" t="s">
-        <v>705</v>
+        <v>562</v>
       </c>
       <c r="J157" t="s">
-        <v>868</v>
+        <v>712</v>
       </c>
       <c r="K157" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
+        <v>875</v>
+      </c>
+      <c r="L157" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" s="2">
         <v>45190</v>
       </c>
       <c r="B158" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C158">
         <v>21</v>
@@ -8534,30 +9026,33 @@
         <v>2023</v>
       </c>
       <c r="F158" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G158" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H158" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I158" t="s">
-        <v>706</v>
+        <v>562</v>
       </c>
       <c r="J158" t="s">
-        <v>869</v>
+        <v>713</v>
       </c>
       <c r="K158" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
+        <v>876</v>
+      </c>
+      <c r="L158" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="2">
         <v>45191</v>
       </c>
       <c r="B159" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C159">
         <v>22</v>
@@ -8569,30 +9064,33 @@
         <v>2023</v>
       </c>
       <c r="F159" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G159" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H159" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I159" t="s">
-        <v>707</v>
+        <v>562</v>
       </c>
       <c r="J159" t="s">
-        <v>870</v>
+        <v>714</v>
       </c>
       <c r="K159" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
+        <v>877</v>
+      </c>
+      <c r="L159" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="2">
         <v>45191</v>
       </c>
       <c r="B160" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C160">
         <v>22</v>
@@ -8604,30 +9102,33 @@
         <v>2023</v>
       </c>
       <c r="F160" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G160" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H160" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I160" t="s">
-        <v>708</v>
+        <v>559</v>
       </c>
       <c r="J160" t="s">
-        <v>871</v>
+        <v>715</v>
       </c>
       <c r="K160" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
+        <v>878</v>
+      </c>
+      <c r="L160" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" s="2">
         <v>45192</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C161">
         <v>23</v>
@@ -8639,30 +9140,33 @@
         <v>2023</v>
       </c>
       <c r="F161" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G161" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H161" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I161" t="s">
-        <v>709</v>
+        <v>559</v>
       </c>
       <c r="J161" t="s">
-        <v>872</v>
+        <v>716</v>
       </c>
       <c r="K161" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
+        <v>879</v>
+      </c>
+      <c r="L161" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" s="2">
         <v>45194</v>
       </c>
       <c r="B162" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C162">
         <v>25</v>
@@ -8674,30 +9178,33 @@
         <v>2023</v>
       </c>
       <c r="F162" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G162" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H162" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I162" t="s">
-        <v>710</v>
+        <v>559</v>
       </c>
       <c r="J162" t="s">
-        <v>873</v>
+        <v>717</v>
       </c>
       <c r="K162" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
+        <v>880</v>
+      </c>
+      <c r="L162" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" s="2">
         <v>45196</v>
       </c>
       <c r="B163" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C163">
         <v>27</v>
@@ -8709,30 +9216,33 @@
         <v>2023</v>
       </c>
       <c r="F163" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G163" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H163" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I163" t="s">
-        <v>711</v>
+        <v>562</v>
       </c>
       <c r="J163" t="s">
-        <v>874</v>
+        <v>718</v>
       </c>
       <c r="K163" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
+        <v>881</v>
+      </c>
+      <c r="L163" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" s="2">
         <v>45196</v>
       </c>
       <c r="B164" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C164">
         <v>27</v>
@@ -8744,30 +9254,33 @@
         <v>2023</v>
       </c>
       <c r="F164" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G164" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H164" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I164" t="s">
-        <v>712</v>
+        <v>559</v>
       </c>
       <c r="J164" t="s">
-        <v>875</v>
+        <v>719</v>
       </c>
       <c r="K164" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
+        <v>882</v>
+      </c>
+      <c r="L164" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" s="2">
         <v>45198</v>
       </c>
       <c r="B165" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C165">
         <v>29</v>
@@ -8779,30 +9292,33 @@
         <v>2023</v>
       </c>
       <c r="F165" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G165" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H165" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I165" t="s">
-        <v>713</v>
+        <v>562</v>
       </c>
       <c r="J165" t="s">
-        <v>876</v>
+        <v>720</v>
       </c>
       <c r="K165" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
+        <v>883</v>
+      </c>
+      <c r="L165" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" s="2">
         <v>45199</v>
       </c>
       <c r="B166" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C166">
         <v>30</v>
@@ -8814,30 +9330,33 @@
         <v>2023</v>
       </c>
       <c r="F166" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G166" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H166" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I166" t="s">
-        <v>714</v>
+        <v>561</v>
       </c>
       <c r="J166" t="s">
-        <v>877</v>
+        <v>721</v>
       </c>
       <c r="K166" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
+        <v>884</v>
+      </c>
+      <c r="L166" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="2">
         <v>45200</v>
       </c>
       <c r="B167" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -8849,30 +9368,33 @@
         <v>2023</v>
       </c>
       <c r="F167" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G167" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H167" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I167" t="s">
-        <v>715</v>
+        <v>561</v>
       </c>
       <c r="J167" t="s">
-        <v>878</v>
+        <v>722</v>
       </c>
       <c r="K167" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
+        <v>885</v>
+      </c>
+      <c r="L167" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="2">
         <v>45200</v>
       </c>
       <c r="B168" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -8884,27 +9406,30 @@
         <v>2023</v>
       </c>
       <c r="F168" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G168" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H168" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I168" t="s">
-        <v>716</v>
+        <v>562</v>
       </c>
       <c r="J168" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
+        <v>723</v>
+      </c>
+      <c r="K168" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" s="2">
         <v>45201</v>
       </c>
       <c r="B169" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -8916,30 +9441,33 @@
         <v>2023</v>
       </c>
       <c r="F169" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G169" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H169" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I169" t="s">
-        <v>717</v>
+        <v>562</v>
       </c>
       <c r="J169" t="s">
-        <v>880</v>
+        <v>724</v>
       </c>
       <c r="K169" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
+        <v>887</v>
+      </c>
+      <c r="L169" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="2">
         <v>45204</v>
       </c>
       <c r="B170" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C170">
         <v>5</v>
@@ -8951,30 +9479,33 @@
         <v>2023</v>
       </c>
       <c r="F170" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G170" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H170" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I170" t="s">
-        <v>718</v>
+        <v>562</v>
       </c>
       <c r="J170" t="s">
-        <v>881</v>
+        <v>725</v>
       </c>
       <c r="K170" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
+        <v>888</v>
+      </c>
+      <c r="L170" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="2">
         <v>45204</v>
       </c>
       <c r="B171" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C171">
         <v>5</v>
@@ -8986,30 +9517,33 @@
         <v>2023</v>
       </c>
       <c r="F171" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G171" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H171" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I171" t="s">
-        <v>719</v>
+        <v>559</v>
       </c>
       <c r="J171" t="s">
-        <v>882</v>
+        <v>726</v>
       </c>
       <c r="K171" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
+        <v>889</v>
+      </c>
+      <c r="L171" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" s="2">
         <v>45206</v>
       </c>
       <c r="B172" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C172">
         <v>7</v>
@@ -9021,30 +9555,33 @@
         <v>2023</v>
       </c>
       <c r="F172" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G172" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H172" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I172" t="s">
-        <v>720</v>
+        <v>564</v>
       </c>
       <c r="J172" t="s">
-        <v>547</v>
+        <v>727</v>
       </c>
       <c r="K172" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
+        <v>548</v>
+      </c>
+      <c r="L172" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" s="2">
         <v>45212</v>
       </c>
       <c r="B173" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C173">
         <v>13</v>
@@ -9056,30 +9593,33 @@
         <v>2023</v>
       </c>
       <c r="F173" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G173" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H173" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I173" t="s">
-        <v>721</v>
+        <v>559</v>
       </c>
       <c r="J173" t="s">
-        <v>883</v>
+        <v>728</v>
       </c>
       <c r="K173" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
+        <v>890</v>
+      </c>
+      <c r="L173" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" s="2">
         <v>45216</v>
       </c>
       <c r="B174" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C174">
         <v>17</v>
@@ -9091,30 +9631,33 @@
         <v>2023</v>
       </c>
       <c r="F174" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G174" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H174" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I174" t="s">
-        <v>722</v>
+        <v>564</v>
       </c>
       <c r="J174" t="s">
-        <v>884</v>
+        <v>729</v>
       </c>
       <c r="K174" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
+        <v>891</v>
+      </c>
+      <c r="L174" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" s="2">
         <v>45230</v>
       </c>
       <c r="B175" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C175">
         <v>31</v>
@@ -9126,30 +9669,33 @@
         <v>2023</v>
       </c>
       <c r="F175" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G175" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H175" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I175" t="s">
-        <v>660</v>
+        <v>560</v>
       </c>
       <c r="J175" t="s">
-        <v>885</v>
+        <v>667</v>
       </c>
       <c r="K175" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
+        <v>892</v>
+      </c>
+      <c r="L175" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" s="2">
         <v>45246</v>
       </c>
       <c r="B176" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C176">
         <v>16</v>
@@ -9161,166 +9707,223 @@
         <v>2023</v>
       </c>
       <c r="F176" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G176" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H176" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I176" t="s">
-        <v>723</v>
+        <v>564</v>
       </c>
       <c r="J176" t="s">
-        <v>886</v>
+        <v>730</v>
       </c>
       <c r="K176" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="177" spans="6:8">
+        <v>893</v>
+      </c>
+      <c r="L176" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="177" spans="6:9">
       <c r="F177" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H177" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="178" spans="6:8">
+        <v>553</v>
+      </c>
+      <c r="I177" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="178" spans="6:9">
       <c r="F178" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H178" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="179" spans="6:8">
+        <v>553</v>
+      </c>
+      <c r="I178" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="179" spans="6:9">
       <c r="F179" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H179" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="180" spans="6:8">
+        <v>553</v>
+      </c>
+      <c r="I179" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="180" spans="6:9">
       <c r="F180" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H180" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="181" spans="6:8">
+        <v>553</v>
+      </c>
+      <c r="I180" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="181" spans="6:9">
       <c r="F181" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H181" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="182" spans="6:8">
+        <v>553</v>
+      </c>
+      <c r="I181" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="182" spans="6:9">
       <c r="F182" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H182" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="183" spans="6:8">
+        <v>553</v>
+      </c>
+      <c r="I182" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="183" spans="6:9">
       <c r="F183" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H183" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="184" spans="6:8">
+        <v>553</v>
+      </c>
+      <c r="I183" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="184" spans="6:9">
       <c r="F184" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H184" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="185" spans="6:8">
+        <v>553</v>
+      </c>
+      <c r="I184" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="185" spans="6:9">
       <c r="F185" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H185" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="186" spans="6:8">
+        <v>553</v>
+      </c>
+      <c r="I185" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="186" spans="6:9">
       <c r="F186" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H186" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="187" spans="6:8">
+        <v>553</v>
+      </c>
+      <c r="I186" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="187" spans="6:9">
       <c r="F187" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H187" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="188" spans="6:8">
+        <v>553</v>
+      </c>
+      <c r="I187" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="188" spans="6:9">
       <c r="F188" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H188" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="189" spans="6:8">
+        <v>553</v>
+      </c>
+      <c r="I188" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="189" spans="6:9">
       <c r="F189" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H189" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="190" spans="6:8">
+        <v>553</v>
+      </c>
+      <c r="I189" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="190" spans="6:9">
       <c r="F190" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H190" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="191" spans="6:8">
+        <v>553</v>
+      </c>
+      <c r="I190" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="191" spans="6:9">
       <c r="F191" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H191" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="192" spans="6:8">
+        <v>553</v>
+      </c>
+      <c r="I191" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="192" spans="6:9">
       <c r="F192" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H192" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="193" spans="6:8">
+        <v>553</v>
+      </c>
+      <c r="I192" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="193" spans="6:9">
       <c r="F193" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H193" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="194" spans="6:8">
+        <v>553</v>
+      </c>
+      <c r="I193" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="194" spans="6:9">
       <c r="F194" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H194" t="s">
-        <v>552</v>
+        <v>553</v>
+      </c>
+      <c r="I194" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/Pipeline/2023-edited-hiyam-2025-eventdescen-added.xlsx
+++ b/Pipeline/2023-edited-hiyam-2025-eventdescen-added.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\96171\Desktop\sectarian-speech-detection\Pipeline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5C617A-B680-4161-BB17-7F5169DB750D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="903">
   <si>
     <t>date</t>
   </si>
@@ -1155,43 +1161,19 @@
     <t>خط أحمرجان قهوجي يوسف فنيانوس  غسان عويدات</t>
   </si>
   <si>
-    <t>Mufti Drian: Siniora red line</t>
-  </si>
-  <si>
     <t>Official sources close to the Prime Minister revealed to the "Al -Ahed" news site that when the Social Aid Committee in the government began collecting "Data" for the poorest families in Lebanon, to distribute the financial aid allocated to them, the concerned persons were surprised that there are no complete regulations in the Ministry of Social Affairs to monitor this group of Lebanese. This "scandal" was a tip of the extent of the successive practices of the ministries in wasting public money, as the same sources revealed that in the Ministry of Social Affairs in a successive government, the "IT" system was placed to conduct a survey of poor families in Lebanon, cost $ 7 million, but the irony was that the listed regulations were "booby -trapped" with the names of 100 thousand political beneficiaries, according to President Diab, as well as the names of customers of the enemy, They are required for justice, deceased, "facilitator" citizens, owners of property, land, and employees in the public sector. The regulations, according to government sources, were "political inconsistencies" aimed at achieving electoral interests.</t>
   </si>
   <si>
-    <t>The happiest Dergham for "Al -Nashra": A Berri team links the upgrade of the 94th session officers with the file of forest guards</t>
-  </si>
-  <si>
-    <t>Each time the talk of Riyad Salama is being talked about, the Maronite Patriarch Bishara Al -Ra’i comes out to be the first line of Salama. In the eyes of Al -Batrak, and in the eyes of the political system, the safety of a partner cannot be dispensed with, whatever happens</t>
-  </si>
-  <si>
     <t>The Judges Club emphasizes the rights of depositors with their deposits</t>
   </si>
   <si>
     <t>A member of the "Development and Liberation" bloc, MP Mohamed Khawaja, saw in a statement that "the competition law is one of the mothers of reform laws aimed at liberalizing the market and the consumer from the greed of the owners of exclusive agencies and carpets protected in the Legislative Decree 34/67. The exclusive is the key to monopolizing and controlling goods and their prices that are sold at twice the price of importing them. Observement, about hundreds of millions of dollars annually.</t>
-  </si>
-  <si>
-    <t>Finance Minister Youssef Khalil did not sign the decree of the Court of Cassation formations, which is a political position to keep the General Authority of the Court of Cassation idle and its inability to decide on the appeals submitted to complete the investigation with the accused Ali Hassan Khalil and Ayz Zuaiter.</t>
-  </si>
-  <si>
-    <t>The Minister of Public Works and Transport, Ali Hamiya Bayan, was issued in which he said: “After the custom in the Council of Ministers was used, to issue decrees against the ministers to install them in their work that they were practicing, and for this, the government decided to give the appointment decree at the Lebanese University.” He added: “However, after the uproar that was raised, a sense of responsibility, and cut off any false proposals or assumptions that some people fired and launched, today I went to the Prime Minister, to ask him that I and the desire of me to retract the above decision.”</t>
   </si>
   <si>
     <t>Lebanon: Protecting minors from early marriage in the drawers of the House of Representatives
 A 14 -year -old girl committed suicide and a demand to amend the laws that are in the parliament</t>
   </si>
   <si>
-    <t>"The Soldiers of the Lord" remove gay science in Sassine Square</t>
-  </si>
-  <si>
-    <t>"I was calling him to our father." Mansour Labaki victims are talking</t>
-  </si>
-  <si>
-    <t>The Judges Club calls for the resignation of Ghassan Awaidat after the coup that he carried out to Judge Bitar</t>
-  </si>
-  <si>
     <t>Lebanese deputies are trying to legislate a unified law for personal status</t>
   </si>
   <si>
@@ -1201,142 +1183,33 @@
     <t>The Syrian displacement is an entity crisis and the international community should stop pressure on Lebanon and remove its external debt</t>
   </si>
   <si>
-    <t>Former Minister of Social Affairs Rahsid derbas Annahar Newspace: Syrian Threat, Potential to Be an army</t>
-  </si>
-  <si>
-    <t>Muhammad Al -Dayikh and Hussein Qawouk (the two main actors), especially in Skic, "Learning the Shiite Language".</t>
-  </si>
-  <si>
-    <t>Tariq Al -Bitar resumes his investigations with the explosion of the port</t>
-  </si>
-  <si>
     <t>Pope Francis: Homosexuality is not a crime, but a human condition, a distinction between homosexuality is a crime, which is considered "unfair", and that a sin that does not cancel the necessity of dealing with homosexuals with dignity and respect</t>
   </si>
   <si>
-    <t>Representatives, judges and lawyers denounce the movements of the Prosecutor, Ghassan Awaidat</t>
-  </si>
-  <si>
-    <t>RTIRED Brigadier General His Jaber Interview with Lebanon on: Threats of the 200000 Trained Syrian Youths</t>
-  </si>
-  <si>
-    <t>The Bank of Lebanon adopts a new exchange rate for the lira against the dollar</t>
-  </si>
-  <si>
-    <t>The anniversary of the assassination of Luqman Salim</t>
-  </si>
-  <si>
     <t>Members of the State Security Demolishing Refgee Tents in Camp 005, Expelling Families</t>
   </si>
   <si>
-    <t>The memory of Hariri's assassination</t>
-  </si>
-  <si>
-    <t>Banks in Lebanon: Mondon burns banks in Beirut during angry protests to prevent them from withdrawing their savings</t>
-  </si>
-  <si>
-    <t>The coalition for accounting asked the Minister of Finance to provide him with information about the stages of implementing the criminal audit contract signed with Alvarez &amp; Marshall</t>
-  </si>
-  <si>
-    <t>The DePuty in the Parliant Ghassan Skaf Interview with Al-Jadeed: Syrian Displayment Resembling Time Bombs</t>
-  </si>
-  <si>
     <t>Among them is embezzlement and money laundering .. The governor of the Bank of Lebanon denies the accusations against him</t>
   </si>
   <si>
-    <t>Rima - Farhat was killed by her husband and her 4 -year -old child</t>
-  </si>
-  <si>
-    <t>#The laws of the personal status of the sectarianism of the husband of Mona Al -Homsi, killing her after she kept him a husband with coercion despite all the evidence she presented to demonstrate his brutality and that it poses a great danger to her life ...
-Mona tried to avoid the fate she met, resorting to the law to protect herself. However, Al -Homsi's attempts to survive collided with personal status laws that are not fair to the violent woman,</t>
-  </si>
-  <si>
     <t>Lebanon crisis: a decision to pricing goods and foodstuffs in dollars at the request of merchants</t>
   </si>
   <si>
-    <t>Nawaf Salam, we find that the work of the sectarian base was not limited to maintaining equivalents in the functions of the first category alone, but, on the contrary, withdraws on all categories of management until the lowest ranks in it, leading to the employment of embarrassment guards. Also, many public jobs, and not only those belonging to the first category, that in the administration, the diplomatic corps, the judiciary, or the army, and the security services, it has also become dedicated to the people of a sect and not others, such as allocating the positions of the consuls or advisors, not to the ambassadors, to the people of specific doctrines in most cities and countries, also unlike the text of Article 95, and finally the third face to violate this article in practice in practice It is in the sovereignty of sectarian and favorite affiliation when appointing in the administration, contrary to what came twice in this period of the necessity of adhering to the principles of "jurisdiction and competence".</t>
-  </si>
-  <si>
     <t>Hezbollah announces its support for the arrival of Suleiman Franjieh to the presidency in Lebanon</t>
   </si>
   <si>
-    <t>Lebanon's banks enter an open strike from Tuesday</t>
-  </si>
-  <si>
-    <t>Nidal Al Ahmadiyye Interview with Al Jadeed: Icecream Shop Boycott Due to Employing Syrians Over Lebanese</t>
-  </si>
-  <si>
-    <t>The judiciary officially claims the governor of the Central Bank, Riyad Salama, amid the currency decline</t>
-  </si>
-  <si>
     <t>After being imprisoned at home and prevented her from going to school, the girl, Nour Mohamed Al -Khalaf, had hanged herself, according to the investigations. Amidst the laws of sectarian personal status that give the father the house of house for the children and the authority gives him the authority to control their fate and their options. The sixteen daughter did not find an escape to escape the violence that she is exposed to except by killing herself.</t>
   </si>
   <si>
-    <t>Information reveals for the first time the "airport deal", the smell of corruption and Mikati!</t>
-  </si>
-  <si>
-    <t>Gebran Bassil Tweet: Lebanese IDENTITITY Being a Threat Due to the Syrian Displayment Issue</t>
-  </si>
-  <si>
-    <t>After the decision taken by the MTV channel and the LBC and recently the OTV that it will not abide by the decision of Prime Minister Najib Mikati to postpone the presentation of the hour, Sheikh Hassan Merheb tweeted, calling on Muslims to boycott these channels because of its sectarian style according to his consideration.</t>
-  </si>
-  <si>
-    <t>Zainab Zuaiter was killed by her husband, Hassan Zuaiter, who is twenty -six years old</t>
-  </si>
-  <si>
-    <t>A diet that pulls the "obligation deal" at the airport</t>
-  </si>
-  <si>
-    <t>Two hosts accuse Saad Hariri of scratching and rape</t>
-  </si>
-  <si>
-    <t>Lawyer Captain Nader Kasbar sponsored the festivals of the Homophobia at the Lawyer's house, last Wednesday, providing the book "Crime of Homosexuality" by Attorney Salman Barakat.</t>
-  </si>
-  <si>
     <t>The municipal elections are postponed</t>
   </si>
   <si>
-    <t>A document accuses Ghassan Awaidat ... "illegal enrichment and transfers abroad"</t>
-  </si>
-  <si>
-    <t>After monitoring "here Lebanon", children swim in the Samir Kassir Park .. "The municipality" finds the solution and empties the blessing from the water</t>
-  </si>
-  <si>
-    <t>She killed #Farlin_Capuyan at the hands of her husband</t>
-  </si>
-  <si>
-    <t>Syrian Refgee Attacks Municipal Policeman in Al Qayaa</t>
-  </si>
-  <si>
     <t>Lebanon: Official decisions strictly against Syrian refugees</t>
   </si>
   <si>
-    <t>Abdullahian at the end of his visit to Lebanon: We support the consensus to elect a president</t>
-  </si>
-  <si>
-    <t>A demonstration not for the sponsorship system</t>
-  </si>
-  <si>
-    <t>Gibran Bassil: The survival of the Syrian refugees in Lebanon will change the demographic fabric</t>
-  </si>
-  <si>
-    <t>The Disciplinary Council of Judges decides to dismiss Judge Ghada Aoun from service</t>
-  </si>
-  <si>
     <t>May 7 anniversary</t>
   </si>
   <si>
-    <t>Abdullah Bou Habib (Minister of Foreign Affairs): Discusses Syrian Refgee Threats in An Interview with Al-Jadeed TV</t>
-  </si>
-  <si>
-    <t>A boy shoots his pregnant daughter in Tripoli</t>
-  </si>
-  <si>
-    <t>Sidon May</t>
-  </si>
-  <si>
-    <t>The Maronite Patriach Statement: Syrania Refgeees Becoming An Increased Threat to our Country.</t>
-  </si>
-  <si>
     <t>France issues an international arrest warrant against the Governor of the Bank of Lebanon</t>
   </si>
   <si>
@@ -1346,207 +1219,30 @@
     <t>Minister of Interior: Homosexuality is a calamity and anger from the Lord</t>
   </si>
   <si>
-    <t>Gibran Bassil: The continued presence of Syrian refugees means the demise of Lebanon</t>
-  </si>
-  <si>
     <t>Editorial Day</t>
   </si>
   <si>
-    <t>He killed her several times by car after being torturing her with shaving blades. This is how Mrs. Rajia Al -Akoum was killed</t>
-  </si>
-  <si>
     <t>The United Nations suspends American aid to Syrian refugees</t>
   </si>
   <si>
-    <t>The Lebanese district accuses 5 people of killing an Irish soldier in the UNIFIL forces</t>
-  </si>
-  <si>
-    <t>Selim Al-Sayegh Interview with "Voice of Lebanon": Talk About Hosting Syrian Refugees.</t>
-  </si>
-  <si>
-    <t>The anniversary of the assassination of Samir Kassir</t>
-  </si>
-  <si>
-    <t>The Lebanese opposition is nominating Azour as president in light of the insistence of "Amal" and "Hezbollah" on Franjieh</t>
-  </si>
-  <si>
-    <t>The French judiciary seizes the property of Riyad Salama and his companions for the benefit of the Lebanese state</t>
-  </si>
-  <si>
-    <t>The Kuwaiti media prevented Fajr Al -Saeed from entering Lebanon .. What are the reasons?</t>
-  </si>
-  <si>
-    <t>9 gunshots claimed the lives</t>
-  </si>
-  <si>
-    <t>Mikati office: There is no extension of the ruler of the Bank of Lebanon in his position</t>
-  </si>
-  <si>
-    <t>News from the "Islamic Cultural Center" to solve the "Dream" association</t>
-  </si>
-  <si>
     <t>Lebanon: canceling the intermediate certificate exams for this year</t>
   </si>
   <si>
-    <t>Vox refrains from screening Spiderman to show phrases in support of the M and Ain community in it</t>
-  </si>
-  <si>
-    <t>George Atallah: A group of homosexuals, a paid, possibly behind demonic plans to strike values, morals and family, claims to be a society that fights and all its goal is to legislate vice.</t>
-  </si>
-  <si>
-    <t>The Loyalty Bloc for Resistance: Marketing for Western and Behavioral Western Waste, such as pornography and homosexuality, and what is like this is a dangerous matter that threatens Lebanese society.</t>
-  </si>
-  <si>
-    <t>Mayor of Qaa Basir Matar: State to Annahar Newspaper About Syrians and their Production of WASTE.</t>
-  </si>
-  <si>
-    <t>The election of Timor Jumblatt to succeed his father in the presidency of the Socialist Party</t>
-  </si>
-  <si>
-    <t>The crime of Adisa in Lebanon was killed</t>
-  </si>
-  <si>
-    <t>Human crime</t>
-  </si>
-  <si>
     <t>Gardreve nursery</t>
   </si>
   <si>
-    <t>A number of deputies, including Mark Dou, submitted a law to prevent homosexuality.</t>
-  </si>
-  <si>
-    <t>Mai Shadiac alcohol</t>
-  </si>
-  <si>
-    <t>Displacement Minister Issam Sharaf Al -Din for the refugees</t>
-  </si>
-  <si>
-    <t>MP Salim Al-Sayegh Interview with otv: Discussing Syranan Prestnce</t>
-  </si>
-  <si>
-    <t>Ahmad Qablan: The promotion of homosexuality is a war and hostile to nature, the core of our ethics, and any grace or silence about promoting this heinous and obscene act in Lebanon is a great betrayal of the human type.</t>
-  </si>
-  <si>
-    <t>Hassan Nasrallah: To boycott the goods that carry the colors of homosexuality</t>
-  </si>
-  <si>
     <t>The government of Lebanon fails to hold a meeting to choose a successor to the head of the Central Bank</t>
   </si>
   <si>
-    <t>Speaking flags at the Faria Festival</t>
-  </si>
-  <si>
-    <t>PAIN D’Or Sweet Cold Pieces that include the colors of the rainbow supporting the M.</t>
-  </si>
-  <si>
-    <t>Hassan Nasrallah: The penalty for "sodomy" is killing</t>
-  </si>
-  <si>
-    <t>Jamil Al -Sayyid: Homosexuality is a case that contradicts the human nature and animal, limited to mentioning and the female who of them continues human life, and everything outside them is anomalous or gay they want today to impose on societies as a reality.</t>
-  </si>
-  <si>
-    <t>Sweet Ain clashes</t>
-  </si>
-  <si>
-    <t>Wassim Mansouri receives the duties of the governor of Lebanon, proxy</t>
-  </si>
-  <si>
     <t>Friends of the Public School Association: Merging Syrian students with Lebanese students negatively affects official education</t>
   </si>
   <si>
-    <t>Al -Khatib on the receipt of Al -Mansouri, the ruler of the Bank of Lebanon: The Shiites may not be charged with any financial repercussions or collapses</t>
-  </si>
-  <si>
-    <t>Elias I limited me a murder</t>
-  </si>
-  <si>
-    <t>Lebanon commemorates the disaster of the port's explosion and marches demanding that those responsible be held accountable</t>
-  </si>
-  <si>
-    <t>The "Marsa" office in a hospital in Tripoli was stormed by "Harefat Al -Fadila"</t>
-  </si>
-  <si>
-    <t>A sudden decision that the Criminal Court acquitted Al -Habr of Al -Qushaji killing Rana with the eyes of the crime of women 2019</t>
-  </si>
-  <si>
-    <t>Representative Asaad Dergham (stream and free) the displaced Syrians in every village who resemble the Palestinian camps</t>
-  </si>
-  <si>
     <t>A ministerial meeting in Al -Diman affirming "values" and "ethics"</t>
   </si>
   <si>
-    <t>Diselive incident</t>
-  </si>
-  <si>
-    <t>Lamdddi to prevent the screening of the movie "Barbie" in the country because of his promotion of homosexuality and its conflict with religious values.</t>
-  </si>
-  <si>
-    <t>Abdo or Kassem: Homosexuality is against chastity, against nature and major sins, and what is required is one, to understand the homosexuals that their inclinations are abnormal and the church against the abolition of the constitutional article that criminalizes homosexuality.</t>
-  </si>
-  <si>
-    <t>America, Britain and Canada impose sanctions on the former governor of Lebanon, Riyad Salama</t>
-  </si>
-  <si>
-    <t>Representative Ibrahim Munimna revealed a scandal that was represented in bringing air observers from abroad to mobilize vacancy at the martyr Rafic Hariri International Airport, while there is a group of Lebanese successful successors of the category of air observer that was not appointed as a result of the lack of agreement on sectarian quotas.</t>
-  </si>
-  <si>
-    <t>The Speaker of the House of Representatives, Nabih Berri and the government, Naguib Mikati, received the initial report of criminal accounting auditing in the budgets of the Central Bank of Lebanon</t>
-  </si>
-  <si>
-    <t>The anniversary of the July war</t>
-  </si>
-  <si>
-    <t>Former Minister Rashid Derbas reminds him of previous statements: If the refugees themselves socially, politically and militarily, they are disturbing, frightening and dangerous.</t>
-  </si>
-  <si>
-    <t>Khawaja: The biggest danger facing Lebanon is the Syrian displacement</t>
-  </si>
-  <si>
-    <t>Cesar Al -Maalouf: The people of Zahle hold on the issue and refuse the West's attempt to market "human animals" by imposing homosexuality and turning a person into a dog</t>
-  </si>
-  <si>
-    <t>Al -Murtada proposes a law to "combat homosexual promotion"</t>
-  </si>
-  <si>
-    <t>Lebanon without electricity due to the stopping of two generations for material reasons</t>
-  </si>
-  <si>
-    <t>Nine deputies refuse to criminalize homosexuals through the proposal of a law ... Abd al -Christ withdrew, and my opinion responds!</t>
-  </si>
-  <si>
-    <t>Ashraf Rifi is submitting a draft law to criminalize homosexuality and criminalize promotion</t>
-  </si>
-  <si>
     <t>Lebanese University students refuse to increase the fees: “The budget is not one of our pockets”</t>
   </si>
   <si>
-    <t>A body within the Supreme Islamic Shiite Council issues a statement in which it defines 15 preachers, including Sheikh Yasser Odeh, and describes them as not qualified to provide religious guidance</t>
-  </si>
-  <si>
-    <t>Basil: They are trying to dismantle this family by imposing methods of manipulation of human nature and changing them from what the Creator created.</t>
-  </si>
-  <si>
-    <t>Nabih Berri: Was the chairman of the council had to include the last agenda of the Homosexuality Legislation Law in order to complete the session? Our values system as our land and our offer and our religion are a red line</t>
-  </si>
-  <si>
-    <t>Fadlallah received from Reda Reda a copy of his scientific research on homosexuality: to educate society and fortify it in front of intellectual and moral deviations</t>
-  </si>
-  <si>
-    <t>The assistant general assistant of the Fatwa House, Sheikh Hassan Merheb, issued a fatwa that “the boycott of the MTV channel is a legal, societal and moral duty that Satan followed them and the dollar was caught by it.”</t>
-  </si>
-  <si>
-    <t>The Minister of Education: withdrawing the game of the ladder and the live from the activities of the summer school because it has to draw a rainbow, to prevent confusion.</t>
-  </si>
-  <si>
-    <t>A delegation from the gathering of Muslim scholars visited the Bishop of Jbeil to talk about the attacks on the heavenly religions and human morals of their values and beliefs by working to spread homosexuality, immoral and atheism, and atheism</t>
-  </si>
-  <si>
-    <t>The soldiers of the Lord: The Gemayzeh rises in the face of moral degradation and expels the demons from its streets, and because it is the land of the Lord and on a basis that you have no place between us, the descendants of the devil.</t>
-  </si>
-  <si>
-    <t>Jounie Pub Draw Christ</t>
-  </si>
-  <si>
     <t>Public Security allows the screening of a Barbie movie</t>
   </si>
   <si>
@@ -1556,129 +1252,12 @@
     <t>The arrest of the comedian Nour Hajjar pending the investigation of "mockery"</t>
   </si>
   <si>
-    <t>The Works Committee is looking at the useful file .. to open this facility tomorrow</t>
-  </si>
-  <si>
-    <t>The Kfour Dandel file in the south and the conflict between the two in the region after the burning of rubber tires</t>
-  </si>
-  <si>
-    <t>Abdullah from Beirut: Lebanese leaders should decide regarding the election of a president for the republic</t>
-  </si>
-  <si>
-    <t>The issuance of the suspicious decision in the case of Lynn Talib</t>
-  </si>
-  <si>
-    <t>Qablan Qablan: The law that criminalizes homosexuality derived from the horror, and if there is a necessity for new legislation, it must be with the aim of tightening the punishment and not to reduce it</t>
-  </si>
-  <si>
-    <t>Edgar Traboulsi: The Gay elections we want to ask each candidate, "You are with the cancellation of Article 534?" He concluded because we did not know what they want. Heidi Alan Group Az Oz, Sadom and Emoura Society.</t>
-  </si>
-  <si>
-    <t>An attack on the MTV "Love is not a crime"</t>
-  </si>
-  <si>
-    <t>Hassan Merheb: A greeting from the heart to the youth of the soldiers, responding to the prevention of an homosexual party in one of the streets of Beirut, not to hand over your right.</t>
-  </si>
-  <si>
-    <t>On September 5, 2023, Representative Bilal Abdullah submitted a proposing a repetitive law that requires the cancellation of Law No. 210 issued on May 26, 2000, according to which the recognized sects in Lebanon were exempted from taxes and fees.</t>
-  </si>
-  <si>
-    <t>Lina Nasser Al -Din killed her husband by poison and burning the body with the master, the town of Al -Basateen</t>
-  </si>
-  <si>
-    <t>Representative Waddah Al -Sadiq: The Syrian displaced affects security, and on works and our daily lives, and the percentage of higher crimes is from the Syrians</t>
-  </si>
-  <si>
-    <t>Activating the file of the file of the martyr René Moawad in Qalayaat</t>
-  </si>
-  <si>
-    <t>Gibran Bassil talks about replacing the Lebanese with other peoples (neighbor and sister) and asylum is considered a being, our duty is to confront it with cruelty and decisive rejection</t>
-  </si>
-  <si>
     <t>The anniversary of the assassination of Bashir Gemayel</t>
   </si>
   <si>
-    <t>Al -Ghobeiri Municipality: Retirees for the confiscation of motorcycles and tuk tuk "unlicensed" led by foreigners</t>
-  </si>
-  <si>
-    <t>Information Minister Ziyad Makari hosted a meeting of a group of gathering calling himself "media and media outlets against homosexuality." And yesterday, Monday, September 18.</t>
-  </si>
-  <si>
-    <t>The rape of a 14 -year -old minor in Lebanon</t>
-  </si>
-  <si>
-    <t>Hakop Trezian: We will not be satisfied with our hands in front of changing the identity of the region under any title that does not take into account the moral values of the region and its people are an example of moral values and culture.</t>
-  </si>
-  <si>
-    <t>Nabil Badr: Instead of what we guide them to the right path, what is equal to us is running and spreading them what God did not legislate.</t>
-  </si>
-  <si>
-    <t>The Maronite Patriarch Bishara Al -Raei: The Syrian displacement represents the largest economic, security, cultural, political and demographic threat</t>
-  </si>
-  <si>
-    <t>The Political Commission in the Free Patriotic Movement: The Syrian displacement reached the highest level of risk</t>
-  </si>
-  <si>
-    <t>Representative Ibrahim Al -Mousawi (Hezbollah), the Refugee Commission, assaults Lebanese sovereignty by issuing a statement of the Syrian refugee</t>
-  </si>
-  <si>
-    <t>Representative Razi Al -Hajj (Forces): The United Nations High Commissioner for Refugees granted state residence testimonies that is "prestigious to law and national sovereignty</t>
-  </si>
-  <si>
-    <t>George Aqis displacement has become an occupation</t>
-  </si>
-  <si>
-    <t>It is reported by the former Minister of Interior and Municipalities Nihad Al -Machnouk, his refusal to hold him responsible for signing a paper with the UNHCR Commission, allowing the displaced Syrians to obtain residency, explaining that this step came at that time as a result of pressure from him by a security official, and he also reports that he will “remain the stake” to refute the accusations against him that he made deals in the Ministry of Interior, and that he has a relationship with a company scandal Incrept, revealing that what Maher Abu Al -Khadoud and Hisham Itani did, from deals and corruption, has nothing to do with it.</t>
-  </si>
-  <si>
-    <t>"Nevada", airport restaurants management: Why is this big difference in offers?</t>
-  </si>
-  <si>
-    <t>The Minister of the Interior gives permission to prosecute Major General Imad Othman</t>
-  </si>
-  <si>
-    <t>Sami Al -Jameel: The spread of the displaced in the villages causes anxiety among the Lebanese and pushes them to despair and immigration</t>
-  </si>
-  <si>
-    <t>Ibrahim Munimneh: “After my presentation of a question by the Minister of Works Ali Dahiya about a number of inquiries based on our review of the Bood Conditions book that was established on one of the Republic’s operators, Wissam Ashour, the owner of the company“ Nevada S.A.L, who is operating to the restaurants and cafeterias of Beirut International Airport.</t>
-  </si>
-  <si>
-    <t>Ali Mortada: The only solution for the displaced and refugees in Lebanon is to open the sea and allow them to migrate to Europe</t>
-  </si>
-  <si>
-    <t>Attacks on the march of freedoms, Riyad Al -Solh. Nasrallah's attack on homosexuals after the attacks on the march of freedoms, Riyad Al -Solh</t>
-  </si>
-  <si>
-    <t>Sheikh_ Hassan_Ma’ab to Halima_Aqaqour, you do not deserve to be a deputy for the Sunnah in #Lebanon, but you are a calamities and calamities on us, and if you do not want to participate in our benefits, you should resign me, so we do not honor your representation for us in Parliament.</t>
-  </si>
-  <si>
-    <t>Baalbek Governor - Hermel Bashir Khadr that "there are 450,000 bids supported by the Syrian displaced."</t>
-  </si>
-  <si>
-    <t>Nasrallah calls for the deportation of refugees to Europe via the sea</t>
-  </si>
-  <si>
-    <t>The events of the Bushra session with the Syrians</t>
-  </si>
-  <si>
-    <t>Justice Minister Henry Khoury referred the weakness of the Judges Club to the judicial inspection, and in this context, Representative Mark Dou considered that "Khoury referred all members of the" Judges Club "to the judicial inspection due to the club's publication in the media and on social media, it is a collective repression and a completion of the policy of mouths and the suppression of freedoms that aim to silence the judges and prevent them from objecting to the abuses that occurred inside the judiciary.</t>
-  </si>
-  <si>
     <t>Al -Aqsa Flood</t>
   </si>
   <si>
-    <t>The Lebanese Judges Club adheres to its right to express, defying the harassment of the Minister of Justice</t>
-  </si>
-  <si>
-    <t>October 17th anniversary</t>
-  </si>
-  <si>
-    <t>Judge Nassar issued a ruling to announce the innocence of Charbel Al -Haber, who is accused of killing his wife, Rana, in Aino</t>
-  </si>
-  <si>
-    <t>A judicial invitation against the Lebanese media, Layal, the choice</t>
-  </si>
-  <si>
     <t>فساد</t>
   </si>
   <si>
@@ -2724,16 +2303,447 @@
   </si>
   <si>
     <t>3 months</t>
+  </si>
+  <si>
+    <t>Assaad Dergham (Strong Lebanon Bloc MP for Akkar Governorate) for "Al -Nashra": A Berri (Nabih Berri is aLebanese politician who has been serving as Speaker of the Parliament of Lebanon since 1992. He heads the Amal Movement and its parliamentary wing, Development and Liberation Bloc) team links the upgrade of the 94th session officers with the file of forest guards</t>
+  </si>
+  <si>
+    <t>Each time the talk of Riyad Salama (former Governor of Bank of Lebanon) is being talked about, the Maronite Patriarch Bishara Al -Raei comes out to be the first line of Salama. In the eyes of the Patriarch, and in the eyes of the political system, the safety of a partner cannot be dispensed with, whatever happens</t>
+  </si>
+  <si>
+    <t>Finance Minister Youssef Khalil did not sign the decree of the Court of Cassation formations, which is a political position to keep the General Authority of the Court of Cassation idle and its inability to decide on the appeals submitted to complete the investigation with the accused Ali Hassan Khalil (former Minister of Finance) and Ghazi Zaiter (Former Minister of Public Works &amp; Transport of Lebanon).</t>
+  </si>
+  <si>
+    <t>The Minister of Public Works and Transport, Ali Hamiyeh, issued a statement in which he said: “After the custom in the Council of Ministers was used, to issue decrees against the ministers to install them in their work that they were practicing, and for this, the government decided to give the appointment decree at the Lebanese University.” He added: “However, after the uproar that was raised, a sense of responsibility, and cut off any false proposals or assumptions that some people fired and launched, today I went to the Prime Minister, to ask him that I and the desire of me to retract the above decision.”</t>
+  </si>
+  <si>
+    <t>Jnoud Al Rab (The Soldiers of the Lord: a Lebanese Christian far-right militia and activist group based in Beirut's Achrafieh district) removes gay flag in Sassine Square</t>
+  </si>
+  <si>
+    <t>"I used to call him Father": Mansour Labaki (A Maronite priest, ordained in Beirut in 1966, author, poet, and composer) victims are talking</t>
+  </si>
+  <si>
+    <t>The Judges Club calls for the resignation of Ghassan Oueidat (Former public prosecutor at the Court of Cassation) after the coup that he carried out to Judge Bitar (Lebanese judge and the head of Beirut’s criminal court, who is the second judge to lead the investigation of the 2020 Beirut Port explosion)</t>
+  </si>
+  <si>
+    <t>Former Minister of Social Affairs Rahsid Derbas to Annahar Newspace: Syrian Threat, potential to be an army</t>
+  </si>
+  <si>
+    <t>As soon as the episode of the program "Come on, Tell Him He's Upset" aired last week on LBCI, many of the episode's viewers, especially those from the interpretive community, were upset by the content presented by Muhammad Al-Dayekh and Hussein Qawuq (the two main actors), in addition to the "Learning the Shiite Language" sketch.</t>
+  </si>
+  <si>
+    <t>Tarek Al -Bitar (Lebanese judge and the head of Beirut’s criminal court, who is the second judge to lead the investigation of the 2020 Beirut Port explosion) resumes his investigations with the explosion of the port</t>
+  </si>
+  <si>
+    <t>Representatives, judges and lawyers denounce the movements of the Prosecutor, Ghassan Oueidat (Former public prosecutor at the Court of Cassation)</t>
+  </si>
+  <si>
+    <t>RTIRED Brigadier General Hisham Jaber Interview with Lebanon on: Threats of the 200000 Trained Syrian Youths</t>
+  </si>
+  <si>
+    <t>The Bank of Lebanon adopts a new exchange rate for the Lira against the Dollar</t>
+  </si>
+  <si>
+    <t>The anniversary of the assassination of Lokman Slim (a Lebanese Shiite publisher, political activist, and commentator. Slim was known to be a prominent critic of Hezbollah (as well as all other sectarian parties). He was found shot to death in his car in Hezbollah-dominated southern Lebanon in 2021)</t>
+  </si>
+  <si>
+    <t>The memory of Rafik Hariri's assassination (Rafik Haririr is a Lebanese businessman and politician who served as prime minister of Lebanon from 1992 to 1998 and again from 2000 to 2004.)</t>
+  </si>
+  <si>
+    <t>Banks in Lebanon: Money depositors burning banks in Beirut during angry protests that are preventing them from withdrawing their savings</t>
+  </si>
+  <si>
+    <t>The coalition for accounting asked the Minister of Finance to provide him with information about the stages of implementing the criminal audit contract signed with Alvarez &amp; Marsal</t>
+  </si>
+  <si>
+    <t>The deputy in the parliament Ghassan Skaf interview with Al-Jadeed: Syrian displacement resembling time bombs</t>
+  </si>
+  <si>
+    <t>Rima Farhat and her 4-year old child were killed by her husband</t>
+  </si>
+  <si>
+    <t>Sectarian personal status laws made it easy for Mona Al-Homsi's husband to kill her after she forced him to remain her husband despite all the evidence she presented proving his brutality and that he posed a grave threat to her life. Mona tried to avoid the fate she met, resorting to the law to protect herself. But Al-Homsi's attempts to escape collided with personal status laws that do not do justice to abused women.</t>
+  </si>
+  <si>
+    <t>Nawaf Salam (is a Lebanese politician, diplomat, jurist and academic who has been serving as the 53rd prime minister of Lebanon since 8 February 2025): we find that the work of the sectarian base was not limited to maintaining equivalents in the functions of the first category alone, but, on the contrary, withdraws on all categories of management until the lowest ranks in it, leading to the employment of embarrassment guards. Also, many public jobs, and not only those belonging to the first category, that in the administration, the diplomatic corps, the judiciary, or the army, and the security services, it has also become dedicated to the people of a sect and not others, such as allocating the positions of the consuls or advisors, not to the ambassadors, to the people of specific doctrines in most cities and countries, also unlike the text of Article 95, and finally the third face to violate this article in practice in practice It is in the sovereignty of sectarian and favorite affiliation when appointing in the administration, contrary to what came twice in this period of the necessity of adhering to the principles of "jurisdiction and competence".</t>
+  </si>
+  <si>
+    <t>Lebanon's banks enter an open strike starting Tuesday</t>
+  </si>
+  <si>
+    <t>Nidal Al Ahmadiyye (A Lebanese journalist and media personality born in Kuwait who currently owns a magazine called Al Jaras.) Interview with Al Jadeed: Icecream Shop Boycott Due to Employing Syrians Over Lebanese</t>
+  </si>
+  <si>
+    <t>The judiciary officially claims the governor of the Central Bank, Riyad Salameh, amid the currency decline</t>
+  </si>
+  <si>
+    <t>Information reveals for the first time the "airport deal", the smell of corruption and Mikati (Lebanese politician and businessman who served as the 52nd prime minister of Lebanon from 2021 to 2025)</t>
+  </si>
+  <si>
+    <t>Gebran Bassil (Lebanese politician who is the leader of the Free Patriotic Movement since 2015 and leader of the Strong Lebanon bloc in the Lebanese parliament since 2018. A Maronite Christian, he is the son-in-law of former president Michel Aoun, and has been his most senior advisor since 2005) Tweet: Lebanese identity being a threat due to the syrian displacement issue</t>
+  </si>
+  <si>
+    <t>After the decision taken by the MTV channel and the LBC and recently the OTV that it will not abide by the decision of Prime Minister Najib Mikati to postpone DayLight Saving Time, Sheikh Hassan Merheb (Sheikh Hassan Merheb is the assistant general inspector of DarAlFatwa - official body for Lebanon's Sunni Muslims - and Imam of the Ali Ben Abi Talib Mosque) tweeted, calling on Muslims to boycott these channels because of its sectarian style according to his consideration.</t>
+  </si>
+  <si>
+    <t>Zainab Zaiter was killed by her husband, Hassan Zaiter, when she was 26 years old.</t>
+  </si>
+  <si>
+    <t>Ali Hamieh (Lebanese politician who served as Minister of Public Works and Transport in Najib Mikati's government from September 10, 2021, until February 2025) pulls the "obligation deal" at the airport</t>
+  </si>
+  <si>
+    <t>Two hostesses accuse Saad Hariri ( Lebanese businessman and politician who served as the prime minister of Lebanon from 2009 to 2011 and 2016 to 2020. The son of Rafic Hariri, he founded and has been leading the Future Movement party since 2007. He is seen as "the strongest figurehead" of the March 14 Alliance) of harassment and rape.</t>
+  </si>
+  <si>
+    <t>Lawyer Captain Nader Kasbar sponsored the festivals of the Homophobia at the Lawyers' house, last Wednesday, providing the book "Crime of Homosexuality" by Attorney Salman Barakat.</t>
+  </si>
+  <si>
+    <t>A document accuses Ghassan Oueidat (Former public prosecutor at the Court of Cassation) ... "illegal enrichment and transfers abroad"</t>
+  </si>
+  <si>
+    <t>After monitoring "here Lebanon", children swim in the Samir Kassir Park .. "The municipality" finds the solution and empties the pool from the water</t>
+  </si>
+  <si>
+    <t>Farlin Cabuyan was killed by her husband.</t>
+  </si>
+  <si>
+    <t>Abdollahian (Iranian politician and diplomat who served as foreign minister of Iran from 2021 until his death in a helicopter crash in 2024) at the end of his visit to Lebanon: We support the consensus to elect a president</t>
+  </si>
+  <si>
+    <t>A demonstration: No for the sponsorship system</t>
+  </si>
+  <si>
+    <t>Gebran Bassil (Lebanese politician who is the leader of the Free Patriotic Movement since 2015 and leader of the Strong Lebanon bloc in the Lebanese parliament since 2018. A Maronite Christian, he is the son-in-law of former president Michel Aoun, and has been his most senior advisor since 2005): The survival of the Syrian refugees in Lebanon will change the demographic fabric</t>
+  </si>
+  <si>
+    <t>The Disciplinary Council of Judges decides to dismiss Judge Ghada Aoun (Lebanese judge and Mount Lebanon state prosecutor) from service</t>
+  </si>
+  <si>
+    <t>Sidon Bikini incident</t>
+  </si>
+  <si>
+    <t>The Maronite Patriarch statement: Syrian refugees becoming an increasing threat to our country .</t>
+  </si>
+  <si>
+    <t>Gebran Bassil (Lebanese politician who is the leader of the Free Patriotic Movement since 2015 and leader of the Strong Lebanon bloc in the Lebanese parliament since 2018. A Maronite Christian, he is the son-in-law of former president Michel Aoun, and has been his most senior advisor since 2005): The continued presence of Syrian refugees means the demise of Lebanon</t>
+  </si>
+  <si>
+    <t>He killed her several times by car after being torturing her with shaving blades. This is how Mrs. Rajia Al-Akoum was killed</t>
+  </si>
+  <si>
+    <t>Lebanese judiciary charges 5 people with killing Irish UNIFIL soldier</t>
+  </si>
+  <si>
+    <t>Salim Sayegh ( Lebanese academic and politician who served as Minister of Social Affairs from 2009 to 2011. He has been serving as a member of the Lebanese Parliament since 2022) Interview with "Voice of Lebanon": Talk About Hosting Syrian Refugees.</t>
+  </si>
+  <si>
+    <t>The anniversary of the assassination of Samir Kassir (Lebanese-Palestinian journalist of An-Nahar and professor of history at Saint-Joseph University who was an advocate of democracy and prominent opponent of the Syrian occupation of Lebanon.)</t>
+  </si>
+  <si>
+    <t>The Lebanese opposition is nominating Azour (Jihad Azour is a Lebanese economist and politician who served as Lebanon's minister of finance under Fouad Saniora's government from 2005 to 2008. He was a candidate for the 2022–2025 Lebanese presidential election) as president in light of the insistence of "Amal" and "Hezbollah" on Franjieh (Lebanese politician who is the incumbent leader of the Marada Movement, and a former Member of the Lebanese Parliament for the Maronite seat of Zgharta–Zawyie, in North Lebanon. Politically he is considered an ally of former Syrian president Bashar al-Assad. He was the primary candidate for Hezbollah's faction for the 2022–2025 Lebanese presidential election, before withdrawing.)</t>
+  </si>
+  <si>
+    <t>The French judiciary seizes the property of Riyad Salameh (former Governor of Bank of Lebanon) and his companions for the benefit of the Lebanese state</t>
+  </si>
+  <si>
+    <t>The Kuwaiti media prevented Fajr Al -Saeed (Kuwaiti screenwriter, producer, and journalist) from entering Lebanon .. What are the reasons?</t>
+  </si>
+  <si>
+    <t>9 gunshots killed Sahar and Therese in Jezzine</t>
+  </si>
+  <si>
+    <t>Mikati (Najib Mikati is a Lebanese politician and businessman who served as the 52nd prime minister of Lebanon from 2021 to 2025) office: There is no extension of the ruler of the Bank of Lebanon in his position</t>
+  </si>
+  <si>
+    <t>Notice from the Islamic Cultural Center regarding the dissolution of the Dream ('Helm') Association</t>
+  </si>
+  <si>
+    <t>Vox refuses to show Spider-Man due to its support for the LGBTQ community.</t>
+  </si>
+  <si>
+    <t>George Atallah (Member of the Lebanese Parliament for Koura District and member of Strong Lebanon bloc): A group of homosexuals, a paid, possibly behind demonic plans to strike values, morals and family, claims to be a society that fights and all its goal is to legislate vice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loyalty to the Resistance Bloc: Marketing Western cultural and behavioral waste, such as pornography, homosexuality, and the like, is a dangerous matter that threatens Lebanese society. 
+</t>
+  </si>
+  <si>
+    <t>Mayor of Al-Qaa municpality Bashir Matar: Stateme to Annahar newspaper about Syrians and their production of waste.</t>
+  </si>
+  <si>
+    <t>The election of Taymur Jumblatt (Lebanese politician of the Lebanese Druze community and leader of the Progressive Socialist Party since 2023 and its parliamentary bloc, the Democratic Gathering, since 2018) to succeed his father (Walid Jumblatt is a Lebanese politician, who was the leader of the Progressive Socialist Party from 1977 until 2023) in the presidency of the Socialist Party</t>
+  </si>
+  <si>
+    <t>Adaisseh crime in Lebanon: Ruqayya al-Halawi was killed by her husband in Adaisseh with a hunting rifle.</t>
+  </si>
+  <si>
+    <t>Bsharri crime Lebanon</t>
+  </si>
+  <si>
+    <t>Gardreve nursery and the case of child abuse</t>
+  </si>
+  <si>
+    <t>A number of deputies, including Mark Daou (Lebanese activist and public relations expert who has been a member of the Lebanese Parliament since 2022), submitted a law to prevent homosexuality.</t>
+  </si>
+  <si>
+    <t>Former Minsiter May Chidiac (a journalist and former Lebanese Minister of State for Administrative Development) asked, "What's happening in some downtown Beirut restaurants that refuse to alcoholic serve drinks? Why is Lebanon's image of openness changing?"</t>
+  </si>
+  <si>
+    <t>Displacement Minister Issam Sharaf Al-Din on the refugees issue</t>
+  </si>
+  <si>
+    <t>MP Salim Al-Sayegh interview with OTV: Discussing Syrian presence</t>
+  </si>
+  <si>
+    <t>Ahmad Qablan (Lebanon's Grand Jaafari mufti and a cleric close to Hezbollah): The promotion of homosexuality is a war and hostile to nature, the core of our ethics, and any grace or silence about promoting this heinous and obscene act in Lebanon is a great betrayal of the human type.</t>
+  </si>
+  <si>
+    <t>Hassan Nasrallah (Lebanese cleric and politician who served as the third secretary-general of Hezbollah from 1992 until his assassination in 2024): To boycott the goods that carry the colors of homosexuality</t>
+  </si>
+  <si>
+    <t>Suspicion of gay flags at Faraya Festival</t>
+  </si>
+  <si>
+    <t>Pain D'Or is selling rainbow-colored candy bars in support of the LGBTQ community.</t>
+  </si>
+  <si>
+    <t>Hassan Nasrallah (Lebanese cleric and politician who served as the third secretary-general of Hezbollah from 1992 until his assassination in 2024): The penalty for "sodomy" is killing</t>
+  </si>
+  <si>
+    <t>Jamil Al -Sayyid (Lebanese politician and a current member of the parliament of Lebanon): Homosexuality is a case that contradicts the human nature and animal, limited to mentioning and the female who of them continues human life, and everything outside them is anomalous or gay they want today to impose on societies as a reality.</t>
+  </si>
+  <si>
+    <t>Ain El Helwe (he largest Palestinian refugee camp in Lebanon) clashes</t>
+  </si>
+  <si>
+    <t>Wassim Mansouri (a Lebanese lawyer who was the Acting Governor of the Banque du Liban from 2023 to 2025) assumes the duties of acting governor of the Central Bank of Lebanon.</t>
+  </si>
+  <si>
+    <t>Al-Khatib (Ali Al-Khatib is the Vice President of the Supreme Islamic Shiite Council, ) on the receipt of Al -Mansouri (Wassim Al-Mansouri is a Lebanese lawyer who was the Acting Governor of the Banque du Liban from 2023 to 2025), the ruler of the Bank of Lebanon: Shiites should not be held responsible for any financial repercussions or collapses.</t>
+  </si>
+  <si>
+    <t>The case of the murder of southern citizen Elias Al-Hasrouni, known as Elias Al-Hantoush, a native of the southern town of Ain Ebel in the Bint Jbeil district, who served as a member of the Central Council of the Lebanese Forces and as a former coordinator of the Forces in the Bint Jbeil region.</t>
+  </si>
+  <si>
+    <t>Lebanon commemorates the disaster of the Beirut port's explosion and marches demanding that those responsible be held accountable</t>
+  </si>
+  <si>
+    <t>The "Marsa" office in a hospital in Tripoli was stormed by "Horras Al-Fadila"</t>
+  </si>
+  <si>
+    <t>In a surprising decision, the Criminal Court acquitted El-Habr (Charbel Nicolas El-Habr is accused of killing his wife, Rana Beino, by throwing her from the car, which resulted in multiple fractures to her skull, sinuses, left shoulder, a large contusion to the lungs, and a large wound to the head) of the premeditated murder of Rana Baaino in the 2019 women's murder case.</t>
+  </si>
+  <si>
+    <t>Representative Asaad Dergham ( Strong Lebanon Bloc MP for Akkar Governorate) the displaced Syrians in every village who resemble the Palestinian camps</t>
+  </si>
+  <si>
+    <t>A Hezbollah militia truck loaded with weapons overturned in the Christian town of Kahala, near the Lebanese capital, Beirut, killing a militia member and a local resident following clashes between the two sides.</t>
+  </si>
+  <si>
+    <t>Mortada (Mohammad Mortada is a Lebanese politician who has served as Minister of Culture in Najib Mikati's government since September 2021) to ban the movie "Barbie" from being shown in the country because it promotes homosexuality and conflicts with religious values.</t>
+  </si>
+  <si>
+    <t>Abdo Abu Kasm (Monsignor Abdo Abu Kasm is the director of the Catholic Media Center in Lebanon): Homosexuality is against chastity, against nature, and is one of the major sins. What is required is one thing: to make homosexuals understand that their tendencies are unnatural, and the church is against abolishing the constitutional article that criminalizes homosexuality.</t>
+  </si>
+  <si>
+    <t>The US, UK, and Canada impose sanctions on former Central Bank Governor Riad Salameh.</t>
+  </si>
+  <si>
+    <t>MP Ibrahim Mneimneh revealed a scandal involving the recruitment of air traffic controllers from abroad to fill vacancies at Rafik Hariri International Airport, while a group of successful Lebanese air traffic controllers were not appointed due to disagreements over sectarian quotas.</t>
+  </si>
+  <si>
+    <t>Parliament Speaker Nabih Berri (Lebanese politician who has been serving as Speaker of the Parliament of Lebanon since 1992. He heads the Amal Movement and its parliamentary wing, Development and Liberation Bloc) and Prime Minister Najib Mikati received the preliminary report of the forensic audit of the Central Bank of Lebanon's budgets.</t>
+  </si>
+  <si>
+    <t>The anniversary of the July war (2006)</t>
+  </si>
+  <si>
+    <t>Former Minister Rashid Derbas recalls his previous statements: If refugees organize themselves socially, politically, and militarily, they will be disturbing, frightening, and dangerous.</t>
+  </si>
+  <si>
+    <t>MP Mohammad Khawaja: The biggest danger facing Lebanon is the Syrian displacement</t>
+  </si>
+  <si>
+    <t>Cesar Maalouf (Lebanese politician, businessman and ex-MP for the Lebanese Forces party): The people of Zahle are clinging to the cause and rejecting the West's attempt to promote the "animalization of humanity" by imposing homosexuality and turning humans into dogs.</t>
+  </si>
+  <si>
+    <t>Al-Murtada (Mohammad Mortada is a Lebanese politician who has served as Minister of Culture in Najib Mikati's government since September 2021) proposes a law to "combat homosexual promotion"</t>
+  </si>
+  <si>
+    <t>Lebanon is without electricity due to the shutdown of two power plants for financial reasons.</t>
+  </si>
+  <si>
+    <t>Nine MPs reject criminalizing homosexuality through a proposed law... MP Abdel-Masih withdraws, and Rifi (Ashraf Rifi is a Lebanese politician and former police chief. He was the general director of the Lebanese Internal Security Forces (ISF; the national police) from 2005 to 2013 and served as minister of justice from 15 February 2014 to 21 February 2016. He is a member of the Renewal Bloc in the Lebanese Parliament) responds!</t>
+  </si>
+  <si>
+    <t>Ashraf Rifi (Lebanese politician and former police chief. He was the general director of the Lebanese Internal Security Forces (ISF; the national police) from 2005 to 2013 and served as minister of justice from 15 February 2014 to 21 February 2016. He is a member of the Renewal Bloc in the Lebanese Parliament) is submitting a draft law to criminalize homosexuality and criminalize promotion</t>
+  </si>
+  <si>
+    <t>A body within the Supreme Islamic Shiite Council issues a statement in which it defines 15 preachers, including Sheikh Yasser Auda, and describes them as not qualified to provide religious guidance</t>
+  </si>
+  <si>
+    <t>Gebran Bassil (Lebanese politician who is the leader of the Free Patriotic Movement since 2015 and leader of the Strong Lebanon bloc in the Lebanese parliament since 2018. A Maronite Christian, he is the son-in-law of former president Michel Aoun, and has been his most senior advisor since 2005): They are trying to dismantle this family by imposing methods of manipulation of human nature and changing them from what the Creator created.</t>
+  </si>
+  <si>
+    <t>Nabih Berri (Lebanese politician who has been serving as Speaker of the Parliament of Lebanon since 1992. He heads the Amal Movement and its parliamentary wing, Development and Liberation Bloc): Was the chairman of the council had to include the last agenda of the Homosexuality Legislation Law in order to complete the session? Our values system as our land and our offer and our religion are a red line</t>
+  </si>
+  <si>
+    <t>Fadlallah (Grand Ayatollah Sayyed Ali Fadlallah) received from Raif Reda (President of the Lebanese Medical Social Gathering and Representative of the Euro-Mediterranean International Medical Association) a copy of his scientific research on the phenomenon of homosexuality: to raise awareness in society and protect it from intellectual and moral deviations.</t>
+  </si>
+  <si>
+    <t>The Assistant Inspector General of Dar al-Fatwa (official body for Lebanon's Sunni Muslims), Sheikh Hassan Meheb (the assistant general inspector of DarAlFatwa and Imam of the Ali Ben Abi Talib Mosque), issued a fatwa stating that “boycotting MTV is a religious, societal, and moral duty because they follow Satan and take dollars from him.”</t>
+  </si>
+  <si>
+    <t>Minister of Education: The Snakes and Ladders game has been removed from summer school activities because it depicts a rainbow, to prevent confusion.</t>
+  </si>
+  <si>
+    <t>A delegation from the gathering of Muslim scholars visited the Bishop of Byblos to talk about the attacks on the heavenly religions and human morals of their values and beliefs by working to spread homosexuality, immoral and atheism, and atheism</t>
+  </si>
+  <si>
+    <t>Jnoud El Rab (Lebanese Christian far-right militia and activist group based in Beirut's Achrafieh district. Founded in 2020 by Joseph Mansour, the group presents itself as a protector of Christian values and a counterforce to secularism and Hezbollah's influence in Lebanon) "The soldiers of the Lord": Gemmayzeh revolts against moral decadence and expels demons from its streets, because it is the land of the Lord and based on the principle that there is no place for you among us, you offspring of Satan.</t>
+  </si>
+  <si>
+    <t>Image in the Jounieh area was posted by the Hooligans Pub account. The image depicts Jesus Christ holding a beer bottle, carried by the apostles and surrounded by the Virgin Mary, an insult to the divine.</t>
+  </si>
+  <si>
+    <t>The Public Works Committee is examining the file of the Traffic, Vehicles and Machinery Management Authority .. This facility will be opened tomorrow.</t>
+  </si>
+  <si>
+    <t>The Kafour landfill file in the south and the conflict between the two parties in the region after the tire incineration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdollahian (Iranian politician and diplomat who served as foreign minister of Iran from 2021 until his death in a helicopter crash in 2024) from Beirut: Lebanon's leaders must decide on the election of a president.
+</t>
+  </si>
+  <si>
+    <t>Issuance of the indictment in the case of Lynn Taleb (Lynn Taleb was raped by her uncle on June 24th in the bathroom of his house)</t>
+  </si>
+  <si>
+    <t>Qablan (Ahmad Qabalan is Lebanon's Grand Jaafari Mufti): The law that criminalizes homosexuality is derived from the game, and if there is a need for new legislation, it should be aimed at increasing the punishment, not reducing it.</t>
+  </si>
+  <si>
+    <t>MP Edgar Trabelsi (Member Strong Lebanon Bloc): In the upcoming elections, we will ask every candidate, "Are you for abolishing Article 534?" That's it, because we now know what they want. This is the agenda of the NGO group, the Sadom and Gomorrah society.</t>
+  </si>
+  <si>
+    <t>Lebanese channel MTV sparked widespread controversy after airing an advertisement that included a clear and explicit message of "support for homosexuality" and combating so-called "homophobia," under the title "Homosexuality is not a crime," a slogan previously adopted by Pope Francis.</t>
+  </si>
+  <si>
+    <t>Hassan Merheb (Sheikh Hassan Merheb is the assistant general inspector of DarAlFatwa - official body for Lebanon's Sunni Muslims - and Imam of the Ali Ben Abi Talib Mosque): A greeting from the heart to the youth of the soldiers, responding to the prevention of an homosexual party in one of the streets of Beirut, not to hand over your right.</t>
+  </si>
+  <si>
+    <t>On September 5, 2023, MP Bilal Abdullah submitted a draft urgent law to repeal Law No. 210 issued on May 26, 2000, which exempted recognized religious communities in Lebanon from taxes and fees.</t>
+  </si>
+  <si>
+    <t>Clashes in Ain El Helwe (largest Palestinian refugee camp in Lebanon)</t>
+  </si>
+  <si>
+    <t>Lina Nasser Al-Din killed her husband with poison and burned the body with acid, Al-Basatin town.</t>
+  </si>
+  <si>
+    <t>MP Wadah Al-Sadiq: Syrian refugees affect security, jobs, and our daily lives, and the highest crime rate is among Syrians.</t>
+  </si>
+  <si>
+    <t>Activating the file of the Martyr Rene Moawad Airport in Qlayaat</t>
+  </si>
+  <si>
+    <t>Gebran Bassil (Lebanese politician who is the leader of the Free Patriotic Movement since 2015 and leader of the Strong Lebanon bloc in the Lebanese parliament since 2018. A Maronite Christian, he is the son-in-law of former president Michel Aoun, and has been his most senior advisor since 2005) talks about replacing the Lebanese with other peoples (neighboring and sisterly) and considers asylum an existential threat, which we must confront harshly and decisively.</t>
+  </si>
+  <si>
+    <t>Ghobeiry Municipality: Setting up checkpoints to confiscate "unlicensed" motorcycles and tuk-tuks driven by foreigners</t>
+  </si>
+  <si>
+    <t>Minister of Information Ziad Makary hosted a meeting of a delegation from a group calling itself "Media Professionals Against Homosexuality" on Monday, September 18.</t>
+  </si>
+  <si>
+    <t>The rape of a 14 -year-old minor in Lebanon</t>
+  </si>
+  <si>
+    <t>MP Hagop Terzian (Member Of The Lebanese Parliament and Head Of The Lebanese Armenian Parliamentary Friendship Committee. Former Member Of Beirut City Council): We will not stand idly by in the face of changing the region's identity under any pretext that does not respect the region's moral values, and its people are a role model in terms of moral values and culture.</t>
+  </si>
+  <si>
+    <t>MP Nabil Badr (Member of the Lebanese Parliament for the Beirut 2nd District since May 17, 2022): Instead of guiding them to the right path, it is not right for us to run after them and legislate for them what God did not legislate</t>
+  </si>
+  <si>
+    <t>Maronite Patriarch Bechara Boutros Al-Rai: The Syrian displacement represents the greatest economic, security, cultural, political, and demographic threat.</t>
+  </si>
+  <si>
+    <t>The Free Patriotic Movement's Political Bureau: Syrian displacement has reached its highest levels of danger.</t>
+  </si>
+  <si>
+    <t>MP Ibrahim al-Moussawi (Hezbollah): The UNHCR is violating Lebanese sovereignty by issuing a statement to a Syrian refugee.</t>
+  </si>
+  <si>
+    <t>MP Razi al-Hajj (Member of Labanese Forces Bloc): Granting the UNHCR housing permits to a Syrian refugee is a "blatant violation of the law and national sovereignty."</t>
+  </si>
+  <si>
+    <t>MP George Akis (Member of the Lebanese Parliament &amp; Member of the Parliamentary Committee on the Public Procurement Law): displacement has become occupation</t>
+  </si>
+  <si>
+    <t>Former Interior Minister Nuhad Al-Machnouk is reported to have refused to be held responsible for signing a document with the UNHCR allowing displaced Syrians to obtain residency. He explained that this step came at the time as a result of pressure on him by a security official. He also said that he would “keep the investigation” to refute the accusations directed at him that he had made deals within the Ministry of Interior and that he had a connection to the “Encrypt” company scandal, revealing that the deals and corruption undertaken by Maher Abu Al-Khudoud and Hisham Itani had nothing to do with him.</t>
+  </si>
+  <si>
+    <t>Nevada S.A.L awards airport restaurant management: Why such a big difference in offers?</t>
+  </si>
+  <si>
+    <t>The Minister of Interior grants permission to prosecute Major General Imad Othman.</t>
+  </si>
+  <si>
+    <t>Sami Gemayel (Lebanese politician, lawyer and a member of the Lebanese parliament. Being elected as party president in 2015, he presently serves as the seventh leader of the Lebanese Kataeb Party which was founded by his grandfather, Pierre Gemayel): The spread of displaced people in villages is causing anxiety among the Lebanese and pushing them toward despair and emigration.</t>
+  </si>
+  <si>
+    <t>MP Ibrahim Muniemneh: "After submitting a question to the Minister of Public Works, Ali Hamieh, regarding a number of inquiries based on our review of the tender specifications that were awarded to one of the Republic's contractors, Wissam Ashour, owner of Nevada S.A.l., the company that operates the restaurants and cafeterias at Beirut International Airport, we received a response from Nevada and we are still awaiting a response from the Ministry of Public Works."</t>
+  </si>
+  <si>
+    <t>Ali Mortada (Reporter, War correspondent, editor and host, for Al-Mayadeen network): The only solution for the displaced and refugees in Lebanon is to open the sea and allow them to migrate to Europe</t>
+  </si>
+  <si>
+    <t>Attacks on terrorist organizations in Riad al-Solh. Nasrallah's (Hassan Nasrallah is a Lebanese cleric and politician who served as the third secretary-general of Hezbollah, a Shia Islamist political party and militia, from 1992 until his assassination in 2024) attack on homosexuals follows virtual attacks on the Riad al-Solh neighborhood.</t>
+  </si>
+  <si>
+    <t>Sheikh Hassan Merheb (Sheikh Hassan Merheb is the assistant general inspector of DarAlFatwa - official body for Lebanon's Sunni Muslims - and Imam of the Ali Ben Abi Talib Mosque) to MP Halima Kaakour: You do not deserve to be a Sunni representative in Lebanon. Rather, you are one of our misfortunes and calamities. If you do not want to participate in our elections, then you should resign. We are not honored by your representation in Parliament, you and the group of misogynistic representatives who defend homosexuality and moral decadence.</t>
+  </si>
+  <si>
+    <t>Baalbek-Hermel Governor Bashir Khodr stated that "there are 450,000 subsidized loaves of bread being consumed by displaced Syrians."</t>
+  </si>
+  <si>
+    <t>Nasrallah (Hassan Nasrallah is a Lebanese cleric and politician who served as the third secretary-general of Hezbollah, a Shia Islamist political party and militia, from 1992 until his assassination in 2024) calls for the deportation of refugees to Europe via the sea</t>
+  </si>
+  <si>
+    <t>Disputes in Bouchrieh, in the Dora area, between a number of Lebanese youths and Syrian refugees.</t>
+  </si>
+  <si>
+    <t>Minister of Justice Henri Khoury referred the members of the Judges Club to the Judicial Inspection. In this context, MP Mark Daou considered that "Khoury referred all members of the Judges Club to the Judicial Inspection because the club published statements in the media and on social media, it amounts to collective repression and a continuation of the policy of gagging and suppressing freedoms, which aims to silence judges and prevent them from objecting to the violations occurring within the judiciary."</t>
+  </si>
+  <si>
+    <t>Al -Aqsa Flood (Hamas announced the start of Operation Al-Aqsa Flood. )</t>
+  </si>
+  <si>
+    <t>The Lebanese Judges Club insists on its right to freedom of expression, defying the Minister of Justice's harassment.</t>
+  </si>
+  <si>
+    <t>October 17th anniversary (A series of civil protests in Lebanon that began after the Lebanese cabinet announced financial measures on 17 October 2019.)</t>
+  </si>
+  <si>
+    <t>Judge Nassar issued a ruling declaring Charbel Haber innocent of the charge of killing his wife, Rana Baaino.</t>
+  </si>
+  <si>
+    <t>A judicial invitation against the Lebanese Journalist Layal El Ekhtiar as she was accused of violating the law boycotting Israel by conducting an interview with Israeli army spokesman Avichay Adraee on Al Arabiya.</t>
+  </si>
+  <si>
+    <t>Grand Mufti Derian (highest muslim sunni authority) declares ex Minister Fouad Siniora is “red line” (i.e. should not be the target of suspicion in financial misconduct).</t>
+  </si>
+  <si>
+    <t>Resistance and Liberation Day: On May 25, 2000, the Israeli army left territory in Southern Lebanon, marking the end of the South Lebanon occupation (1985–2000). The withdrawal came after the continued attack on Israeli military positions in occupied Lebanese territory by Lebanese Resistance forced Israeli militias to withdraw. It is celebrated as an important day in the history of Lebanon.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2785,25 +2795,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2841,7 +2868,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2875,6 +2902,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2909,9 +2937,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3084,14 +3113,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="7" max="7" width="65.40625" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3110,7 +3144,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -3129,7 +3163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A2" s="2">
         <v>43528</v>
       </c>
@@ -3148,26 +3182,26 @@
       <c r="F2" t="s">
         <v>187</v>
       </c>
-      <c r="G2" t="s">
-        <v>379</v>
+      <c r="G2" s="4" t="s">
+        <v>901</v>
       </c>
       <c r="H2" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I2" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J2" t="s">
-        <v>565</v>
+        <v>423</v>
       </c>
       <c r="K2" t="s">
-        <v>731</v>
+        <v>589</v>
       </c>
       <c r="L2" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="221.25" x14ac:dyDescent="0.75">
       <c r="A3" s="2">
         <v>43938</v>
       </c>
@@ -3186,26 +3220,26 @@
       <c r="F3" t="s">
         <v>188</v>
       </c>
-      <c r="G3" t="s">
-        <v>380</v>
+      <c r="G3" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="H3" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I3" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J3" t="s">
-        <v>566</v>
+        <v>424</v>
       </c>
       <c r="K3" t="s">
-        <v>732</v>
+        <v>590</v>
       </c>
       <c r="L3" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A4" s="2">
         <v>44207</v>
       </c>
@@ -3224,26 +3258,26 @@
       <c r="F4" t="s">
         <v>189</v>
       </c>
-      <c r="G4" t="s">
-        <v>381</v>
+      <c r="G4" s="4" t="s">
+        <v>760</v>
       </c>
       <c r="H4" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I4" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J4" t="s">
-        <v>567</v>
+        <v>425</v>
       </c>
       <c r="K4" t="s">
-        <v>733</v>
+        <v>591</v>
       </c>
       <c r="L4" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A5" s="2">
         <v>44320</v>
       </c>
@@ -3262,26 +3296,26 @@
       <c r="F5" t="s">
         <v>190</v>
       </c>
-      <c r="G5" t="s">
-        <v>382</v>
+      <c r="G5" s="4" t="s">
+        <v>761</v>
       </c>
       <c r="H5" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I5" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J5" t="s">
-        <v>568</v>
+        <v>426</v>
       </c>
       <c r="K5" t="s">
-        <v>734</v>
+        <v>592</v>
       </c>
       <c r="L5" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6" s="2">
         <v>44535</v>
       </c>
@@ -3300,26 +3334,26 @@
       <c r="F6" t="s">
         <v>191</v>
       </c>
-      <c r="G6" t="s">
-        <v>383</v>
+      <c r="G6" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="H6" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I6" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J6" t="s">
-        <v>569</v>
+        <v>427</v>
       </c>
       <c r="K6" t="s">
-        <v>735</v>
+        <v>593</v>
       </c>
       <c r="L6" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="118" x14ac:dyDescent="0.75">
       <c r="A7" s="2">
         <v>44614</v>
       </c>
@@ -3338,26 +3372,26 @@
       <c r="F7" t="s">
         <v>192</v>
       </c>
-      <c r="G7" t="s">
-        <v>384</v>
+      <c r="G7" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="H7" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I7" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J7" t="s">
-        <v>570</v>
+        <v>428</v>
       </c>
       <c r="K7" t="s">
-        <v>736</v>
+        <v>594</v>
       </c>
       <c r="L7" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A8" s="2">
         <v>44668</v>
       </c>
@@ -3376,26 +3410,26 @@
       <c r="F8" t="s">
         <v>193</v>
       </c>
-      <c r="G8" t="s">
-        <v>385</v>
+      <c r="G8" s="4" t="s">
+        <v>762</v>
       </c>
       <c r="H8" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I8" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J8" t="s">
-        <v>571</v>
+        <v>429</v>
       </c>
       <c r="K8" t="s">
-        <v>737</v>
+        <v>595</v>
       </c>
       <c r="L8" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A9" s="2">
         <v>44734</v>
       </c>
@@ -3414,26 +3448,26 @@
       <c r="F9" t="s">
         <v>194</v>
       </c>
-      <c r="G9" t="s">
-        <v>386</v>
+      <c r="G9" s="4" t="s">
+        <v>763</v>
       </c>
       <c r="H9" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I9" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J9" t="s">
-        <v>572</v>
+        <v>430</v>
       </c>
       <c r="K9" t="s">
-        <v>738</v>
+        <v>596</v>
       </c>
       <c r="L9" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A10" s="2">
         <v>44737</v>
       </c>
@@ -3452,26 +3486,26 @@
       <c r="F10" t="s">
         <v>195</v>
       </c>
-      <c r="G10" t="s">
-        <v>387</v>
+      <c r="G10" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="H10" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I10" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J10" t="s">
-        <v>573</v>
+        <v>431</v>
       </c>
       <c r="K10" t="s">
-        <v>739</v>
+        <v>597</v>
       </c>
       <c r="L10" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A11" s="2">
         <v>44738</v>
       </c>
@@ -3490,26 +3524,26 @@
       <c r="F11" t="s">
         <v>196</v>
       </c>
-      <c r="G11" t="s">
-        <v>388</v>
+      <c r="G11" s="4" t="s">
+        <v>764</v>
       </c>
       <c r="H11" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I11" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J11" t="s">
-        <v>574</v>
+        <v>432</v>
       </c>
       <c r="K11" t="s">
-        <v>740</v>
+        <v>598</v>
       </c>
       <c r="L11" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A12" s="2">
         <v>44924</v>
       </c>
@@ -3528,26 +3562,26 @@
       <c r="F12" t="s">
         <v>197</v>
       </c>
-      <c r="G12" t="s">
-        <v>389</v>
+      <c r="G12" s="4" t="s">
+        <v>765</v>
       </c>
       <c r="H12" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I12" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J12" t="s">
-        <v>575</v>
+        <v>433</v>
       </c>
       <c r="K12" t="s">
-        <v>741</v>
+        <v>599</v>
       </c>
       <c r="L12" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A13" s="2">
         <v>44928</v>
       </c>
@@ -3566,26 +3600,26 @@
       <c r="F13" t="s">
         <v>198</v>
       </c>
-      <c r="G13" t="s">
-        <v>390</v>
+      <c r="G13" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="H13" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I13" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J13" t="s">
-        <v>576</v>
+        <v>434</v>
       </c>
       <c r="K13" t="s">
-        <v>742</v>
+        <v>600</v>
       </c>
       <c r="L13" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A14" s="2">
         <v>44935</v>
       </c>
@@ -3604,26 +3638,26 @@
       <c r="F14" t="s">
         <v>199</v>
       </c>
-      <c r="G14" t="s">
-        <v>391</v>
+      <c r="G14" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="H14" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I14" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J14" t="s">
-        <v>577</v>
+        <v>435</v>
       </c>
       <c r="K14" t="s">
-        <v>743</v>
+        <v>601</v>
       </c>
       <c r="L14" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A15" s="2">
         <v>44937</v>
       </c>
@@ -3642,26 +3676,26 @@
       <c r="F15" t="s">
         <v>200</v>
       </c>
-      <c r="G15" t="s">
-        <v>392</v>
+      <c r="G15" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="H15" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I15" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J15" t="s">
-        <v>578</v>
+        <v>436</v>
       </c>
       <c r="K15" t="s">
-        <v>744</v>
+        <v>602</v>
       </c>
       <c r="L15" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A16" s="2">
         <v>44938</v>
       </c>
@@ -3680,26 +3714,26 @@
       <c r="F16" t="s">
         <v>201</v>
       </c>
-      <c r="G16" t="s">
-        <v>393</v>
+      <c r="G16" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="H16" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I16" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J16" t="s">
-        <v>579</v>
+        <v>437</v>
       </c>
       <c r="K16" t="s">
-        <v>745</v>
+        <v>603</v>
       </c>
       <c r="L16" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A17" s="2">
         <v>44945</v>
       </c>
@@ -3718,26 +3752,26 @@
       <c r="F17" t="s">
         <v>202</v>
       </c>
-      <c r="G17" t="s">
-        <v>394</v>
+      <c r="G17" s="4" t="s">
+        <v>767</v>
       </c>
       <c r="H17" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I17" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J17" t="s">
-        <v>580</v>
+        <v>438</v>
       </c>
       <c r="K17" t="s">
-        <v>746</v>
+        <v>604</v>
       </c>
       <c r="L17" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A18" s="2">
         <v>44948</v>
       </c>
@@ -3756,26 +3790,26 @@
       <c r="F18" t="s">
         <v>203</v>
       </c>
-      <c r="G18" t="s">
-        <v>395</v>
+      <c r="G18" s="4" t="s">
+        <v>768</v>
       </c>
       <c r="H18" t="s">
-        <v>557</v>
+        <v>415</v>
       </c>
       <c r="I18" t="s">
-        <v>563</v>
+        <v>421</v>
       </c>
       <c r="J18" t="s">
-        <v>581</v>
+        <v>439</v>
       </c>
       <c r="K18" t="s">
-        <v>747</v>
+        <v>605</v>
       </c>
       <c r="L18" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A19" s="2">
         <v>44949</v>
       </c>
@@ -3794,26 +3828,26 @@
       <c r="F19" t="s">
         <v>204</v>
       </c>
-      <c r="G19" t="s">
-        <v>396</v>
+      <c r="G19" s="4" t="s">
+        <v>769</v>
       </c>
       <c r="H19" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I19" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J19" t="s">
-        <v>582</v>
+        <v>440</v>
       </c>
       <c r="K19" t="s">
-        <v>748</v>
+        <v>606</v>
       </c>
       <c r="L19" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A20" s="2">
         <v>44951</v>
       </c>
@@ -3832,26 +3866,26 @@
       <c r="F20" t="s">
         <v>205</v>
       </c>
-      <c r="G20" t="s">
-        <v>397</v>
+      <c r="G20" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="H20" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I20" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J20" t="s">
-        <v>583</v>
+        <v>441</v>
       </c>
       <c r="K20" t="s">
-        <v>749</v>
+        <v>607</v>
       </c>
       <c r="L20" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A21" s="2">
         <v>44953</v>
       </c>
@@ -3870,26 +3904,26 @@
       <c r="F21" t="s">
         <v>206</v>
       </c>
-      <c r="G21" t="s">
-        <v>398</v>
+      <c r="G21" s="4" t="s">
+        <v>770</v>
       </c>
       <c r="H21" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I21" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J21" t="s">
-        <v>584</v>
+        <v>442</v>
       </c>
       <c r="K21" t="s">
-        <v>750</v>
+        <v>608</v>
       </c>
       <c r="L21" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A22" s="2">
         <v>44958</v>
       </c>
@@ -3908,26 +3942,26 @@
       <c r="F22" t="s">
         <v>207</v>
       </c>
-      <c r="G22" t="s">
-        <v>399</v>
+      <c r="G22" s="4" t="s">
+        <v>771</v>
       </c>
       <c r="H22" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I22" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J22" t="s">
-        <v>585</v>
+        <v>443</v>
       </c>
       <c r="K22" t="s">
-        <v>751</v>
+        <v>609</v>
       </c>
       <c r="L22" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A23" s="2">
         <v>44958</v>
       </c>
@@ -3946,26 +3980,26 @@
       <c r="F23" t="s">
         <v>208</v>
       </c>
-      <c r="G23" t="s">
-        <v>400</v>
+      <c r="G23" s="4" t="s">
+        <v>772</v>
       </c>
       <c r="H23" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I23" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J23" t="s">
-        <v>586</v>
+        <v>444</v>
       </c>
       <c r="K23" t="s">
-        <v>752</v>
+        <v>610</v>
       </c>
       <c r="L23" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A24" s="2">
         <v>44961</v>
       </c>
@@ -3984,26 +4018,26 @@
       <c r="F24" t="s">
         <v>209</v>
       </c>
-      <c r="G24" t="s">
-        <v>401</v>
+      <c r="G24" s="4" t="s">
+        <v>773</v>
       </c>
       <c r="H24" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I24" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J24" t="s">
-        <v>587</v>
+        <v>445</v>
       </c>
       <c r="K24" t="s">
-        <v>753</v>
+        <v>611</v>
       </c>
       <c r="L24" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A25" s="2">
         <v>44970</v>
       </c>
@@ -4022,26 +4056,26 @@
       <c r="F25" t="s">
         <v>210</v>
       </c>
-      <c r="G25" t="s">
-        <v>402</v>
+      <c r="G25" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="H25" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I25" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J25" t="s">
-        <v>588</v>
+        <v>446</v>
       </c>
       <c r="K25" t="s">
-        <v>754</v>
+        <v>612</v>
       </c>
       <c r="L25" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A26" s="2">
         <v>44971</v>
       </c>
@@ -4060,26 +4094,26 @@
       <c r="F26" t="s">
         <v>211</v>
       </c>
-      <c r="G26" t="s">
-        <v>403</v>
+      <c r="G26" s="4" t="s">
+        <v>774</v>
       </c>
       <c r="H26" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I26" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J26" t="s">
-        <v>589</v>
+        <v>447</v>
       </c>
       <c r="K26" t="s">
-        <v>755</v>
+        <v>613</v>
       </c>
       <c r="L26" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A27" s="2">
         <v>44973</v>
       </c>
@@ -4098,26 +4132,26 @@
       <c r="F27" t="s">
         <v>212</v>
       </c>
-      <c r="G27" t="s">
-        <v>404</v>
+      <c r="G27" s="4" t="s">
+        <v>775</v>
       </c>
       <c r="H27" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I27" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J27" t="s">
-        <v>590</v>
+        <v>448</v>
       </c>
       <c r="K27" t="s">
-        <v>756</v>
+        <v>614</v>
       </c>
       <c r="L27" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A28" s="2">
         <v>44974</v>
       </c>
@@ -4136,26 +4170,26 @@
       <c r="F28" t="s">
         <v>213</v>
       </c>
-      <c r="G28" t="s">
-        <v>405</v>
+      <c r="G28" s="4" t="s">
+        <v>776</v>
       </c>
       <c r="H28" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I28" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J28" t="s">
-        <v>591</v>
+        <v>449</v>
       </c>
       <c r="K28" t="s">
-        <v>757</v>
+        <v>615</v>
       </c>
       <c r="L28" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A29" s="2">
         <v>44976</v>
       </c>
@@ -4174,26 +4208,26 @@
       <c r="F29" t="s">
         <v>214</v>
       </c>
-      <c r="G29" t="s">
-        <v>406</v>
+      <c r="G29" s="4" t="s">
+        <v>777</v>
       </c>
       <c r="H29" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I29" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J29" t="s">
-        <v>592</v>
+        <v>450</v>
       </c>
       <c r="K29" t="s">
-        <v>758</v>
+        <v>616</v>
       </c>
       <c r="L29" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A30" s="2">
         <v>44980</v>
       </c>
@@ -4212,26 +4246,26 @@
       <c r="F30" t="s">
         <v>215</v>
       </c>
-      <c r="G30" t="s">
-        <v>407</v>
+      <c r="G30" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="H30" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I30" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J30" t="s">
-        <v>593</v>
+        <v>451</v>
       </c>
       <c r="K30" t="s">
-        <v>759</v>
+        <v>617</v>
       </c>
       <c r="L30" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A31" s="2">
         <v>44981</v>
       </c>
@@ -4250,26 +4284,26 @@
       <c r="F31" t="s">
         <v>216</v>
       </c>
-      <c r="G31" t="s">
-        <v>408</v>
+      <c r="G31" s="4" t="s">
+        <v>778</v>
       </c>
       <c r="H31" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I31" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J31" t="s">
-        <v>594</v>
+        <v>452</v>
       </c>
       <c r="K31" t="s">
-        <v>760</v>
+        <v>618</v>
       </c>
       <c r="L31" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A32" s="2">
         <v>44985</v>
       </c>
@@ -4288,26 +4322,26 @@
       <c r="F32" t="s">
         <v>217</v>
       </c>
-      <c r="G32" t="s">
-        <v>409</v>
+      <c r="G32" s="4" t="s">
+        <v>779</v>
       </c>
       <c r="H32" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I32" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J32" t="s">
-        <v>595</v>
+        <v>453</v>
       </c>
       <c r="K32" t="s">
-        <v>761</v>
+        <v>619</v>
       </c>
       <c r="L32" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A33" s="2">
         <v>44986</v>
       </c>
@@ -4326,26 +4360,26 @@
       <c r="F33" t="s">
         <v>218</v>
       </c>
-      <c r="G33" t="s">
-        <v>410</v>
+      <c r="G33" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="H33" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I33" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J33" t="s">
-        <v>596</v>
+        <v>454</v>
       </c>
       <c r="K33" t="s">
-        <v>762</v>
+        <v>620</v>
       </c>
       <c r="L33" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="236" x14ac:dyDescent="0.75">
       <c r="A34" s="2">
         <v>44987</v>
       </c>
@@ -4364,26 +4398,26 @@
       <c r="F34" t="s">
         <v>219</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="H34" t="s">
         <v>411</v>
       </c>
-      <c r="H34" t="s">
-        <v>553</v>
-      </c>
       <c r="I34" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J34" t="s">
-        <v>597</v>
+        <v>455</v>
       </c>
       <c r="K34" t="s">
-        <v>763</v>
+        <v>621</v>
       </c>
       <c r="L34" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A35" s="2">
         <v>44991</v>
       </c>
@@ -4402,26 +4436,26 @@
       <c r="F35" t="s">
         <v>220</v>
       </c>
-      <c r="G35" t="s">
-        <v>412</v>
+      <c r="G35" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="H35" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I35" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J35" t="s">
-        <v>598</v>
+        <v>456</v>
       </c>
       <c r="K35" t="s">
-        <v>764</v>
+        <v>622</v>
       </c>
       <c r="L35" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A36" s="2">
         <v>44994</v>
       </c>
@@ -4440,26 +4474,26 @@
       <c r="F36" t="s">
         <v>221</v>
       </c>
-      <c r="G36" t="s">
-        <v>413</v>
+      <c r="G36" s="4" t="s">
+        <v>781</v>
       </c>
       <c r="H36" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I36" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J36" t="s">
-        <v>599</v>
+        <v>457</v>
       </c>
       <c r="K36" t="s">
-        <v>765</v>
+        <v>623</v>
       </c>
       <c r="L36" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A37" s="2">
         <v>44996</v>
       </c>
@@ -4478,26 +4512,26 @@
       <c r="F37" t="s">
         <v>222</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="H37" t="s">
         <v>414</v>
       </c>
-      <c r="H37" t="s">
-        <v>556</v>
-      </c>
       <c r="I37" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J37" t="s">
-        <v>600</v>
+        <v>458</v>
       </c>
       <c r="K37" t="s">
-        <v>766</v>
+        <v>624</v>
       </c>
       <c r="L37" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A38" s="2">
         <v>45000</v>
       </c>
@@ -4516,26 +4550,26 @@
       <c r="F38" t="s">
         <v>223</v>
       </c>
-      <c r="G38" t="s">
-        <v>415</v>
+      <c r="G38" s="4" t="s">
+        <v>783</v>
       </c>
       <c r="H38" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I38" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J38" t="s">
-        <v>601</v>
+        <v>459</v>
       </c>
       <c r="K38" t="s">
-        <v>767</v>
+        <v>625</v>
       </c>
       <c r="L38" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A39" s="2">
         <v>45001</v>
       </c>
@@ -4554,26 +4588,26 @@
       <c r="F39" t="s">
         <v>224</v>
       </c>
-      <c r="G39" t="s">
-        <v>416</v>
+      <c r="G39" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="H39" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I39" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J39" t="s">
-        <v>602</v>
+        <v>460</v>
       </c>
       <c r="K39" t="s">
-        <v>768</v>
+        <v>626</v>
       </c>
       <c r="L39" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A40" s="2">
         <v>45007</v>
       </c>
@@ -4592,26 +4626,26 @@
       <c r="F40" t="s">
         <v>225</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="H40" t="s">
+        <v>411</v>
+      </c>
+      <c r="I40" t="s">
         <v>417</v>
       </c>
-      <c r="H40" t="s">
-        <v>553</v>
-      </c>
-      <c r="I40" t="s">
-        <v>559</v>
-      </c>
       <c r="J40" t="s">
-        <v>603</v>
+        <v>461</v>
       </c>
       <c r="K40" t="s">
-        <v>769</v>
+        <v>627</v>
       </c>
       <c r="L40" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A41" s="2">
         <v>45009</v>
       </c>
@@ -4630,26 +4664,26 @@
       <c r="F41" t="s">
         <v>226</v>
       </c>
-      <c r="G41" t="s">
-        <v>418</v>
+      <c r="G41" s="4" t="s">
+        <v>785</v>
       </c>
       <c r="H41" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I41" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J41" t="s">
-        <v>604</v>
+        <v>462</v>
       </c>
       <c r="K41" t="s">
-        <v>770</v>
+        <v>628</v>
       </c>
       <c r="L41" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A42" s="2">
         <v>45010</v>
       </c>
@@ -4668,26 +4702,26 @@
       <c r="F42" t="s">
         <v>227</v>
       </c>
-      <c r="G42" t="s">
-        <v>419</v>
+      <c r="G42" s="4" t="s">
+        <v>786</v>
       </c>
       <c r="H42" t="s">
-        <v>557</v>
+        <v>415</v>
       </c>
       <c r="I42" t="s">
-        <v>563</v>
+        <v>421</v>
       </c>
       <c r="J42" t="s">
-        <v>605</v>
+        <v>463</v>
       </c>
       <c r="K42" t="s">
-        <v>771</v>
+        <v>629</v>
       </c>
       <c r="L42" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A43" s="2">
         <v>45012</v>
       </c>
@@ -4706,26 +4740,26 @@
       <c r="F43" t="s">
         <v>228</v>
       </c>
-      <c r="G43" t="s">
-        <v>420</v>
+      <c r="G43" s="4" t="s">
+        <v>787</v>
       </c>
       <c r="H43" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I43" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J43" t="s">
-        <v>606</v>
+        <v>464</v>
       </c>
       <c r="K43" t="s">
-        <v>772</v>
+        <v>630</v>
       </c>
       <c r="L43" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A44" s="2">
         <v>45015</v>
       </c>
@@ -4744,26 +4778,26 @@
       <c r="F44" t="s">
         <v>229</v>
       </c>
-      <c r="G44" t="s">
-        <v>421</v>
+      <c r="G44" s="4" t="s">
+        <v>788</v>
       </c>
       <c r="H44" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I44" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J44" t="s">
-        <v>607</v>
+        <v>465</v>
       </c>
       <c r="K44" t="s">
-        <v>773</v>
+        <v>631</v>
       </c>
       <c r="L44" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A45" s="2">
         <v>45019</v>
       </c>
@@ -4782,26 +4816,26 @@
       <c r="F45" t="s">
         <v>230</v>
       </c>
-      <c r="G45" t="s">
-        <v>422</v>
+      <c r="G45" s="4" t="s">
+        <v>789</v>
       </c>
       <c r="H45" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I45" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J45" t="s">
-        <v>608</v>
+        <v>466</v>
       </c>
       <c r="K45" t="s">
-        <v>774</v>
+        <v>632</v>
       </c>
       <c r="L45" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A46" s="2">
         <v>45028</v>
       </c>
@@ -4820,26 +4854,26 @@
       <c r="F46" t="s">
         <v>231</v>
       </c>
-      <c r="G46" t="s">
-        <v>423</v>
+      <c r="G46" s="4" t="s">
+        <v>790</v>
       </c>
       <c r="H46" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I46" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J46" t="s">
-        <v>609</v>
+        <v>467</v>
       </c>
       <c r="K46" t="s">
-        <v>775</v>
+        <v>633</v>
       </c>
       <c r="L46" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A47" s="2">
         <v>45034</v>
       </c>
@@ -4858,26 +4892,26 @@
       <c r="F47" t="s">
         <v>232</v>
       </c>
-      <c r="G47" t="s">
-        <v>424</v>
+      <c r="G47" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="H47" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I47" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J47" t="s">
-        <v>610</v>
+        <v>468</v>
       </c>
       <c r="K47" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="L47" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A48" s="2">
         <v>45035</v>
       </c>
@@ -4896,26 +4930,26 @@
       <c r="F48" t="s">
         <v>233</v>
       </c>
-      <c r="G48" t="s">
-        <v>425</v>
+      <c r="G48" s="4" t="s">
+        <v>791</v>
       </c>
       <c r="H48" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I48" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J48" t="s">
-        <v>611</v>
+        <v>469</v>
       </c>
       <c r="K48" t="s">
-        <v>776</v>
+        <v>634</v>
       </c>
       <c r="L48" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A49" s="2">
         <v>45036</v>
       </c>
@@ -4934,26 +4968,26 @@
       <c r="F49" t="s">
         <v>234</v>
       </c>
-      <c r="G49" t="s">
-        <v>426</v>
+      <c r="G49" s="4" t="s">
+        <v>792</v>
       </c>
       <c r="H49" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I49" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J49" t="s">
-        <v>612</v>
+        <v>470</v>
       </c>
       <c r="K49" t="s">
-        <v>777</v>
+        <v>635</v>
       </c>
       <c r="L49" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A50" s="2">
         <v>45038</v>
       </c>
@@ -4972,26 +5006,26 @@
       <c r="F50" t="s">
         <v>235</v>
       </c>
-      <c r="G50" t="s">
-        <v>427</v>
+      <c r="G50" s="4" t="s">
+        <v>793</v>
       </c>
       <c r="H50" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I50" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J50" t="s">
-        <v>613</v>
+        <v>471</v>
       </c>
       <c r="K50" t="s">
-        <v>778</v>
+        <v>636</v>
       </c>
       <c r="L50" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A51" s="2">
         <v>45041</v>
       </c>
@@ -5010,26 +5044,26 @@
       <c r="F51" t="s">
         <v>236</v>
       </c>
-      <c r="G51" t="s">
-        <v>428</v>
+      <c r="G51" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="H51" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I51" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J51" t="s">
-        <v>614</v>
+        <v>472</v>
       </c>
       <c r="K51" t="s">
-        <v>779</v>
+        <v>637</v>
       </c>
       <c r="L51" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A52" s="2">
         <v>45042</v>
       </c>
@@ -5048,26 +5082,26 @@
       <c r="F52" t="s">
         <v>237</v>
       </c>
-      <c r="G52" t="s">
-        <v>429</v>
+      <c r="G52" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="H52" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I52" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J52" t="s">
-        <v>615</v>
+        <v>473</v>
       </c>
       <c r="K52" t="s">
-        <v>780</v>
+        <v>638</v>
       </c>
       <c r="L52" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A53" s="2">
         <v>45044</v>
       </c>
@@ -5086,26 +5120,26 @@
       <c r="F53" t="s">
         <v>238</v>
       </c>
-      <c r="G53" t="s">
-        <v>430</v>
+      <c r="G53" s="4" t="s">
+        <v>794</v>
       </c>
       <c r="H53" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I53" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J53" t="s">
-        <v>616</v>
+        <v>474</v>
       </c>
       <c r="K53" t="s">
-        <v>781</v>
+        <v>639</v>
       </c>
       <c r="L53" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A54" s="2">
         <v>45045</v>
       </c>
@@ -5124,26 +5158,26 @@
       <c r="F54" t="s">
         <v>239</v>
       </c>
-      <c r="G54" t="s">
-        <v>431</v>
+      <c r="G54" s="4" t="s">
+        <v>795</v>
       </c>
       <c r="H54" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I54" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J54" t="s">
-        <v>617</v>
+        <v>475</v>
       </c>
       <c r="K54" t="s">
-        <v>782</v>
+        <v>640</v>
       </c>
       <c r="L54" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A55" s="2">
         <v>45048</v>
       </c>
@@ -5162,26 +5196,26 @@
       <c r="F55" t="s">
         <v>240</v>
       </c>
-      <c r="G55" t="s">
-        <v>432</v>
+      <c r="G55" s="4" t="s">
+        <v>796</v>
       </c>
       <c r="H55" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I55" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J55" t="s">
-        <v>618</v>
+        <v>476</v>
       </c>
       <c r="K55" t="s">
-        <v>783</v>
+        <v>641</v>
       </c>
       <c r="L55" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A56" s="2">
         <v>45050</v>
       </c>
@@ -5200,26 +5234,26 @@
       <c r="F56" t="s">
         <v>241</v>
       </c>
-      <c r="G56" t="s">
-        <v>433</v>
+      <c r="G56" s="4" t="s">
+        <v>797</v>
       </c>
       <c r="H56" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I56" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J56" t="s">
-        <v>619</v>
+        <v>477</v>
       </c>
       <c r="K56" t="s">
-        <v>784</v>
+        <v>642</v>
       </c>
       <c r="L56" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A57" s="2">
         <v>45053</v>
       </c>
@@ -5238,26 +5272,26 @@
       <c r="F57" t="s">
         <v>242</v>
       </c>
-      <c r="G57" t="s">
-        <v>434</v>
+      <c r="G57" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="H57" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I57" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J57" t="s">
-        <v>620</v>
+        <v>478</v>
       </c>
       <c r="K57" t="s">
-        <v>785</v>
+        <v>643</v>
       </c>
       <c r="L57" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A58" s="2">
         <v>45055</v>
       </c>
@@ -5276,26 +5310,26 @@
       <c r="F58" t="s">
         <v>243</v>
       </c>
-      <c r="G58" t="s">
-        <v>435</v>
+      <c r="G58" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I58" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J58" t="s">
-        <v>621</v>
+        <v>479</v>
       </c>
       <c r="K58" t="s">
-        <v>786</v>
+        <v>644</v>
       </c>
       <c r="L58" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A59" s="2">
         <v>45056</v>
       </c>
@@ -5314,26 +5348,26 @@
       <c r="F59" t="s">
         <v>244</v>
       </c>
-      <c r="G59" t="s">
-        <v>436</v>
+      <c r="G59" s="4" t="s">
+        <v>645</v>
       </c>
       <c r="H59" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I59" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J59" t="s">
-        <v>622</v>
+        <v>480</v>
       </c>
       <c r="K59" t="s">
-        <v>787</v>
+        <v>645</v>
       </c>
       <c r="L59" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A60" s="2">
         <v>45060</v>
       </c>
@@ -5352,26 +5386,26 @@
       <c r="F60" t="s">
         <v>245</v>
       </c>
-      <c r="G60" t="s">
-        <v>437</v>
+      <c r="G60" s="4" t="s">
+        <v>798</v>
       </c>
       <c r="H60" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I60" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J60" t="s">
-        <v>623</v>
+        <v>481</v>
       </c>
       <c r="K60" t="s">
-        <v>788</v>
+        <v>646</v>
       </c>
       <c r="L60" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A61" s="2">
         <v>45060</v>
       </c>
@@ -5390,26 +5424,26 @@
       <c r="F61" t="s">
         <v>246</v>
       </c>
-      <c r="G61" t="s">
-        <v>438</v>
+      <c r="G61" s="4" t="s">
+        <v>799</v>
       </c>
       <c r="H61" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I61" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J61" t="s">
-        <v>624</v>
+        <v>482</v>
       </c>
       <c r="K61" t="s">
-        <v>789</v>
+        <v>647</v>
       </c>
       <c r="L61" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A62" s="2">
         <v>45062</v>
       </c>
@@ -5428,26 +5462,26 @@
       <c r="F62" t="s">
         <v>247</v>
       </c>
-      <c r="G62" t="s">
-        <v>439</v>
+      <c r="G62" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="H62" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I62" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J62" t="s">
-        <v>625</v>
+        <v>483</v>
       </c>
       <c r="K62" t="s">
-        <v>790</v>
+        <v>648</v>
       </c>
       <c r="L62" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A63" s="2">
         <v>45063</v>
       </c>
@@ -5466,26 +5500,26 @@
       <c r="F63" t="s">
         <v>248</v>
       </c>
-      <c r="G63" t="s">
-        <v>440</v>
+      <c r="G63" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="H63" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I63" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J63" t="s">
-        <v>626</v>
+        <v>484</v>
       </c>
       <c r="K63" t="s">
-        <v>791</v>
+        <v>649</v>
       </c>
       <c r="L63" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A64" s="2">
         <v>45064</v>
       </c>
@@ -5504,17 +5538,17 @@
       <c r="F64" t="s">
         <v>249</v>
       </c>
-      <c r="G64" t="s">
-        <v>441</v>
+      <c r="G64" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="H64" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I64" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A65" s="2">
         <v>45070</v>
       </c>
@@ -5533,26 +5567,26 @@
       <c r="F65" t="s">
         <v>250</v>
       </c>
-      <c r="G65" t="s">
-        <v>442</v>
+      <c r="G65" s="4" t="s">
+        <v>800</v>
       </c>
       <c r="H65" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I65" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J65" t="s">
-        <v>627</v>
+        <v>485</v>
       </c>
       <c r="K65" t="s">
-        <v>792</v>
+        <v>650</v>
       </c>
       <c r="L65" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A66" s="2">
         <v>45071</v>
       </c>
@@ -5571,26 +5605,26 @@
       <c r="F66" t="s">
         <v>251</v>
       </c>
-      <c r="G66" t="s">
-        <v>443</v>
+      <c r="G66" s="4" t="s">
+        <v>902</v>
       </c>
       <c r="H66" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I66" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J66" t="s">
-        <v>628</v>
+        <v>486</v>
       </c>
       <c r="K66" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="L66" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A67" s="2">
         <v>45071</v>
       </c>
@@ -5609,26 +5643,26 @@
       <c r="F67" t="s">
         <v>252</v>
       </c>
-      <c r="G67" t="s">
-        <v>444</v>
+      <c r="G67" s="4" t="s">
+        <v>801</v>
       </c>
       <c r="H67" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I67" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J67" t="s">
-        <v>629</v>
+        <v>487</v>
       </c>
       <c r="K67" t="s">
-        <v>793</v>
+        <v>651</v>
       </c>
       <c r="L67" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A68" s="2">
         <v>45073</v>
       </c>
@@ -5647,26 +5681,26 @@
       <c r="F68" t="s">
         <v>253</v>
       </c>
-      <c r="G68" t="s">
-        <v>445</v>
+      <c r="G68" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="H68" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I68" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J68" t="s">
-        <v>630</v>
+        <v>488</v>
       </c>
       <c r="K68" t="s">
-        <v>794</v>
+        <v>652</v>
       </c>
       <c r="L68" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A69" s="2">
         <v>45078</v>
       </c>
@@ -5685,26 +5719,26 @@
       <c r="F69" t="s">
         <v>254</v>
       </c>
-      <c r="G69" t="s">
-        <v>446</v>
+      <c r="G69" s="4" t="s">
+        <v>802</v>
       </c>
       <c r="H69" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I69" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J69" t="s">
-        <v>631</v>
+        <v>489</v>
       </c>
       <c r="K69" t="s">
-        <v>795</v>
+        <v>653</v>
       </c>
       <c r="L69" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A70" s="2">
         <v>45078</v>
       </c>
@@ -5723,26 +5757,26 @@
       <c r="F70" t="s">
         <v>255</v>
       </c>
-      <c r="G70" t="s">
-        <v>447</v>
+      <c r="G70" s="4" t="s">
+        <v>803</v>
       </c>
       <c r="H70" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I70" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J70" t="s">
-        <v>632</v>
+        <v>490</v>
       </c>
       <c r="K70" t="s">
-        <v>796</v>
+        <v>654</v>
       </c>
       <c r="L70" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A71" s="2">
         <v>45079</v>
       </c>
@@ -5761,26 +5795,26 @@
       <c r="F71" t="s">
         <v>256</v>
       </c>
-      <c r="G71" t="s">
-        <v>448</v>
+      <c r="G71" s="4" t="s">
+        <v>804</v>
       </c>
       <c r="H71" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I71" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J71" t="s">
-        <v>633</v>
+        <v>491</v>
       </c>
       <c r="K71" t="s">
-        <v>797</v>
+        <v>655</v>
       </c>
       <c r="L71" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A72" s="2">
         <v>45081</v>
       </c>
@@ -5799,26 +5833,26 @@
       <c r="F72" t="s">
         <v>257</v>
       </c>
-      <c r="G72" t="s">
-        <v>449</v>
+      <c r="G72" s="4" t="s">
+        <v>805</v>
       </c>
       <c r="H72" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I72" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J72" t="s">
-        <v>634</v>
+        <v>492</v>
       </c>
       <c r="K72" t="s">
-        <v>798</v>
+        <v>656</v>
       </c>
       <c r="L72" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A73" s="2">
         <v>45081</v>
       </c>
@@ -5837,26 +5871,26 @@
       <c r="F73" t="s">
         <v>258</v>
       </c>
-      <c r="G73" t="s">
-        <v>450</v>
+      <c r="G73" s="4" t="s">
+        <v>806</v>
       </c>
       <c r="H73" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I73" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J73" t="s">
-        <v>635</v>
+        <v>493</v>
       </c>
       <c r="K73" t="s">
-        <v>799</v>
+        <v>657</v>
       </c>
       <c r="L73" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A74" s="2">
         <v>45085</v>
       </c>
@@ -5875,26 +5909,26 @@
       <c r="F74" t="s">
         <v>259</v>
       </c>
-      <c r="G74" t="s">
-        <v>451</v>
+      <c r="G74" s="4" t="s">
+        <v>807</v>
       </c>
       <c r="H74" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I74" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J74" t="s">
-        <v>636</v>
+        <v>494</v>
       </c>
       <c r="K74" t="s">
-        <v>800</v>
+        <v>658</v>
       </c>
       <c r="L74" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A75" s="2">
         <v>45086</v>
       </c>
@@ -5913,26 +5947,26 @@
       <c r="F75" t="s">
         <v>260</v>
       </c>
-      <c r="G75" t="s">
-        <v>452</v>
+      <c r="G75" s="4" t="s">
+        <v>808</v>
       </c>
       <c r="H75" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I75" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J75" t="s">
-        <v>637</v>
+        <v>495</v>
       </c>
       <c r="K75" t="s">
-        <v>801</v>
+        <v>659</v>
       </c>
       <c r="L75" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A76" s="2">
         <v>45088</v>
       </c>
@@ -5951,26 +5985,26 @@
       <c r="F76" t="s">
         <v>261</v>
       </c>
-      <c r="G76" t="s">
-        <v>453</v>
+      <c r="G76" s="4" t="s">
+        <v>809</v>
       </c>
       <c r="H76" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I76" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J76" t="s">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="K76" t="s">
-        <v>802</v>
+        <v>660</v>
       </c>
       <c r="L76" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A77" s="2">
         <v>45094</v>
       </c>
@@ -5989,26 +6023,26 @@
       <c r="F77" t="s">
         <v>262</v>
       </c>
-      <c r="G77" t="s">
-        <v>454</v>
+      <c r="G77" s="4" t="s">
+        <v>810</v>
       </c>
       <c r="H77" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I77" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J77" t="s">
-        <v>639</v>
+        <v>497</v>
       </c>
       <c r="K77" t="s">
-        <v>803</v>
+        <v>661</v>
       </c>
       <c r="L77" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A78" s="2">
         <v>45096</v>
       </c>
@@ -6027,26 +6061,26 @@
       <c r="F78" t="s">
         <v>263</v>
       </c>
-      <c r="G78" t="s">
-        <v>455</v>
+      <c r="G78" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="H78" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I78" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J78" t="s">
-        <v>640</v>
+        <v>498</v>
       </c>
       <c r="K78" t="s">
-        <v>804</v>
+        <v>662</v>
       </c>
       <c r="L78" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A79" s="2">
         <v>45097</v>
       </c>
@@ -6065,26 +6099,26 @@
       <c r="F79" t="s">
         <v>264</v>
       </c>
-      <c r="G79" t="s">
-        <v>456</v>
+      <c r="G79" s="4" t="s">
+        <v>811</v>
       </c>
       <c r="H79" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I79" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J79" t="s">
-        <v>641</v>
+        <v>499</v>
       </c>
       <c r="K79" t="s">
-        <v>805</v>
+        <v>663</v>
       </c>
       <c r="L79" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A80" s="2">
         <v>45098</v>
       </c>
@@ -6103,26 +6137,26 @@
       <c r="F80" t="s">
         <v>265</v>
       </c>
-      <c r="G80" t="s">
-        <v>457</v>
+      <c r="G80" s="4" t="s">
+        <v>812</v>
       </c>
       <c r="H80" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I80" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J80" t="s">
-        <v>642</v>
+        <v>500</v>
       </c>
       <c r="K80" t="s">
-        <v>806</v>
+        <v>664</v>
       </c>
       <c r="L80" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A81" s="2">
         <v>45099</v>
       </c>
@@ -6141,26 +6175,26 @@
       <c r="F81" t="s">
         <v>266</v>
       </c>
-      <c r="G81" t="s">
-        <v>458</v>
+      <c r="G81" s="4" t="s">
+        <v>813</v>
       </c>
       <c r="H81" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I81" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J81" t="s">
-        <v>643</v>
+        <v>501</v>
       </c>
       <c r="K81" t="s">
-        <v>807</v>
+        <v>665</v>
       </c>
       <c r="L81" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A82" s="2">
         <v>45101</v>
       </c>
@@ -6179,26 +6213,26 @@
       <c r="F82" t="s">
         <v>267</v>
       </c>
-      <c r="G82" t="s">
-        <v>459</v>
+      <c r="G82" s="4" t="s">
+        <v>814</v>
       </c>
       <c r="H82" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I82" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J82" t="s">
-        <v>644</v>
+        <v>502</v>
       </c>
       <c r="K82" t="s">
-        <v>808</v>
+        <v>666</v>
       </c>
       <c r="L82" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A83" s="2">
         <v>45102</v>
       </c>
@@ -6217,26 +6251,26 @@
       <c r="F83" t="s">
         <v>268</v>
       </c>
-      <c r="G83" t="s">
-        <v>460</v>
+      <c r="G83" s="4" t="s">
+        <v>815</v>
       </c>
       <c r="H83" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I83" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J83" t="s">
-        <v>645</v>
+        <v>503</v>
       </c>
       <c r="K83" t="s">
-        <v>809</v>
+        <v>667</v>
       </c>
       <c r="L83" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A84" s="2">
         <v>45107</v>
       </c>
@@ -6255,26 +6289,26 @@
       <c r="F84" t="s">
         <v>269</v>
       </c>
-      <c r="G84" t="s">
-        <v>461</v>
+      <c r="G84" s="4" t="s">
+        <v>816</v>
       </c>
       <c r="H84" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I84" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J84" t="s">
-        <v>646</v>
+        <v>504</v>
       </c>
       <c r="K84" t="s">
-        <v>810</v>
+        <v>668</v>
       </c>
       <c r="L84" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A85" s="2">
         <v>45108</v>
       </c>
@@ -6293,26 +6327,26 @@
       <c r="F85" t="s">
         <v>270</v>
       </c>
-      <c r="G85" t="s">
-        <v>462</v>
+      <c r="G85" s="4" t="s">
+        <v>817</v>
       </c>
       <c r="H85" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I85" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J85" t="s">
-        <v>647</v>
+        <v>505</v>
       </c>
       <c r="K85" t="s">
-        <v>811</v>
+        <v>669</v>
       </c>
       <c r="L85" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A86" s="2">
         <v>45117</v>
       </c>
@@ -6331,26 +6365,26 @@
       <c r="F86" t="s">
         <v>271</v>
       </c>
-      <c r="G86" t="s">
-        <v>463</v>
+      <c r="G86" s="4" t="s">
+        <v>818</v>
       </c>
       <c r="H86" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I86" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J86" t="s">
-        <v>648</v>
+        <v>506</v>
       </c>
       <c r="K86" t="s">
-        <v>463</v>
+        <v>401</v>
       </c>
       <c r="L86" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A87" s="2">
         <v>45119</v>
       </c>
@@ -6369,26 +6403,26 @@
       <c r="F87" t="s">
         <v>272</v>
       </c>
-      <c r="G87" t="s">
-        <v>464</v>
+      <c r="G87" s="4" t="s">
+        <v>819</v>
       </c>
       <c r="H87" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I87" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J87" t="s">
-        <v>649</v>
+        <v>507</v>
       </c>
       <c r="K87" t="s">
-        <v>812</v>
+        <v>670</v>
       </c>
       <c r="L87" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A88" s="2">
         <v>45122</v>
       </c>
@@ -6407,26 +6441,26 @@
       <c r="F88" t="s">
         <v>273</v>
       </c>
-      <c r="G88" t="s">
-        <v>465</v>
+      <c r="G88" s="4" t="s">
+        <v>820</v>
       </c>
       <c r="H88" t="s">
-        <v>557</v>
+        <v>415</v>
       </c>
       <c r="I88" t="s">
-        <v>563</v>
+        <v>421</v>
       </c>
       <c r="J88" t="s">
-        <v>650</v>
+        <v>508</v>
       </c>
       <c r="K88" t="s">
-        <v>813</v>
+        <v>671</v>
       </c>
       <c r="L88" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A89" s="2">
         <v>45122</v>
       </c>
@@ -6445,26 +6479,26 @@
       <c r="F89" t="s">
         <v>274</v>
       </c>
-      <c r="G89" t="s">
-        <v>466</v>
+      <c r="G89" s="4" t="s">
+        <v>821</v>
       </c>
       <c r="H89" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I89" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J89" t="s">
-        <v>651</v>
+        <v>509</v>
       </c>
       <c r="K89" t="s">
-        <v>814</v>
+        <v>672</v>
       </c>
       <c r="L89" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A90" s="2">
         <v>45125</v>
       </c>
@@ -6483,26 +6517,26 @@
       <c r="F90" t="s">
         <v>275</v>
       </c>
-      <c r="G90" t="s">
-        <v>467</v>
+      <c r="G90" s="4" t="s">
+        <v>822</v>
       </c>
       <c r="H90" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I90" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J90" t="s">
-        <v>652</v>
+        <v>510</v>
       </c>
       <c r="K90" t="s">
-        <v>815</v>
+        <v>673</v>
       </c>
       <c r="L90" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A91" s="2">
         <v>45126</v>
       </c>
@@ -6521,26 +6555,26 @@
       <c r="F91" t="s">
         <v>276</v>
       </c>
-      <c r="G91" t="s">
-        <v>468</v>
+      <c r="G91" s="4" t="s">
+        <v>823</v>
       </c>
       <c r="H91" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I91" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J91" t="s">
-        <v>653</v>
+        <v>511</v>
       </c>
       <c r="K91" t="s">
-        <v>816</v>
+        <v>674</v>
       </c>
       <c r="L91" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A92" s="2">
         <v>45129</v>
       </c>
@@ -6559,26 +6593,26 @@
       <c r="F92" t="s">
         <v>277</v>
       </c>
-      <c r="G92" t="s">
-        <v>469</v>
+      <c r="G92" s="4" t="s">
+        <v>824</v>
       </c>
       <c r="H92" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I92" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J92" t="s">
-        <v>654</v>
+        <v>512</v>
       </c>
       <c r="K92" t="s">
-        <v>817</v>
+        <v>675</v>
       </c>
       <c r="L92" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A93" s="2">
         <v>45134</v>
       </c>
@@ -6597,23 +6631,23 @@
       <c r="F93" t="s">
         <v>278</v>
       </c>
-      <c r="G93" t="s">
-        <v>470</v>
+      <c r="G93" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="H93" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I93" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J93" t="s">
-        <v>655</v>
+        <v>513</v>
       </c>
       <c r="K93" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A94" s="2">
         <v>45135</v>
       </c>
@@ -6632,26 +6666,26 @@
       <c r="F94" t="s">
         <v>279</v>
       </c>
-      <c r="G94" t="s">
-        <v>471</v>
+      <c r="G94" s="4" t="s">
+        <v>825</v>
       </c>
       <c r="H94" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I94" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J94" t="s">
-        <v>656</v>
+        <v>514</v>
       </c>
       <c r="K94" t="s">
-        <v>819</v>
+        <v>677</v>
       </c>
       <c r="L94" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A95" s="2">
         <v>45136</v>
       </c>
@@ -6670,26 +6704,26 @@
       <c r="F95" t="s">
         <v>280</v>
       </c>
-      <c r="G95" t="s">
-        <v>472</v>
+      <c r="G95" s="4" t="s">
+        <v>826</v>
       </c>
       <c r="H95" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I95" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J95" t="s">
-        <v>657</v>
+        <v>515</v>
       </c>
       <c r="K95" t="s">
-        <v>820</v>
+        <v>678</v>
       </c>
       <c r="L95" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A96" s="2">
         <v>45136</v>
       </c>
@@ -6708,26 +6742,26 @@
       <c r="F96" t="s">
         <v>281</v>
       </c>
-      <c r="G96" t="s">
-        <v>473</v>
+      <c r="G96" s="4" t="s">
+        <v>827</v>
       </c>
       <c r="H96" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I96" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J96" t="s">
-        <v>658</v>
+        <v>516</v>
       </c>
       <c r="K96" t="s">
-        <v>817</v>
+        <v>675</v>
       </c>
       <c r="L96" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A97" s="2">
         <v>45136</v>
       </c>
@@ -6746,26 +6780,26 @@
       <c r="F97" t="s">
         <v>282</v>
       </c>
-      <c r="G97" t="s">
-        <v>474</v>
+      <c r="G97" s="4" t="s">
+        <v>828</v>
       </c>
       <c r="H97" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I97" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J97" t="s">
-        <v>659</v>
+        <v>517</v>
       </c>
       <c r="K97" t="s">
-        <v>821</v>
+        <v>679</v>
       </c>
       <c r="L97" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A98" s="2">
         <v>45137</v>
       </c>
@@ -6784,26 +6818,26 @@
       <c r="F98" t="s">
         <v>283</v>
       </c>
-      <c r="G98" t="s">
-        <v>475</v>
+      <c r="G98" s="4" t="s">
+        <v>829</v>
       </c>
       <c r="H98" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I98" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J98" t="s">
-        <v>660</v>
+        <v>518</v>
       </c>
       <c r="K98" t="s">
-        <v>822</v>
+        <v>680</v>
       </c>
       <c r="L98" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A99" s="2">
         <v>45138</v>
       </c>
@@ -6822,26 +6856,26 @@
       <c r="F99" t="s">
         <v>284</v>
       </c>
-      <c r="G99" t="s">
-        <v>476</v>
+      <c r="G99" s="4" t="s">
+        <v>830</v>
       </c>
       <c r="H99" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I99" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J99" t="s">
-        <v>661</v>
+        <v>519</v>
       </c>
       <c r="K99" t="s">
-        <v>823</v>
+        <v>681</v>
       </c>
       <c r="L99" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A100" s="2">
         <v>45139</v>
       </c>
@@ -6860,26 +6894,26 @@
       <c r="F100" t="s">
         <v>285</v>
       </c>
-      <c r="G100" t="s">
-        <v>477</v>
+      <c r="G100" s="4" t="s">
+        <v>403</v>
       </c>
       <c r="H100" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I100" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J100" t="s">
-        <v>662</v>
+        <v>520</v>
       </c>
       <c r="K100" t="s">
-        <v>824</v>
+        <v>682</v>
       </c>
       <c r="L100" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A101" s="2">
         <v>45139</v>
       </c>
@@ -6898,26 +6932,26 @@
       <c r="F101" t="s">
         <v>286</v>
       </c>
-      <c r="G101" t="s">
-        <v>478</v>
+      <c r="G101" s="4" t="s">
+        <v>831</v>
       </c>
       <c r="H101" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I101" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J101" t="s">
-        <v>663</v>
+        <v>521</v>
       </c>
       <c r="K101" t="s">
-        <v>825</v>
+        <v>683</v>
       </c>
       <c r="L101" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A102" s="2">
         <v>45140</v>
       </c>
@@ -6936,26 +6970,26 @@
       <c r="F102" t="s">
         <v>287</v>
       </c>
-      <c r="G102" t="s">
-        <v>479</v>
+      <c r="G102" s="4" t="s">
+        <v>832</v>
       </c>
       <c r="H102" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I102" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J102" t="s">
-        <v>664</v>
+        <v>522</v>
       </c>
       <c r="K102" t="s">
-        <v>826</v>
+        <v>684</v>
       </c>
       <c r="L102" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A103" s="2">
         <v>45142</v>
       </c>
@@ -6974,26 +7008,26 @@
       <c r="F103" t="s">
         <v>288</v>
       </c>
-      <c r="G103" t="s">
-        <v>480</v>
+      <c r="G103" s="4" t="s">
+        <v>833</v>
       </c>
       <c r="H103" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I103" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J103" t="s">
-        <v>665</v>
+        <v>523</v>
       </c>
       <c r="K103" t="s">
-        <v>827</v>
+        <v>685</v>
       </c>
       <c r="L103" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A104" s="2">
         <v>45144</v>
       </c>
@@ -7012,26 +7046,26 @@
       <c r="F104" t="s">
         <v>289</v>
       </c>
-      <c r="G104" t="s">
-        <v>481</v>
+      <c r="G104" s="4" t="s">
+        <v>834</v>
       </c>
       <c r="H104" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I104" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J104" t="s">
-        <v>666</v>
+        <v>524</v>
       </c>
       <c r="K104" t="s">
-        <v>828</v>
+        <v>686</v>
       </c>
       <c r="L104" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A105" s="2">
         <v>45145</v>
       </c>
@@ -7050,26 +7084,26 @@
       <c r="F105" t="s">
         <v>290</v>
       </c>
-      <c r="G105" t="s">
-        <v>482</v>
+      <c r="G105" s="4" t="s">
+        <v>835</v>
       </c>
       <c r="H105" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I105" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J105" t="s">
-        <v>667</v>
+        <v>525</v>
       </c>
       <c r="K105" t="s">
-        <v>829</v>
+        <v>687</v>
       </c>
       <c r="L105" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A106" s="2">
         <v>45145</v>
       </c>
@@ -7088,26 +7122,26 @@
       <c r="F106" t="s">
         <v>291</v>
       </c>
-      <c r="G106" t="s">
-        <v>483</v>
+      <c r="G106" s="4" t="s">
+        <v>836</v>
       </c>
       <c r="H106" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I106" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J106" t="s">
-        <v>668</v>
+        <v>526</v>
       </c>
       <c r="K106" t="s">
-        <v>830</v>
+        <v>688</v>
       </c>
       <c r="L106" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A107" s="2">
         <v>45146</v>
       </c>
@@ -7126,26 +7160,26 @@
       <c r="F107" t="s">
         <v>292</v>
       </c>
-      <c r="G107" t="s">
-        <v>484</v>
+      <c r="G107" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="H107" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I107" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J107" t="s">
-        <v>669</v>
+        <v>527</v>
       </c>
       <c r="K107" t="s">
-        <v>831</v>
+        <v>689</v>
       </c>
       <c r="L107" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A108" s="2">
         <v>45147</v>
       </c>
@@ -7164,26 +7198,26 @@
       <c r="F108" t="s">
         <v>293</v>
       </c>
-      <c r="G108" t="s">
-        <v>485</v>
+      <c r="G108" s="4" t="s">
+        <v>837</v>
       </c>
       <c r="H108" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I108" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J108" t="s">
-        <v>670</v>
+        <v>528</v>
       </c>
       <c r="K108" t="s">
-        <v>832</v>
+        <v>690</v>
       </c>
       <c r="L108" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A109" s="2">
         <v>45147</v>
       </c>
@@ -7202,26 +7236,26 @@
       <c r="F109" t="s">
         <v>294</v>
       </c>
-      <c r="G109" t="s">
-        <v>486</v>
+      <c r="G109" s="4" t="s">
+        <v>838</v>
       </c>
       <c r="H109" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I109" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J109" t="s">
-        <v>671</v>
+        <v>529</v>
       </c>
       <c r="K109" t="s">
-        <v>833</v>
+        <v>691</v>
       </c>
       <c r="L109" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A110" s="2">
         <v>45148</v>
       </c>
@@ -7240,26 +7274,26 @@
       <c r="F110" t="s">
         <v>295</v>
       </c>
-      <c r="G110" t="s">
-        <v>487</v>
+      <c r="G110" s="4" t="s">
+        <v>839</v>
       </c>
       <c r="H110" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I110" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J110" t="s">
-        <v>672</v>
+        <v>530</v>
       </c>
       <c r="K110" t="s">
-        <v>834</v>
+        <v>692</v>
       </c>
       <c r="L110" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A111" s="2">
         <v>45148</v>
       </c>
@@ -7278,26 +7312,26 @@
       <c r="F111" t="s">
         <v>296</v>
       </c>
-      <c r="G111" t="s">
-        <v>488</v>
+      <c r="G111" s="4" t="s">
+        <v>840</v>
       </c>
       <c r="H111" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I111" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J111" t="s">
-        <v>673</v>
+        <v>531</v>
       </c>
       <c r="K111" t="s">
-        <v>835</v>
+        <v>693</v>
       </c>
       <c r="L111" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A112" s="2">
         <v>45149</v>
       </c>
@@ -7316,26 +7350,26 @@
       <c r="F112" t="s">
         <v>297</v>
       </c>
-      <c r="G112" t="s">
-        <v>489</v>
+      <c r="G112" s="4" t="s">
+        <v>841</v>
       </c>
       <c r="H112" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I112" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J112" t="s">
-        <v>674</v>
+        <v>532</v>
       </c>
       <c r="K112" t="s">
-        <v>836</v>
+        <v>694</v>
       </c>
       <c r="L112" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A113" s="2">
         <v>45149</v>
       </c>
@@ -7354,26 +7388,26 @@
       <c r="F113" t="s">
         <v>298</v>
       </c>
-      <c r="G113" t="s">
-        <v>490</v>
+      <c r="G113" s="4" t="s">
+        <v>842</v>
       </c>
       <c r="H113" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I113" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J113" t="s">
-        <v>591</v>
+        <v>449</v>
       </c>
       <c r="K113" t="s">
-        <v>757</v>
+        <v>615</v>
       </c>
       <c r="L113" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A114" s="2">
         <v>45153</v>
       </c>
@@ -7392,26 +7426,26 @@
       <c r="F114" t="s">
         <v>299</v>
       </c>
-      <c r="G114" t="s">
-        <v>491</v>
+      <c r="G114" s="4" t="s">
+        <v>843</v>
       </c>
       <c r="H114" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I114" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J114" t="s">
-        <v>675</v>
+        <v>533</v>
       </c>
       <c r="K114" t="s">
-        <v>837</v>
+        <v>695</v>
       </c>
       <c r="L114" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A115" s="2">
         <v>45153</v>
       </c>
@@ -7430,26 +7464,26 @@
       <c r="F115" t="s">
         <v>300</v>
       </c>
-      <c r="G115" t="s">
-        <v>492</v>
+      <c r="G115" s="4" t="s">
+        <v>844</v>
       </c>
       <c r="H115" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I115" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J115" t="s">
-        <v>676</v>
+        <v>534</v>
       </c>
       <c r="K115" t="s">
-        <v>838</v>
+        <v>696</v>
       </c>
       <c r="L115" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A116" s="2">
         <v>45153</v>
       </c>
@@ -7468,26 +7502,26 @@
       <c r="F116" t="s">
         <v>301</v>
       </c>
-      <c r="G116" t="s">
-        <v>493</v>
+      <c r="G116" s="4" t="s">
+        <v>845</v>
       </c>
       <c r="H116" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I116" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J116" t="s">
-        <v>677</v>
+        <v>535</v>
       </c>
       <c r="K116" t="s">
-        <v>839</v>
+        <v>697</v>
       </c>
       <c r="L116" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A117" s="2">
         <v>45154</v>
       </c>
@@ -7506,26 +7540,26 @@
       <c r="F117" t="s">
         <v>302</v>
       </c>
-      <c r="G117" t="s">
-        <v>494</v>
+      <c r="G117" s="4" t="s">
+        <v>846</v>
       </c>
       <c r="H117" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I117" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J117" t="s">
-        <v>678</v>
+        <v>536</v>
       </c>
       <c r="K117" t="s">
-        <v>840</v>
+        <v>698</v>
       </c>
       <c r="L117" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A118" s="2">
         <v>45154</v>
       </c>
@@ -7544,26 +7578,26 @@
       <c r="F118" t="s">
         <v>303</v>
       </c>
-      <c r="G118" t="s">
-        <v>495</v>
+      <c r="G118" s="4" t="s">
+        <v>847</v>
       </c>
       <c r="H118" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I118" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J118" t="s">
-        <v>679</v>
+        <v>537</v>
       </c>
       <c r="K118" t="s">
-        <v>841</v>
+        <v>699</v>
       </c>
       <c r="L118" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A119" s="2">
         <v>45154</v>
       </c>
@@ -7582,26 +7616,26 @@
       <c r="F119" t="s">
         <v>304</v>
       </c>
-      <c r="G119" t="s">
-        <v>496</v>
+      <c r="G119" s="4" t="s">
+        <v>848</v>
       </c>
       <c r="H119" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I119" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J119" t="s">
-        <v>680</v>
+        <v>538</v>
       </c>
       <c r="K119" t="s">
-        <v>842</v>
+        <v>700</v>
       </c>
       <c r="L119" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A120" s="2">
         <v>45155</v>
       </c>
@@ -7620,26 +7654,26 @@
       <c r="F120" t="s">
         <v>305</v>
       </c>
-      <c r="G120" t="s">
-        <v>497</v>
+      <c r="G120" s="4" t="s">
+        <v>849</v>
       </c>
       <c r="H120" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I120" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J120" t="s">
-        <v>681</v>
+        <v>539</v>
       </c>
       <c r="K120" t="s">
-        <v>843</v>
+        <v>701</v>
       </c>
       <c r="L120" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A121" s="2">
         <v>45155</v>
       </c>
@@ -7658,17 +7692,17 @@
       <c r="F121" t="s">
         <v>306</v>
       </c>
-      <c r="G121" t="s">
-        <v>498</v>
+      <c r="G121" s="4" t="s">
+        <v>850</v>
       </c>
       <c r="H121" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I121" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A122" s="2">
         <v>45155</v>
       </c>
@@ -7687,26 +7721,26 @@
       <c r="F122" t="s">
         <v>307</v>
       </c>
-      <c r="G122" t="s">
-        <v>499</v>
+      <c r="G122" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="H122" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I122" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J122" t="s">
-        <v>682</v>
+        <v>540</v>
       </c>
       <c r="K122" t="s">
-        <v>844</v>
+        <v>702</v>
       </c>
       <c r="L122" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A123" s="2">
         <v>45157</v>
       </c>
@@ -7725,26 +7759,26 @@
       <c r="F123" t="s">
         <v>308</v>
       </c>
-      <c r="G123" t="s">
-        <v>500</v>
+      <c r="G123" s="4" t="s">
+        <v>851</v>
       </c>
       <c r="H123" t="s">
-        <v>557</v>
+        <v>415</v>
       </c>
       <c r="I123" t="s">
-        <v>563</v>
+        <v>421</v>
       </c>
       <c r="J123" t="s">
-        <v>683</v>
+        <v>541</v>
       </c>
       <c r="K123" t="s">
-        <v>845</v>
+        <v>703</v>
       </c>
       <c r="L123" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A124" s="2">
         <v>45157</v>
       </c>
@@ -7763,26 +7797,26 @@
       <c r="F124" t="s">
         <v>309</v>
       </c>
-      <c r="G124" t="s">
-        <v>501</v>
+      <c r="G124" s="4" t="s">
+        <v>852</v>
       </c>
       <c r="H124" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I124" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J124" t="s">
-        <v>684</v>
+        <v>542</v>
       </c>
       <c r="K124" t="s">
-        <v>846</v>
+        <v>704</v>
       </c>
       <c r="L124" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A125" s="2">
         <v>45158</v>
       </c>
@@ -7801,26 +7835,26 @@
       <c r="F125" t="s">
         <v>310</v>
       </c>
-      <c r="G125" t="s">
-        <v>502</v>
+      <c r="G125" s="4" t="s">
+        <v>853</v>
       </c>
       <c r="H125" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I125" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J125" t="s">
-        <v>685</v>
+        <v>543</v>
       </c>
       <c r="K125" t="s">
-        <v>847</v>
+        <v>705</v>
       </c>
       <c r="L125" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A126" s="2">
         <v>45159</v>
       </c>
@@ -7839,26 +7873,26 @@
       <c r="F126" t="s">
         <v>311</v>
       </c>
-      <c r="G126" t="s">
-        <v>503</v>
+      <c r="G126" s="4" t="s">
+        <v>854</v>
       </c>
       <c r="H126" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I126" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J126" t="s">
-        <v>686</v>
+        <v>544</v>
       </c>
       <c r="K126" t="s">
-        <v>848</v>
+        <v>706</v>
       </c>
       <c r="L126" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A127" s="2">
         <v>45160</v>
       </c>
@@ -7877,26 +7911,26 @@
       <c r="F127" t="s">
         <v>312</v>
       </c>
-      <c r="G127" t="s">
-        <v>504</v>
+      <c r="G127" s="4" t="s">
+        <v>855</v>
       </c>
       <c r="H127" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I127" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J127" t="s">
-        <v>687</v>
+        <v>545</v>
       </c>
       <c r="K127" t="s">
-        <v>849</v>
+        <v>707</v>
       </c>
       <c r="L127" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A128" s="2">
         <v>45160</v>
       </c>
@@ -7915,26 +7949,26 @@
       <c r="F128" t="s">
         <v>313</v>
       </c>
-      <c r="G128" t="s">
-        <v>505</v>
+      <c r="G128" s="4" t="s">
+        <v>856</v>
       </c>
       <c r="H128" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I128" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J128" t="s">
-        <v>688</v>
+        <v>546</v>
       </c>
       <c r="K128" t="s">
-        <v>850</v>
+        <v>708</v>
       </c>
       <c r="L128" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A129" s="2">
         <v>45161</v>
       </c>
@@ -7953,26 +7987,26 @@
       <c r="F129" t="s">
         <v>314</v>
       </c>
-      <c r="G129" t="s">
-        <v>506</v>
+      <c r="G129" s="4" t="s">
+        <v>857</v>
       </c>
       <c r="H129" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I129" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J129" t="s">
-        <v>689</v>
+        <v>547</v>
       </c>
       <c r="K129" t="s">
-        <v>851</v>
+        <v>709</v>
       </c>
       <c r="L129" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A130" s="2">
         <v>45161</v>
       </c>
@@ -7991,26 +8025,26 @@
       <c r="F130" t="s">
         <v>315</v>
       </c>
-      <c r="G130" t="s">
-        <v>507</v>
+      <c r="G130" s="4" t="s">
+        <v>858</v>
       </c>
       <c r="H130" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I130" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J130" t="s">
-        <v>690</v>
+        <v>548</v>
       </c>
       <c r="K130" t="s">
-        <v>852</v>
+        <v>710</v>
       </c>
       <c r="L130" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A131" s="2">
         <v>45162</v>
       </c>
@@ -8029,26 +8063,26 @@
       <c r="F131" t="s">
         <v>316</v>
       </c>
-      <c r="G131" t="s">
-        <v>508</v>
+      <c r="G131" s="4" t="s">
+        <v>859</v>
       </c>
       <c r="H131" t="s">
-        <v>557</v>
+        <v>415</v>
       </c>
       <c r="I131" t="s">
-        <v>563</v>
+        <v>421</v>
       </c>
       <c r="J131" t="s">
-        <v>691</v>
+        <v>549</v>
       </c>
       <c r="K131" t="s">
-        <v>853</v>
+        <v>711</v>
       </c>
       <c r="L131" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A132" s="2">
         <v>45162</v>
       </c>
@@ -8067,26 +8101,26 @@
       <c r="F132" t="s">
         <v>317</v>
       </c>
-      <c r="G132" t="s">
-        <v>509</v>
+      <c r="G132" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="H132" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I132" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J132" t="s">
-        <v>692</v>
+        <v>550</v>
       </c>
       <c r="K132" t="s">
-        <v>854</v>
+        <v>712</v>
       </c>
       <c r="L132" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A133" s="2">
         <v>45162</v>
       </c>
@@ -8105,17 +8139,17 @@
       <c r="F133" t="s">
         <v>318</v>
       </c>
-      <c r="G133" t="s">
-        <v>510</v>
+      <c r="G133" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="H133" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I133" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A134" s="2">
         <v>45167</v>
       </c>
@@ -8134,26 +8168,26 @@
       <c r="F134" t="s">
         <v>319</v>
       </c>
-      <c r="G134" t="s">
-        <v>511</v>
+      <c r="G134" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="H134" t="s">
-        <v>557</v>
+        <v>415</v>
       </c>
       <c r="I134" t="s">
-        <v>563</v>
+        <v>421</v>
       </c>
       <c r="J134" t="s">
-        <v>693</v>
+        <v>551</v>
       </c>
       <c r="K134" t="s">
-        <v>855</v>
+        <v>713</v>
       </c>
       <c r="L134" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A135" s="2">
         <v>45168</v>
       </c>
@@ -8172,26 +8206,26 @@
       <c r="F135" t="s">
         <v>320</v>
       </c>
-      <c r="G135" t="s">
-        <v>512</v>
+      <c r="G135" s="4" t="s">
+        <v>860</v>
       </c>
       <c r="H135" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I135" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J135" t="s">
-        <v>694</v>
+        <v>552</v>
       </c>
       <c r="K135" t="s">
-        <v>856</v>
+        <v>714</v>
       </c>
       <c r="L135" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A136" s="2">
         <v>45168</v>
       </c>
@@ -8210,26 +8244,26 @@
       <c r="F136" t="s">
         <v>321</v>
       </c>
-      <c r="G136" t="s">
-        <v>513</v>
+      <c r="G136" s="4" t="s">
+        <v>861</v>
       </c>
       <c r="H136" t="s">
+        <v>411</v>
+      </c>
+      <c r="I136" t="s">
+        <v>417</v>
+      </c>
+      <c r="J136" t="s">
         <v>553</v>
       </c>
-      <c r="I136" t="s">
-        <v>559</v>
-      </c>
-      <c r="J136" t="s">
-        <v>695</v>
-      </c>
       <c r="K136" t="s">
-        <v>857</v>
+        <v>715</v>
       </c>
       <c r="L136" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A137" s="2">
         <v>45169</v>
       </c>
@@ -8248,26 +8282,26 @@
       <c r="F137" t="s">
         <v>322</v>
       </c>
-      <c r="G137" t="s">
-        <v>514</v>
+      <c r="G137" s="4" t="s">
+        <v>862</v>
       </c>
       <c r="H137" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I137" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J137" t="s">
-        <v>616</v>
+        <v>474</v>
       </c>
       <c r="K137" t="s">
-        <v>781</v>
+        <v>639</v>
       </c>
       <c r="L137" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A138" s="2">
         <v>45169</v>
       </c>
@@ -8286,26 +8320,26 @@
       <c r="F138" t="s">
         <v>323</v>
       </c>
-      <c r="G138" t="s">
-        <v>515</v>
+      <c r="G138" s="4" t="s">
+        <v>863</v>
       </c>
       <c r="H138" t="s">
+        <v>412</v>
+      </c>
+      <c r="I138" t="s">
+        <v>418</v>
+      </c>
+      <c r="J138" t="s">
         <v>554</v>
       </c>
-      <c r="I138" t="s">
-        <v>560</v>
-      </c>
-      <c r="J138" t="s">
-        <v>696</v>
-      </c>
       <c r="K138" t="s">
-        <v>858</v>
+        <v>716</v>
       </c>
       <c r="L138" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A139" s="2">
         <v>45169</v>
       </c>
@@ -8324,26 +8358,26 @@
       <c r="F139" t="s">
         <v>324</v>
       </c>
-      <c r="G139" t="s">
-        <v>516</v>
+      <c r="G139" s="4" t="s">
+        <v>864</v>
       </c>
       <c r="H139" t="s">
+        <v>413</v>
+      </c>
+      <c r="I139" t="s">
+        <v>419</v>
+      </c>
+      <c r="J139" t="s">
         <v>555</v>
       </c>
-      <c r="I139" t="s">
-        <v>561</v>
-      </c>
-      <c r="J139" t="s">
-        <v>697</v>
-      </c>
       <c r="K139" t="s">
-        <v>859</v>
+        <v>717</v>
       </c>
       <c r="L139" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A140" s="2">
         <v>45170</v>
       </c>
@@ -8362,17 +8396,17 @@
       <c r="F140" t="s">
         <v>325</v>
       </c>
-      <c r="G140" t="s">
-        <v>517</v>
+      <c r="G140" s="4" t="s">
+        <v>865</v>
       </c>
       <c r="H140" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I140" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A141" s="2">
         <v>45171</v>
       </c>
@@ -8391,26 +8425,26 @@
       <c r="F141" t="s">
         <v>326</v>
       </c>
-      <c r="G141" t="s">
-        <v>518</v>
+      <c r="G141" s="4" t="s">
+        <v>866</v>
       </c>
       <c r="H141" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I141" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J141" t="s">
-        <v>698</v>
+        <v>556</v>
       </c>
       <c r="K141" t="s">
-        <v>860</v>
+        <v>718</v>
       </c>
       <c r="L141" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A142" s="2">
         <v>45174</v>
       </c>
@@ -8429,26 +8463,26 @@
       <c r="F142" t="s">
         <v>327</v>
       </c>
-      <c r="G142" t="s">
-        <v>519</v>
+      <c r="G142" s="4" t="s">
+        <v>867</v>
       </c>
       <c r="H142" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I142" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J142" t="s">
-        <v>699</v>
+        <v>557</v>
       </c>
       <c r="K142" t="s">
-        <v>861</v>
+        <v>719</v>
       </c>
       <c r="L142" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A143" s="2">
         <v>45174</v>
       </c>
@@ -8467,26 +8501,26 @@
       <c r="F143" t="s">
         <v>328</v>
       </c>
-      <c r="G143" t="s">
-        <v>520</v>
+      <c r="G143" s="4" t="s">
+        <v>868</v>
       </c>
       <c r="H143" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I143" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J143" t="s">
-        <v>700</v>
+        <v>558</v>
       </c>
       <c r="K143" t="s">
-        <v>862</v>
+        <v>720</v>
       </c>
       <c r="L143" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A144" s="2">
         <v>45177</v>
       </c>
@@ -8505,26 +8539,26 @@
       <c r="F144" t="s">
         <v>283</v>
       </c>
-      <c r="G144" t="s">
-        <v>475</v>
+      <c r="G144" s="4" t="s">
+        <v>869</v>
       </c>
       <c r="H144" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I144" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J144" t="s">
-        <v>660</v>
+        <v>518</v>
       </c>
       <c r="K144" t="s">
-        <v>863</v>
+        <v>721</v>
       </c>
       <c r="L144" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A145" s="2">
         <v>45177</v>
       </c>
@@ -8543,26 +8577,26 @@
       <c r="F145" t="s">
         <v>329</v>
       </c>
-      <c r="G145" t="s">
-        <v>521</v>
+      <c r="G145" s="4" t="s">
+        <v>870</v>
       </c>
       <c r="H145" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I145" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J145" t="s">
-        <v>701</v>
+        <v>559</v>
       </c>
       <c r="K145" t="s">
-        <v>864</v>
+        <v>722</v>
       </c>
       <c r="L145" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A146" s="2">
         <v>45177</v>
       </c>
@@ -8581,26 +8615,26 @@
       <c r="F146" t="s">
         <v>330</v>
       </c>
-      <c r="G146" t="s">
-        <v>522</v>
+      <c r="G146" s="4" t="s">
+        <v>871</v>
       </c>
       <c r="H146" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I146" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J146" t="s">
-        <v>702</v>
+        <v>560</v>
       </c>
       <c r="K146" t="s">
-        <v>865</v>
+        <v>723</v>
       </c>
       <c r="L146" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A147" s="2">
         <v>45178</v>
       </c>
@@ -8619,26 +8653,26 @@
       <c r="F147" t="s">
         <v>331</v>
       </c>
-      <c r="G147" t="s">
-        <v>523</v>
+      <c r="G147" s="4" t="s">
+        <v>872</v>
       </c>
       <c r="H147" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I147" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J147" t="s">
-        <v>703</v>
+        <v>561</v>
       </c>
       <c r="K147" t="s">
-        <v>866</v>
+        <v>724</v>
       </c>
       <c r="L147" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A148" s="2">
         <v>45182</v>
       </c>
@@ -8657,26 +8691,26 @@
       <c r="F148" t="s">
         <v>332</v>
       </c>
-      <c r="G148" t="s">
-        <v>524</v>
+      <c r="G148" s="4" t="s">
+        <v>873</v>
       </c>
       <c r="H148" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I148" t="s">
+        <v>420</v>
+      </c>
+      <c r="J148" t="s">
         <v>562</v>
       </c>
-      <c r="J148" t="s">
-        <v>704</v>
-      </c>
       <c r="K148" t="s">
-        <v>867</v>
+        <v>725</v>
       </c>
       <c r="L148" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A149" s="2">
         <v>45183</v>
       </c>
@@ -8695,26 +8729,26 @@
       <c r="F149" t="s">
         <v>333</v>
       </c>
-      <c r="G149" t="s">
-        <v>525</v>
+      <c r="G149" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="H149" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I149" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J149" t="s">
-        <v>705</v>
+        <v>563</v>
       </c>
       <c r="K149" t="s">
-        <v>868</v>
+        <v>726</v>
       </c>
       <c r="L149" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A150" s="2">
         <v>45186</v>
       </c>
@@ -8733,26 +8767,26 @@
       <c r="F150" t="s">
         <v>334</v>
       </c>
-      <c r="G150" t="s">
-        <v>526</v>
+      <c r="G150" s="4" t="s">
+        <v>874</v>
       </c>
       <c r="H150" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I150" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J150" t="s">
-        <v>706</v>
+        <v>564</v>
       </c>
       <c r="K150" t="s">
-        <v>869</v>
+        <v>727</v>
       </c>
       <c r="L150" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A151" s="2">
         <v>45187</v>
       </c>
@@ -8771,26 +8805,26 @@
       <c r="F151" t="s">
         <v>335</v>
       </c>
-      <c r="G151" t="s">
-        <v>527</v>
+      <c r="G151" s="4" t="s">
+        <v>875</v>
       </c>
       <c r="H151" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I151" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J151" t="s">
-        <v>707</v>
+        <v>565</v>
       </c>
       <c r="K151" t="s">
-        <v>870</v>
+        <v>728</v>
       </c>
       <c r="L151" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A152" s="2">
         <v>45187</v>
       </c>
@@ -8809,26 +8843,26 @@
       <c r="F152" t="s">
         <v>336</v>
       </c>
-      <c r="G152" t="s">
-        <v>528</v>
+      <c r="G152" s="4" t="s">
+        <v>876</v>
       </c>
       <c r="H152" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I152" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J152" t="s">
-        <v>708</v>
+        <v>566</v>
       </c>
       <c r="K152" t="s">
-        <v>871</v>
+        <v>729</v>
       </c>
       <c r="L152" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A153" s="2">
         <v>45187</v>
       </c>
@@ -8847,26 +8881,26 @@
       <c r="F153" t="s">
         <v>337</v>
       </c>
-      <c r="G153" t="s">
-        <v>529</v>
+      <c r="G153" s="4" t="s">
+        <v>877</v>
       </c>
       <c r="H153" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I153" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J153" t="s">
-        <v>709</v>
+        <v>567</v>
       </c>
       <c r="K153" t="s">
-        <v>872</v>
+        <v>730</v>
       </c>
       <c r="L153" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A154" s="2">
         <v>45187</v>
       </c>
@@ -8885,17 +8919,17 @@
       <c r="F154" t="s">
         <v>338</v>
       </c>
-      <c r="G154" t="s">
-        <v>530</v>
+      <c r="G154" s="4" t="s">
+        <v>878</v>
       </c>
       <c r="H154" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I154" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A155" s="2">
         <v>45187</v>
       </c>
@@ -8914,26 +8948,26 @@
       <c r="F155" t="s">
         <v>339</v>
       </c>
-      <c r="G155" t="s">
-        <v>531</v>
+      <c r="G155" s="4" t="s">
+        <v>879</v>
       </c>
       <c r="H155" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I155" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J155" t="s">
-        <v>710</v>
+        <v>568</v>
       </c>
       <c r="K155" t="s">
-        <v>873</v>
+        <v>731</v>
       </c>
       <c r="L155" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A156" s="2">
         <v>45188</v>
       </c>
@@ -8952,26 +8986,26 @@
       <c r="F156" t="s">
         <v>340</v>
       </c>
-      <c r="G156" t="s">
-        <v>532</v>
+      <c r="G156" s="4" t="s">
+        <v>880</v>
       </c>
       <c r="H156" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I156" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J156" t="s">
-        <v>711</v>
+        <v>569</v>
       </c>
       <c r="K156" t="s">
-        <v>874</v>
+        <v>732</v>
       </c>
       <c r="L156" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A157" s="2">
         <v>45189</v>
       </c>
@@ -8990,26 +9024,26 @@
       <c r="F157" t="s">
         <v>341</v>
       </c>
-      <c r="G157" t="s">
-        <v>533</v>
+      <c r="G157" s="4" t="s">
+        <v>881</v>
       </c>
       <c r="H157" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I157" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J157" t="s">
-        <v>712</v>
+        <v>570</v>
       </c>
       <c r="K157" t="s">
-        <v>875</v>
+        <v>733</v>
       </c>
       <c r="L157" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A158" s="2">
         <v>45190</v>
       </c>
@@ -9028,26 +9062,26 @@
       <c r="F158" t="s">
         <v>342</v>
       </c>
-      <c r="G158" t="s">
-        <v>534</v>
+      <c r="G158" s="4" t="s">
+        <v>882</v>
       </c>
       <c r="H158" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I158" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J158" t="s">
-        <v>713</v>
+        <v>571</v>
       </c>
       <c r="K158" t="s">
-        <v>876</v>
+        <v>734</v>
       </c>
       <c r="L158" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A159" s="2">
         <v>45191</v>
       </c>
@@ -9066,26 +9100,26 @@
       <c r="F159" t="s">
         <v>343</v>
       </c>
-      <c r="G159" t="s">
-        <v>535</v>
+      <c r="G159" s="4" t="s">
+        <v>883</v>
       </c>
       <c r="H159" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I159" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J159" t="s">
-        <v>714</v>
+        <v>572</v>
       </c>
       <c r="K159" t="s">
-        <v>877</v>
+        <v>735</v>
       </c>
       <c r="L159" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A160" s="2">
         <v>45191</v>
       </c>
@@ -9104,26 +9138,26 @@
       <c r="F160" t="s">
         <v>344</v>
       </c>
-      <c r="G160" t="s">
-        <v>536</v>
+      <c r="G160" s="4" t="s">
+        <v>884</v>
       </c>
       <c r="H160" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I160" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J160" t="s">
-        <v>715</v>
+        <v>573</v>
       </c>
       <c r="K160" t="s">
-        <v>878</v>
+        <v>736</v>
       </c>
       <c r="L160" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A161" s="2">
         <v>45192</v>
       </c>
@@ -9142,26 +9176,26 @@
       <c r="F161" t="s">
         <v>345</v>
       </c>
-      <c r="G161" t="s">
-        <v>537</v>
+      <c r="G161" s="4" t="s">
+        <v>885</v>
       </c>
       <c r="H161" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I161" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J161" t="s">
-        <v>716</v>
+        <v>574</v>
       </c>
       <c r="K161" t="s">
-        <v>879</v>
+        <v>737</v>
       </c>
       <c r="L161" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A162" s="2">
         <v>45194</v>
       </c>
@@ -9180,26 +9214,26 @@
       <c r="F162" t="s">
         <v>346</v>
       </c>
-      <c r="G162" t="s">
-        <v>538</v>
+      <c r="G162" s="4" t="s">
+        <v>886</v>
       </c>
       <c r="H162" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I162" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J162" t="s">
-        <v>717</v>
+        <v>575</v>
       </c>
       <c r="K162" t="s">
-        <v>880</v>
+        <v>738</v>
       </c>
       <c r="L162" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A163" s="2">
         <v>45196</v>
       </c>
@@ -9218,26 +9252,26 @@
       <c r="F163" t="s">
         <v>347</v>
       </c>
-      <c r="G163" t="s">
-        <v>539</v>
+      <c r="G163" s="4" t="s">
+        <v>887</v>
       </c>
       <c r="H163" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I163" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J163" t="s">
-        <v>718</v>
+        <v>576</v>
       </c>
       <c r="K163" t="s">
-        <v>881</v>
+        <v>739</v>
       </c>
       <c r="L163" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A164" s="2">
         <v>45196</v>
       </c>
@@ -9256,26 +9290,26 @@
       <c r="F164" t="s">
         <v>348</v>
       </c>
-      <c r="G164" t="s">
-        <v>540</v>
+      <c r="G164" s="4" t="s">
+        <v>888</v>
       </c>
       <c r="H164" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I164" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J164" t="s">
-        <v>719</v>
+        <v>577</v>
       </c>
       <c r="K164" t="s">
-        <v>882</v>
+        <v>740</v>
       </c>
       <c r="L164" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A165" s="2">
         <v>45198</v>
       </c>
@@ -9294,26 +9328,26 @@
       <c r="F165" t="s">
         <v>349</v>
       </c>
-      <c r="G165" t="s">
-        <v>541</v>
+      <c r="G165" s="4" t="s">
+        <v>889</v>
       </c>
       <c r="H165" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I165" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J165" t="s">
-        <v>720</v>
+        <v>578</v>
       </c>
       <c r="K165" t="s">
-        <v>883</v>
+        <v>741</v>
       </c>
       <c r="L165" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A166" s="2">
         <v>45199</v>
       </c>
@@ -9332,26 +9366,26 @@
       <c r="F166" t="s">
         <v>350</v>
       </c>
-      <c r="G166" t="s">
-        <v>542</v>
+      <c r="G166" s="4" t="s">
+        <v>890</v>
       </c>
       <c r="H166" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I166" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J166" t="s">
-        <v>721</v>
+        <v>579</v>
       </c>
       <c r="K166" t="s">
-        <v>884</v>
+        <v>742</v>
       </c>
       <c r="L166" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="118" x14ac:dyDescent="0.75">
       <c r="A167" s="2">
         <v>45200</v>
       </c>
@@ -9370,26 +9404,26 @@
       <c r="F167" t="s">
         <v>351</v>
       </c>
-      <c r="G167" t="s">
-        <v>543</v>
+      <c r="G167" s="4" t="s">
+        <v>891</v>
       </c>
       <c r="H167" t="s">
-        <v>555</v>
+        <v>413</v>
       </c>
       <c r="I167" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
       <c r="J167" t="s">
-        <v>722</v>
+        <v>580</v>
       </c>
       <c r="K167" t="s">
-        <v>885</v>
+        <v>743</v>
       </c>
       <c r="L167" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A168" s="2">
         <v>45200</v>
       </c>
@@ -9408,23 +9442,23 @@
       <c r="F168" t="s">
         <v>352</v>
       </c>
-      <c r="G168" t="s">
-        <v>544</v>
+      <c r="G168" s="4" t="s">
+        <v>892</v>
       </c>
       <c r="H168" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I168" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J168" t="s">
-        <v>723</v>
+        <v>581</v>
       </c>
       <c r="K168" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="59" x14ac:dyDescent="0.75">
       <c r="A169" s="2">
         <v>45201</v>
       </c>
@@ -9443,26 +9477,26 @@
       <c r="F169" t="s">
         <v>353</v>
       </c>
-      <c r="G169" t="s">
-        <v>545</v>
+      <c r="G169" s="4" t="s">
+        <v>893</v>
       </c>
       <c r="H169" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I169" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J169" t="s">
-        <v>724</v>
+        <v>582</v>
       </c>
       <c r="K169" t="s">
-        <v>887</v>
+        <v>745</v>
       </c>
       <c r="L169" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A170" s="2">
         <v>45204</v>
       </c>
@@ -9481,26 +9515,26 @@
       <c r="F170" t="s">
         <v>354</v>
       </c>
-      <c r="G170" t="s">
-        <v>546</v>
+      <c r="G170" s="4" t="s">
+        <v>894</v>
       </c>
       <c r="H170" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I170" t="s">
-        <v>562</v>
+        <v>420</v>
       </c>
       <c r="J170" t="s">
-        <v>725</v>
+        <v>583</v>
       </c>
       <c r="K170" t="s">
-        <v>888</v>
+        <v>746</v>
       </c>
       <c r="L170" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A171" s="2">
         <v>45204</v>
       </c>
@@ -9519,26 +9553,26 @@
       <c r="F171" t="s">
         <v>355</v>
       </c>
-      <c r="G171" t="s">
-        <v>547</v>
+      <c r="G171" s="4" t="s">
+        <v>895</v>
       </c>
       <c r="H171" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I171" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J171" t="s">
-        <v>726</v>
+        <v>584</v>
       </c>
       <c r="K171" t="s">
-        <v>889</v>
+        <v>747</v>
       </c>
       <c r="L171" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A172" s="2">
         <v>45206</v>
       </c>
@@ -9557,26 +9591,26 @@
       <c r="F172" t="s">
         <v>356</v>
       </c>
-      <c r="G172" t="s">
-        <v>548</v>
+      <c r="G172" s="4" t="s">
+        <v>896</v>
       </c>
       <c r="H172" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I172" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J172" t="s">
-        <v>727</v>
+        <v>585</v>
       </c>
       <c r="K172" t="s">
-        <v>548</v>
+        <v>410</v>
       </c>
       <c r="L172" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A173" s="2">
         <v>45212</v>
       </c>
@@ -9595,26 +9629,26 @@
       <c r="F173" t="s">
         <v>357</v>
       </c>
-      <c r="G173" t="s">
-        <v>549</v>
+      <c r="G173" s="4" t="s">
+        <v>897</v>
       </c>
       <c r="H173" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I173" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
       <c r="J173" t="s">
-        <v>728</v>
+        <v>586</v>
       </c>
       <c r="K173" t="s">
-        <v>890</v>
+        <v>748</v>
       </c>
       <c r="L173" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A174" s="2">
         <v>45216</v>
       </c>
@@ -9633,26 +9667,26 @@
       <c r="F174" t="s">
         <v>358</v>
       </c>
-      <c r="G174" t="s">
-        <v>550</v>
+      <c r="G174" s="4" t="s">
+        <v>898</v>
       </c>
       <c r="H174" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I174" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J174" t="s">
-        <v>729</v>
+        <v>587</v>
       </c>
       <c r="K174" t="s">
-        <v>891</v>
+        <v>749</v>
       </c>
       <c r="L174" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A175" s="2">
         <v>45230</v>
       </c>
@@ -9671,26 +9705,26 @@
       <c r="F175" t="s">
         <v>359</v>
       </c>
-      <c r="G175" t="s">
-        <v>551</v>
+      <c r="G175" s="4" t="s">
+        <v>899</v>
       </c>
       <c r="H175" t="s">
-        <v>554</v>
+        <v>412</v>
       </c>
       <c r="I175" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="J175" t="s">
-        <v>667</v>
+        <v>525</v>
       </c>
       <c r="K175" t="s">
-        <v>892</v>
+        <v>750</v>
       </c>
       <c r="L175" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A176" s="2">
         <v>45246</v>
       </c>
@@ -9709,221 +9743,221 @@
       <c r="F176" t="s">
         <v>360</v>
       </c>
-      <c r="G176" t="s">
-        <v>552</v>
+      <c r="G176" s="4" t="s">
+        <v>900</v>
       </c>
       <c r="H176" t="s">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="I176" t="s">
-        <v>564</v>
+        <v>422</v>
       </c>
       <c r="J176" t="s">
-        <v>730</v>
+        <v>588</v>
       </c>
       <c r="K176" t="s">
-        <v>893</v>
+        <v>751</v>
       </c>
       <c r="L176" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="177" spans="6:9">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="177" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F177" t="s">
         <v>361</v>
       </c>
       <c r="H177" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I177" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="178" spans="6:9">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="178" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F178" t="s">
         <v>362</v>
       </c>
       <c r="H178" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I178" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="179" spans="6:9">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="179" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F179" t="s">
         <v>363</v>
       </c>
       <c r="H179" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I179" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="180" spans="6:9">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="180" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F180" t="s">
         <v>364</v>
       </c>
       <c r="H180" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I180" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="181" spans="6:9">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="181" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F181" t="s">
         <v>365</v>
       </c>
       <c r="H181" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I181" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="182" spans="6:9">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="182" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F182" t="s">
         <v>366</v>
       </c>
       <c r="H182" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I182" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="183" spans="6:9">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="183" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F183" t="s">
         <v>367</v>
       </c>
       <c r="H183" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I183" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="184" spans="6:9">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="184" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F184" t="s">
         <v>368</v>
       </c>
       <c r="H184" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I184" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="185" spans="6:9">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="185" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F185" t="s">
         <v>369</v>
       </c>
       <c r="H185" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I185" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="186" spans="6:9">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="186" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F186" t="s">
         <v>370</v>
       </c>
       <c r="H186" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I186" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="187" spans="6:9">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="187" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F187" t="s">
         <v>371</v>
       </c>
       <c r="H187" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I187" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="188" spans="6:9">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="188" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F188" t="s">
         <v>372</v>
       </c>
       <c r="H188" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I188" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="189" spans="6:9">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="189" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F189" t="s">
         <v>373</v>
       </c>
       <c r="H189" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I189" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="190" spans="6:9">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="190" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F190" t="s">
         <v>374</v>
       </c>
       <c r="H190" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I190" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="191" spans="6:9">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="191" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F191" t="s">
         <v>375</v>
       </c>
       <c r="H191" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I191" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="192" spans="6:9">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="192" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F192" t="s">
         <v>376</v>
       </c>
       <c r="H192" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I192" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="193" spans="6:9">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="193" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F193" t="s">
         <v>377</v>
       </c>
       <c r="H193" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I193" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="194" spans="6:9">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="194" spans="6:9" x14ac:dyDescent="0.75">
       <c r="F194" t="s">
         <v>378</v>
       </c>
       <c r="H194" t="s">
-        <v>553</v>
+        <v>411</v>
       </c>
       <c r="I194" t="s">
-        <v>559</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
